--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_254.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_254.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32431-d217244-Reviews-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>148</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Extended-Stay-America-Los-Angeles-Glendale.h280537.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_254.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_254.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="709">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2027 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r571304975-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>32431</t>
+  </si>
+  <si>
+    <t>217244</t>
+  </si>
+  <si>
+    <t>571304975</t>
+  </si>
+  <si>
+    <t>04/05/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had daily radiation treatment at UCLA </t>
+  </si>
+  <si>
+    <t>Wonderful place to stay! Staff was great and we would use again. Very clean and nice. Great rate. We stayed 6 wks. No problems at all. Parking was great location was wonderful. Again the staff was wonderful and they were very helpful. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded April 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2018</t>
+  </si>
+  <si>
+    <t>Wonderful place to stay! Staff was great and we would use again. Very clean and nice. Great rate. We stayed 6 wks. No problems at all. Parking was great location was wonderful. Again the staff was wonderful and they were very helpful. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r566915825-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>566915825</t>
+  </si>
+  <si>
+    <t>03/16/2018</t>
+  </si>
+  <si>
+    <t>Motel 6 quality for twice the cost</t>
+  </si>
+  <si>
+    <t>We stayed there with our pet and we were told to save the first handicap parking spot for emergency personnel even though we had a valid placard.  Upon arrival we could only park there for 30 minutes and had to pay $5.00.  Due to experience, Police and Fire can park anywhere they like so that concept of holding a handicap spot open did not sit well for us and we refused to pay for an open parking space.  Secondly, there is sign inside the elevator that states, "no pets in elevator"  SoMotel why did you give us a room on the 3rd floor?  First time stay at one of these places and certainly our last.  Room was clean but the bedspreads appeared to need washing.  We left in the middle of the night.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded March 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2018</t>
+  </si>
+  <si>
+    <t>We stayed there with our pet and we were told to save the first handicap parking spot for emergency personnel even though we had a valid placard.  Upon arrival we could only park there for 30 minutes and had to pay $5.00.  Due to experience, Police and Fire can park anywhere they like so that concept of holding a handicap spot open did not sit well for us and we refused to pay for an open parking space.  Secondly, there is sign inside the elevator that states, "no pets in elevator"  SoMotel why did you give us a room on the 3rd floor?  First time stay at one of these places and certainly our last.  Room was clean but the bedspreads appeared to need washing.  We left in the middle of the night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r565964987-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>565964987</t>
+  </si>
+  <si>
+    <t>03/11/2018</t>
+  </si>
+  <si>
+    <t>First and Last time.</t>
+  </si>
+  <si>
+    <t>The room had a wierd smell upon entering had to spray perfume. Kitchen looked like it was quickly wiped down with a rag and water, bathroom door didn't lock, The top shelf in the closet was slightly broken so we couldn't place any of our belongings up there, tried using the iron and it was broken, sofa bed was uncomfortable and above all there was no complimentary cleaning service; there was an additional fee if you wanted cleaning service.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded March 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2018</t>
+  </si>
+  <si>
+    <t>The room had a wierd smell upon entering had to spray perfume. Kitchen looked like it was quickly wiped down with a rag and water, bathroom door didn't lock, The top shelf in the closet was slightly broken so we couldn't place any of our belongings up there, tried using the iron and it was broken, sofa bed was uncomfortable and above all there was no complimentary cleaning service; there was an additional fee if you wanted cleaning service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r555877711-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>555877711</t>
+  </si>
+  <si>
+    <t>01/23/2018</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>They miss my appointment to clean my room after I’m paid, the front desk people are very gentle and helpful the bad thing they give room next to someone have a dog and I tell them I’m not a dog friendly MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded January 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2018</t>
+  </si>
+  <si>
+    <t>They miss my appointment to clean my room after I’m paid, the front desk people are very gentle and helpful the bad thing they give room next to someone have a dog and I tell them I’m not a dog friendly More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r546834673-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>546834673</t>
+  </si>
+  <si>
+    <t>12/12/2017</t>
+  </si>
+  <si>
+    <t>4 night holiday stay- couple</t>
+  </si>
+  <si>
+    <t>Well priced hotel for the convenience of being close to Hollywood (need hire car). It was never more than a 20min Drive. Good access to local food, supermarkets and freeways. Couple of rooms we were initially shown were smelly so through persistence we were upgraded to a “deluxe” style room which was very kind of the manager. The hotel is clean enough and the staff are friendly enough. It was mostly quiet throughout. We got a good discount code for 35% off their nightly rate so all in all we had a great stay at a great price. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded December 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 13, 2017</t>
+  </si>
+  <si>
+    <t>Well priced hotel for the convenience of being close to Hollywood (need hire car). It was never more than a 20min Drive. Good access to local food, supermarkets and freeways. Couple of rooms we were initially shown were smelly so through persistence we were upgraded to a “deluxe” style room which was very kind of the manager. The hotel is clean enough and the staff are friendly enough. It was mostly quiet throughout. We got a good discount code for 35% off their nightly rate so all in all we had a great stay at a great price. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r546930465-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>546930465</t>
+  </si>
+  <si>
+    <t>Nice rooms size, poor sheets cleanness</t>
+  </si>
+  <si>
+    <t>Average hotel room, size was good, the first room they gave me didn't close the door, but they promptly provided another one. The second one the sheets and blanket were not exactly clean with spots of stuff in it.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Average hotel room, size was good, the first room they gave me didn't close the door, but they promptly provided another one. The second one the sheets and blanket were not exactly clean with spots of stuff in it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r541783390-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>541783390</t>
+  </si>
+  <si>
+    <t>11/18/2017</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>The hotel is conveniently located for travelers to the Los Angeles Glendale Area.  The convenience of making ones own meals is very attractive to long term stay visitors.   I will definitely stay at this hotel exclusively on my next tripMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded November 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 19, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is conveniently located for travelers to the Los Angeles Glendale Area.  The convenience of making ones own meals is very attractive to long term stay visitors.   I will definitely stay at this hotel exclusively on my next tripMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r541585989-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>541585989</t>
+  </si>
+  <si>
+    <t>11/17/2017</t>
+  </si>
+  <si>
+    <t>Horrible rooms.  Dirty</t>
+  </si>
+  <si>
+    <t>Rooms were not clean. Hair on towels, shower and sheets.  Floors were dirty. My sucks were one white.  Breakfast was non existent.  People were loud in the rooms next to mine.  Over priced. A motel would've been betterMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded November 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2017</t>
+  </si>
+  <si>
+    <t>Rooms were not clean. Hair on towels, shower and sheets.  Floors were dirty. My sucks were one white.  Breakfast was non existent.  People were loud in the rooms next to mine.  Over priced. A motel would've been betterMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r539596378-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>539596378</t>
+  </si>
+  <si>
+    <t>11/08/2017</t>
+  </si>
+  <si>
+    <t>Wonderful place</t>
+  </si>
+  <si>
+    <t>The staff was very accommodating and friendly.  We arrived prior to check in from out of town and they helped get us in a room earlier.  Great location for Universal Studios and great room rates.  The property is very clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded November 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2017</t>
+  </si>
+  <si>
+    <t>The staff was very accommodating and friendly.  We arrived prior to check in from out of town and they helped get us in a room earlier.  Great location for Universal Studios and great room rates.  The property is very clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r529675629-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>529675629</t>
+  </si>
+  <si>
+    <t>10/03/2017</t>
+  </si>
+  <si>
+    <t>Cool place</t>
+  </si>
+  <si>
+    <t>All the housekeeping staff are excellent service and the management team is always ready to help and always has a smile and a little always say good morning to us , I would recommend this place to all of my friends and families members, pet friendly here also MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded October 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2017</t>
+  </si>
+  <si>
+    <t>All the housekeeping staff are excellent service and the management team is always ready to help and always has a smile and a little always say good morning to us , I would recommend this place to all of my friends and families members, pet friendly here also More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r527413830-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>527413830</t>
+  </si>
+  <si>
+    <t>09/25/2017</t>
+  </si>
+  <si>
+    <t>Comfortable Clean Rooms with Great Service</t>
+  </si>
+  <si>
+    <t>I use this hotel almost once every week as I visit this area for business. I find this place to be nice, clean and comfortable. They renovated the third floor rooms already. So its even better now. The front desk staff is very friendly and helpful. Especially Liliana's customer service, friendliness and attention to detail is certainly worth mentioning. This is not the cheapest of all Extended Stay America properties, but It's a great value. I will certainly recommend this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded September 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2017</t>
+  </si>
+  <si>
+    <t>I use this hotel almost once every week as I visit this area for business. I find this place to be nice, clean and comfortable. They renovated the third floor rooms already. So its even better now. The front desk staff is very friendly and helpful. Especially Liliana's customer service, friendliness and attention to detail is certainly worth mentioning. This is not the cheapest of all Extended Stay America properties, but It's a great value. I will certainly recommend this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r526829739-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>526829739</t>
+  </si>
+  <si>
+    <t>09/23/2017</t>
+  </si>
+  <si>
+    <t>Had to cancel the reservation</t>
+  </si>
+  <si>
+    <t>Hard to find the reception in the car park. Pleasant staff but when leaving the elevator to 3 Rd floor room met by a wall of cigarette smoke. Whole floor a smoking floor. Asked to be moved  but unfortunately the room stank of stale Oder and  . TV poor reception and no internet connection. Fortunately reception staff refunded the 4 night booking when we found a best western on Route 66 nearer Glendora.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded September 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2017</t>
+  </si>
+  <si>
+    <t>Hard to find the reception in the car park. Pleasant staff but when leaving the elevator to 3 Rd floor room met by a wall of cigarette smoke. Whole floor a smoking floor. Asked to be moved  but unfortunately the room stank of stale Oder and  . TV poor reception and no internet connection. Fortunately reception staff refunded the 4 night booking when we found a best western on Route 66 nearer Glendora.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r508160134-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>508160134</t>
+  </si>
+  <si>
+    <t>08/02/2017</t>
+  </si>
+  <si>
+    <t>A nice place to stay</t>
+  </si>
+  <si>
+    <t>Stayed at the extended stay in Glendale California. It was clean and had everything we needed. A nice kitchen area. It was only a shart driving distance to everywhere I wanted to go. The front desk personnel were extremely helpful. I would go there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded August 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2017</t>
+  </si>
+  <si>
+    <t>Stayed at the extended stay in Glendale California. It was clean and had everything we needed. A nice kitchen area. It was only a shart driving distance to everywhere I wanted to go. The front desk personnel were extremely helpful. I would go there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r504801577-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>504801577</t>
+  </si>
+  <si>
+    <t>07/23/2017</t>
+  </si>
+  <si>
+    <t>Clean rooms, friendly staff</t>
+  </si>
+  <si>
+    <t>Happy with our stay. Room was clean. I rarely feel comfortable to sleep and use facilities at a hotel but here it was nice that I felt comfortable. A/C unit was noisy and bothersome at night but I did not mention to the staff.  MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded July 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2017</t>
+  </si>
+  <si>
+    <t>Happy with our stay. Room was clean. I rarely feel comfortable to sleep and use facilities at a hotel but here it was nice that I felt comfortable. A/C unit was noisy and bothersome at night but I did not mention to the staff.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r501280202-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>501280202</t>
+  </si>
+  <si>
+    <t>07/12/2017</t>
+  </si>
+  <si>
+    <t>☺️</t>
+  </si>
+  <si>
+    <t>Thanks for helping us and understanding of our situation, happy to see that people like animals and they are really friendly. Thanks Liliana for creating a friendly environment for us and making our trip better MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded July 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2017</t>
+  </si>
+  <si>
+    <t>Thanks for helping us and understanding of our situation, happy to see that people like animals and they are really friendly. Thanks Liliana for creating a friendly environment for us and making our trip better More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r497055572-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>497055572</t>
+  </si>
+  <si>
+    <t>06/28/2017</t>
+  </si>
+  <si>
+    <t>grand time</t>
+  </si>
+  <si>
+    <t>over all is was great to meet just wonderful staff Lilian, Eric, Alexander, including the cleaning staff where grand. Thanks all the staff there at Extended stay. This was my first time being there and also felt welcome.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded June 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2017</t>
+  </si>
+  <si>
+    <t>over all is was great to meet just wonderful staff Lilian, Eric, Alexander, including the cleaning staff where grand. Thanks all the staff there at Extended stay. This was my first time being there and also felt welcome.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r496732469-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>496732469</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>Business Trip Review</t>
+  </si>
+  <si>
+    <t>My stay at the Extended Stay America- Glendale was very positive. Staff was very kind and accommodating. Grab and go breakfast was quick and simple. Room was very clean. Kitchen appliances helped make business expenses more cost effective. I will stay here again for future business visits.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded June 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2017</t>
+  </si>
+  <si>
+    <t>My stay at the Extended Stay America- Glendale was very positive. Staff was very kind and accommodating. Grab and go breakfast was quick and simple. Room was very clean. Kitchen appliances helped make business expenses more cost effective. I will stay here again for future business visits.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r494940405-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>494940405</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>Cleanliness was horrible.</t>
+  </si>
+  <si>
+    <t>The room I was assigned was VERY DIRTY! Wasn't cleaned after the previous guest. That definitely ruined my night. And the breakfast selection was very limited. Never again will I stay at an extended stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded June 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2017</t>
+  </si>
+  <si>
+    <t>The room I was assigned was VERY DIRTY! Wasn't cleaned after the previous guest. That definitely ruined my night. And the breakfast selection was very limited. Never again will I stay at an extended stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r491790331-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>491790331</t>
+  </si>
+  <si>
+    <t>06/09/2017</t>
+  </si>
+  <si>
+    <t>Liliana guest services are Superior</t>
+  </si>
+  <si>
+    <t>Liliana is very nice, she makes you feel comfortable from the first time you walk in .very  warm and inviting...she's knowledgeable about all the questions I had..I had only great experiences with her..she defines true hospitality.. Majority of the employees here are nice. I can truly appreciate that.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded June 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2017</t>
+  </si>
+  <si>
+    <t>Liliana is very nice, she makes you feel comfortable from the first time you walk in .very  warm and inviting...she's knowledgeable about all the questions I had..I had only great experiences with her..she defines true hospitality.. Majority of the employees here are nice. I can truly appreciate that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r491877548-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>491877548</t>
+  </si>
+  <si>
+    <t>Good Hotel</t>
+  </si>
+  <si>
+    <t>Clean, pleasant hotel which comes and at a good rate   The Location is near to Hollywood and universal studios which is a bonus.  Would recommend to stay here if you are looking for a good experience.  4/5 ratingMoreShow less</t>
+  </si>
+  <si>
+    <t>Clean, pleasant hotel which comes and at a good rate   The Location is near to Hollywood and universal studios which is a bonus.  Would recommend to stay here if you are looking for a good experience.  4/5 ratingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r489251061-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>489251061</t>
+  </si>
+  <si>
+    <t>05/30/2017</t>
+  </si>
+  <si>
+    <t>NIce hotel in a good location</t>
+  </si>
+  <si>
+    <t>The hotel had been renovated not too long ago when we visited, this was also a week long trip for tourist attractions (so you have a baseline on what this trip was about).I feel like all extended stay rooms have a smell to them since they have a kitchen, and all of the variety of smells from making food soak into the furniture, in which I would recommend bringing an air freshener just to help you feel more at home. The room overall was clean, and received a decent signal of wi-fi (free wi-fi definitely not strong enough for business purposes). Also please remember that if you are staying here you receive cleaning service once per week included in your stay, it IS called extended stay and not just an overnight hotel so don't complain that the room is not cleaned everyday if you are staying for more than 2 days.The hotel is in a prime location, meaning not being too far from tourist locations such as the Griffith Observatory, the Hollywood Sign, Hollywood walk of fame, Santa Monica Pier, and Venice Beach just off the top of my head. Definitely would recommend staying here for a budget hotel while still in close proximity to top tourist attractions.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded June 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2017</t>
+  </si>
+  <si>
+    <t>The hotel had been renovated not too long ago when we visited, this was also a week long trip for tourist attractions (so you have a baseline on what this trip was about).I feel like all extended stay rooms have a smell to them since they have a kitchen, and all of the variety of smells from making food soak into the furniture, in which I would recommend bringing an air freshener just to help you feel more at home. The room overall was clean, and received a decent signal of wi-fi (free wi-fi definitely not strong enough for business purposes). Also please remember that if you are staying here you receive cleaning service once per week included in your stay, it IS called extended stay and not just an overnight hotel so don't complain that the room is not cleaned everyday if you are staying for more than 2 days.The hotel is in a prime location, meaning not being too far from tourist locations such as the Griffith Observatory, the Hollywood Sign, Hollywood walk of fame, Santa Monica Pier, and Venice Beach just off the top of my head. Definitely would recommend staying here for a budget hotel while still in close proximity to top tourist attractions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r479145416-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>479145416</t>
+  </si>
+  <si>
+    <t>04/26/2017</t>
+  </si>
+  <si>
+    <t>Average hotel</t>
+  </si>
+  <si>
+    <t>The hotel was convenient located for us and the rooms were fine. We had booked for four people and got a room with one King bed and extra couch at a rate of USD 170. The couch was very uncomfortable!!The staff was nice and friendly.The only thing that really bothered me was the parking fee. I never paid at a Motel property for parking- that´s really a reason for not coming back.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded April 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2017</t>
+  </si>
+  <si>
+    <t>The hotel was convenient located for us and the rooms were fine. We had booked for four people and got a room with one King bed and extra couch at a rate of USD 170. The couch was very uncomfortable!!The staff was nice and friendly.The only thing that really bothered me was the parking fee. I never paid at a Motel property for parking- that´s really a reason for not coming back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r473916344-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>473916344</t>
+  </si>
+  <si>
+    <t>04/09/2017</t>
+  </si>
+  <si>
+    <t>Disappointed, Glad it was only one night</t>
+  </si>
+  <si>
+    <t>Arrival and check in went fine but things went downhill from there. Got to our room which we booked for 2 adults, 3 kids. There were 2 queen beds, no cot or extra bedding for 5th person. Called for a for they said there wasn't one available but would bring up extra bedding. They did but it was 2 sheets and 2 thin blankets. Asked for a couple more blankets and they said they didn't have any. Took our comforters off the beds to make a bed on the floor. Room was clean but that's about all it had going for it. Had to request plates, cutlery and anything else for the kitchenette. The breakfast in the morning was a joke. Granola bars, processed muffins and coffee. That's it. No juice, fruit or milk. Ridiculous. There is nothing near the hotel either for decent food. Not a good place to stay. Especially with kids. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded April 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2017</t>
+  </si>
+  <si>
+    <t>Arrival and check in went fine but things went downhill from there. Got to our room which we booked for 2 adults, 3 kids. There were 2 queen beds, no cot or extra bedding for 5th person. Called for a for they said there wasn't one available but would bring up extra bedding. They did but it was 2 sheets and 2 thin blankets. Asked for a couple more blankets and they said they didn't have any. Took our comforters off the beds to make a bed on the floor. Room was clean but that's about all it had going for it. Had to request plates, cutlery and anything else for the kitchenette. The breakfast in the morning was a joke. Granola bars, processed muffins and coffee. That's it. No juice, fruit or milk. Ridiculous. There is nothing near the hotel either for decent food. Not a good place to stay. Especially with kids. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r471702457-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>471702457</t>
+  </si>
+  <si>
+    <t>03/31/2017</t>
+  </si>
+  <si>
+    <t>Pleasant one nite stay</t>
+  </si>
+  <si>
+    <t>Reception by Alex, very pleasant and helpful.    We booked and prepaid a 2Q room with kitchenette, but room 302 was not stocked with any kitchen items as it normally is. Was ok, since we only needed it one night, and Alex provided us with a coffemaker and mugs at check in. Room was pleasantly furnished, clean , nice property... Included breakfast was only "continental style" to include  coffee, granola bars, muffins, and packaged oatmeal, enough to get us started... it was close to area tourist attractions like Griffith Park, LA Zoo, Autry Museum, Forest LawnMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded April 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2017</t>
+  </si>
+  <si>
+    <t>Reception by Alex, very pleasant and helpful.    We booked and prepaid a 2Q room with kitchenette, but room 302 was not stocked with any kitchen items as it normally is. Was ok, since we only needed it one night, and Alex provided us with a coffemaker and mugs at check in. Room was pleasantly furnished, clean , nice property... Included breakfast was only "continental style" to include  coffee, granola bars, muffins, and packaged oatmeal, enough to get us started... it was close to area tourist attractions like Griffith Park, LA Zoo, Autry Museum, Forest LawnMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r446451022-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>446451022</t>
+  </si>
+  <si>
+    <t>12/24/2016</t>
+  </si>
+  <si>
+    <t>Location is in semi quiet residential/business area of town, and very close to Burbank.</t>
+  </si>
+  <si>
+    <t>This was our second stay here, and it was very convenient for the things we were going to be doing while in town. One of the reasons I picked this hotel is its like a apartment. They have a full kitchen with a counter with stools for dining. They are pet friendly and they had free parking. We were told that they were going to start charging for parking but would not be charged this stay. I don't understand how you can charge for parking when we have to self park and the lot is not secured, this will be the main reason I'll probably not return. They already have the parking lot, why start charging a daily parking fee? The room itself was clean, a little dated, not luxury, but suited our needs for a four night stay. Easy access to walk the dog and plenty  of grassy areas on site. They have a nice laundry room which is handy to refresh the traveling clothes.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded December 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 29, 2016</t>
+  </si>
+  <si>
+    <t>This was our second stay here, and it was very convenient for the things we were going to be doing while in town. One of the reasons I picked this hotel is its like a apartment. They have a full kitchen with a counter with stools for dining. They are pet friendly and they had free parking. We were told that they were going to start charging for parking but would not be charged this stay. I don't understand how you can charge for parking when we have to self park and the lot is not secured, this will be the main reason I'll probably not return. They already have the parking lot, why start charging a daily parking fee? The room itself was clean, a little dated, not luxury, but suited our needs for a four night stay. Easy access to walk the dog and plenty  of grassy areas on site. They have a nice laundry room which is handy to refresh the traveling clothes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r431336603-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>431336603</t>
+  </si>
+  <si>
+    <t>10/24/2016</t>
+  </si>
+  <si>
+    <t>Staff is wonderful!</t>
+  </si>
+  <si>
+    <t>The staff was wonderful, but what I didn't expect was to hear dogs barking! My miss that it is a dog friendly hotel, but kudos to staff for moving my room when I was woken up the first night I stayed there. Clean rooms and nice to have a mini-kitchen.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded November 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2016</t>
+  </si>
+  <si>
+    <t>The staff was wonderful, but what I didn't expect was to hear dogs barking! My miss that it is a dog friendly hotel, but kudos to staff for moving my room when I was woken up the first night I stayed there. Clean rooms and nice to have a mini-kitchen.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r431044437-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>431044437</t>
+  </si>
+  <si>
+    <t>10/23/2016</t>
+  </si>
+  <si>
+    <t>Parking, parking, parking! Good weekend deal</t>
+  </si>
+  <si>
+    <t>Although the premise of Extended Stay is for working people during the week, I chose Ex Stay Glendale based on parking and a good weekend rate.Although the address is Glendale, it's a few blocks from the Tesla Super Charger in Burbank (though I didn't see any EV parking at the hotel itself.)The rooms are big, and after the usual chemical "just cleaned" hotel odor was comfortable enough with a generous supply of TV channels.The "complimentary breakfast" wasn't much of a compliment - coffee with artificial creamer and a plastic-wrapped muffin that looked as if it had been made in the Nixon administration. But the price for the room was fair and there are many options for nice diners within the neighborhood.I'd recommend this location for out-of-towners visiting LA for leisure trips.MoreShow less</t>
+  </si>
+  <si>
+    <t>Although the premise of Extended Stay is for working people during the week, I chose Ex Stay Glendale based on parking and a good weekend rate.Although the address is Glendale, it's a few blocks from the Tesla Super Charger in Burbank (though I didn't see any EV parking at the hotel itself.)The rooms are big, and after the usual chemical "just cleaned" hotel odor was comfortable enough with a generous supply of TV channels.The "complimentary breakfast" wasn't much of a compliment - coffee with artificial creamer and a plastic-wrapped muffin that looked as if it had been made in the Nixon administration. But the price for the room was fair and there are many options for nice diners within the neighborhood.I'd recommend this location for out-of-towners visiting LA for leisure trips.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r410793972-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>410793972</t>
+  </si>
+  <si>
+    <t>08/25/2016</t>
+  </si>
+  <si>
+    <t>Much better than expected</t>
+  </si>
+  <si>
+    <t>My 2 daughters and I stayed at this hotel for 2 nights in late August. We were greeted by a very friendly and helpful front desk attendant and given a great room with king bed and pullout sofa bed. The room was large and included a kitchenette, desk area, nice closet space and bathroom with the sink in the open area. This was very convenient for the 3 of us. The king bed was comfortable while the sofa bed suffered from poor support and a thin mattress.The grab and go breakfast and coffee were served from a table in the lobby and included granola bars, instant oatmeal, and packaged muffins. The coffee was, unfortunately, the brown water we usually get at motels.Wifi signal was strong, and there were plenty of outlets in the room for our various electronic devices. The hotel is well located, very near to the Burbank-Glendale line.The building has 2 elevators. The maid service is weekly, but the desk attendants offered to have linens brought up if we needed them during our 2-night stay.All in all, we enjoyed our visit and would definitely consider staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded September 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 1, 2016</t>
+  </si>
+  <si>
+    <t>My 2 daughters and I stayed at this hotel for 2 nights in late August. We were greeted by a very friendly and helpful front desk attendant and given a great room with king bed and pullout sofa bed. The room was large and included a kitchenette, desk area, nice closet space and bathroom with the sink in the open area. This was very convenient for the 3 of us. The king bed was comfortable while the sofa bed suffered from poor support and a thin mattress.The grab and go breakfast and coffee were served from a table in the lobby and included granola bars, instant oatmeal, and packaged muffins. The coffee was, unfortunately, the brown water we usually get at motels.Wifi signal was strong, and there were plenty of outlets in the room for our various electronic devices. The hotel is well located, very near to the Burbank-Glendale line.The building has 2 elevators. The maid service is weekly, but the desk attendants offered to have linens brought up if we needed them during our 2-night stay.All in all, we enjoyed our visit and would definitely consider staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r407868937-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>407868937</t>
+  </si>
+  <si>
+    <t>08/20/2016</t>
+  </si>
+  <si>
+    <t>Clean and what you would expect</t>
+  </si>
+  <si>
+    <t>We stayed on night there on the way to San Diego, The check was slow, there was just one person helping the guests. The rooms were clean. The complementary breakfast was just some muffins and danishes (not freshly baked), but it is what you would expect from this price range of a hotel. The area around the hotel is more residential and just have a few restaurants.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded August 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2016</t>
+  </si>
+  <si>
+    <t>We stayed on night there on the way to San Diego, The check was slow, there was just one person helping the guests. The rooms were clean. The complementary breakfast was just some muffins and danishes (not freshly baked), but it is what you would expect from this price range of a hotel. The area around the hotel is more residential and just have a few restaurants.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r405496615-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>405496615</t>
+  </si>
+  <si>
+    <t>08/14/2016</t>
+  </si>
+  <si>
+    <t>Comfortable Stay</t>
+  </si>
+  <si>
+    <t>I booked this hotel a night before my stay and was very satisfied. I went to Universal Studios and was looking for something close and cheap, glad I found this place! I checked in at 11pm with no problem, very quick friendly guy in the front. My biggest concern every time I stay in an LA hotel is whether or not my car will be safe in the parking lot but I didn't have those worries here. The neighborhood was very quite, I didn't see any homeless people or have any disturbances.   My room was very clean and bigger than I expected. Bed and pillow was very comfortable.The only thing that I didn't like was during checkout, other guests and I were trying to checkout but no one was at the front desk. When I showed up the people before me said they had been waiting for about 15 minutes so I went to look for any employee and couldn't find anyone. A guest literally had to go into the employee break room to get some employees out. A part from that I was satisfied.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded August 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2016</t>
+  </si>
+  <si>
+    <t>I booked this hotel a night before my stay and was very satisfied. I went to Universal Studios and was looking for something close and cheap, glad I found this place! I checked in at 11pm with no problem, very quick friendly guy in the front. My biggest concern every time I stay in an LA hotel is whether or not my car will be safe in the parking lot but I didn't have those worries here. The neighborhood was very quite, I didn't see any homeless people or have any disturbances.   My room was very clean and bigger than I expected. Bed and pillow was very comfortable.The only thing that I didn't like was during checkout, other guests and I were trying to checkout but no one was at the front desk. When I showed up the people before me said they had been waiting for about 15 minutes so I went to look for any employee and couldn't find anyone. A guest literally had to go into the employee break room to get some employees out. A part from that I was satisfied.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r398187828-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>398187828</t>
+  </si>
+  <si>
+    <t>07/27/2016</t>
+  </si>
+  <si>
+    <t>Foulness of room and attitude among hotel staff</t>
+  </si>
+  <si>
+    <t>brown splatters on toilet lid, smell of baby diapers in room, sticky bathroom floor, ants everywhere...rude, incompetent front desk staff.  and the grounds are lousy, but that was inconsequential, really.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded August 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2016</t>
+  </si>
+  <si>
+    <t>brown splatters on toilet lid, smell of baby diapers in room, sticky bathroom floor, ants everywhere...rude, incompetent front desk staff.  and the grounds are lousy, but that was inconsequential, really.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r389404771-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>389404771</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t>Enjoyed our stay</t>
+  </si>
+  <si>
+    <t>This is our second time staying at one of the Extended Stay America hotels. As was the case on the previous occasion, we enjoyed our stay. Really spacious room. Clean and tidy. We came across a few very helpful staff during our 5 night stay there. We will definitely come back when we visit LA next. Our stay was between 12 - 17 June 2016MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded July 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2016</t>
+  </si>
+  <si>
+    <t>This is our second time staying at one of the Extended Stay America hotels. As was the case on the previous occasion, we enjoyed our stay. Really spacious room. Clean and tidy. We came across a few very helpful staff during our 5 night stay there. We will definitely come back when we visit LA next. Our stay was between 12 - 17 June 2016More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r386801134-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>386801134</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Horrible Pet Friendly Flea Friendly too</t>
+  </si>
+  <si>
+    <t>OMG, the hotel smelled really bad.  The room had a horrible odor.  We checked in turned on the air to try and remove the odor.  Went towards the front door and here were two nasty looking dogs checking in with their owner. All day we felt that something was biting us.  Only to pull the covers back for bed and fleas were jumping.  Of course they were fully booked and could not relocate us.  He offered to change the sheets only for us to see a big piss spot in the bed. I will never go back.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r354336873-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>354336873</t>
+  </si>
+  <si>
+    <t>03/10/2016</t>
+  </si>
+  <si>
+    <t>Nice Place To Stay</t>
+  </si>
+  <si>
+    <t>We had a nice stay at this Extended Stay.  The room was clean and spacious.  The location was great.  The employees were very helpful and professional.  The lobby in the morning has a great set up for a quick breakfast snack.  If you call the lobby and need a coffee maker and coffee they will bring it.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded March 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2016</t>
+  </si>
+  <si>
+    <t>We had a nice stay at this Extended Stay.  The room was clean and spacious.  The location was great.  The employees were very helpful and professional.  The lobby in the morning has a great set up for a quick breakfast snack.  If you call the lobby and need a coffee maker and coffee they will bring it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r354278223-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>354278223</t>
+  </si>
+  <si>
+    <t>Great staff but rooms need updating.</t>
+  </si>
+  <si>
+    <t>What make this place special is the staff. Namely Zac and Diana. They both went out of their way to help us not only in the hotel but finding our way around Los Angeles and giving us tips. 5 star staff. The hotel itself need upgrating in the rooms as they are very dated. Having said that the cleaners do a fantastic job and they are spotless. Good location for Universal studios and Holwood if you don't want to be in the middle of it all. Great Pollo Loco 2 minutes walk away plus a good mini market and donut shop! Breakfast is very poor, grab and go, ie. a few muffins in plastic, apple or orange, coffee and muesli bars. Not really a breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>What make this place special is the staff. Namely Zac and Diana. They both went out of their way to help us not only in the hotel but finding our way around Los Angeles and giving us tips. 5 star staff. The hotel itself need upgrating in the rooms as they are very dated. Having said that the cleaners do a fantastic job and they are spotless. Good location for Universal studios and Holwood if you don't want to be in the middle of it all. Great Pollo Loco 2 minutes walk away plus a good mini market and donut shop! Breakfast is very poor, grab and go, ie. a few muffins in plastic, apple or orange, coffee and muesli bars. Not really a breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r336897762-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>336897762</t>
+  </si>
+  <si>
+    <t>01/03/2016</t>
+  </si>
+  <si>
+    <t>Average Hotel but great location when visiting Hollywood.</t>
+  </si>
+  <si>
+    <t>Stayed here with my family of 4 last week when visiting Los Angeles and Hollywood for vacation. Hotel was a bit dated and there were a few issues with our room. Staff did everything they could to try and rectify but ended up giving us a credit. Location is perfect! Just outside the Griffith Park and close to Hollywood, makes a great location away from the busyness of the tourist spots.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded January 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2016</t>
+  </si>
+  <si>
+    <t>Stayed here with my family of 4 last week when visiting Los Angeles and Hollywood for vacation. Hotel was a bit dated and there were a few issues with our room. Staff did everything they could to try and rectify but ended up giving us a credit. Location is perfect! Just outside the Griffith Park and close to Hollywood, makes a great location away from the busyness of the tourist spots.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r320801905-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>320801905</t>
+  </si>
+  <si>
+    <t>10/21/2015</t>
+  </si>
+  <si>
+    <t>General Review</t>
+  </si>
+  <si>
+    <t>Just a few details  the hotel could have made a nicer impression on arrival. Don't stay at the end of the hall near the outside doors--all night coming and going of guests door slamming. Room was non-smoking but smelled like Pets. Bathroom sink (no hot water). Night time front desk staff not friendly! wrinkled sweater like we woke her up. Not accommodating or volunteering information about the property etc.. Although Nice grab and go (free) breakfast. Morning staff neat and friendly. Room and bed clean, comfortable. Priced with range for location.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded October 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 28, 2015</t>
+  </si>
+  <si>
+    <t>Just a few details  the hotel could have made a nicer impression on arrival. Don't stay at the end of the hall near the outside doors--all night coming and going of guests door slamming. Room was non-smoking but smelled like Pets. Bathroom sink (no hot water). Night time front desk staff not friendly! wrinkled sweater like we woke her up. Not accommodating or volunteering information about the property etc.. Although Nice grab and go (free) breakfast. Morning staff neat and friendly. Room and bed clean, comfortable. Priced with range for location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r316438077-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>316438077</t>
+  </si>
+  <si>
+    <t>10/05/2015</t>
+  </si>
+  <si>
+    <t>Pet friendly (very important 4 us)</t>
+  </si>
+  <si>
+    <t>Close to downtown L.A. Nice,quiet and we think safe neighborhood,friendly and helpful staff,just don't stay downstairs (upstairs people start walking at 5:00 am couldn't sleep at all after that!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded October 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 15, 2015</t>
+  </si>
+  <si>
+    <t>Close to downtown L.A. Nice,quiet and we think safe neighborhood,friendly and helpful staff,just don't stay downstairs (upstairs people start walking at 5:00 am couldn't sleep at all after that!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r316080358-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>316080358</t>
+  </si>
+  <si>
+    <t>10/04/2015</t>
+  </si>
+  <si>
+    <t>Short stay America</t>
+  </si>
+  <si>
+    <t>Relatively speaking in line with the reset of the LA basin the price was lower than many. Location was okay and the room was okay. However...it's a bit industrial and not overly warm and welcoming. The room had plenty of outlets available for charging electronics. However, the rest was more Spartan than comfortable. The bed was almost rock hard with only one night stand. Carpet was worn with burn marks, and the place smelled of stale cigarettes...in the no smoking floor. Glad we were only staying one night.MoreShow less</t>
+  </si>
+  <si>
+    <t>Relatively speaking in line with the reset of the LA basin the price was lower than many. Location was okay and the room was okay. However...it's a bit industrial and not overly warm and welcoming. The room had plenty of outlets available for charging electronics. However, the rest was more Spartan than comfortable. The bed was almost rock hard with only one night stand. Carpet was worn with burn marks, and the place smelled of stale cigarettes...in the no smoking floor. Glad we were only staying one night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r282137416-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>282137416</t>
+  </si>
+  <si>
+    <t>06/22/2015</t>
+  </si>
+  <si>
+    <t>Nice, but Noisy</t>
+  </si>
+  <si>
+    <t>Nice hotel. Reasonably priced and well located. Nothing fancy here. No frills. But very clean and with a friendly, attentive staff. My only complaint would be the overall noise. My room, 131, was located directly next to the boiler room and the front entrance. I could hear the door opening and closing all evening long and there was bumping and machine noises from the boiler room. I could also clearly hear all the voices and door slamming in the hallway, but I see that as a problem with many modern hotels and not unique to this hotel. Finally, the A/C was not as efficient as it could be and the room was warm all night. All that said, I would say that the hotel was a good value, clean and friendly. I would recommend avoiding room 131 and the boiler room area and you should be fine. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded July 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2015</t>
+  </si>
+  <si>
+    <t>Nice hotel. Reasonably priced and well located. Nothing fancy here. No frills. But very clean and with a friendly, attentive staff. My only complaint would be the overall noise. My room, 131, was located directly next to the boiler room and the front entrance. I could hear the door opening and closing all evening long and there was bumping and machine noises from the boiler room. I could also clearly hear all the voices and door slamming in the hallway, but I see that as a problem with many modern hotels and not unique to this hotel. Finally, the A/C was not as efficient as it could be and the room was warm all night. All that said, I would say that the hotel was a good value, clean and friendly. I would recommend avoiding room 131 and the boiler room area and you should be fine. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r281970828-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>281970828</t>
+  </si>
+  <si>
+    <t>06/21/2015</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>Overall we liked our stay in this hotel.But rooms are not that nice as shown in the pictures, maybe only few rooms are renovated. We stayed in first floor. Breakfast is grab and go.Kitchen is clean. Bathroom is okay. We were looking to stay near Hollywood but we couldn't find any extended stay other than Glendale one nearer to Hollywood.MoreShow less</t>
+  </si>
+  <si>
+    <t>Overall we liked our stay in this hotel.But rooms are not that nice as shown in the pictures, maybe only few rooms are renovated. We stayed in first floor. Breakfast is grab and go.Kitchen is clean. Bathroom is okay. We were looking to stay near Hollywood but we couldn't find any extended stay other than Glendale one nearer to Hollywood.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r276358183-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>276358183</t>
+  </si>
+  <si>
+    <t>06/01/2015</t>
+  </si>
+  <si>
+    <t>Good place for an extended stay near Hollywood/Universal area</t>
+  </si>
+  <si>
+    <t>Stayed here for four nights recently and the experience has been quite good. The hotel is in a very central location in walkable distance to good restaurants and grocery stores. Rooms are clean and the breakfast options are the the usual stuff we get in all ESA properties. We were in the city to primarily visit the Hollywood area, Griffith park and Universal Studios. This hotel is in perfect location for these places and has ample parking space.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded June 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here for four nights recently and the experience has been quite good. The hotel is in a very central location in walkable distance to good restaurants and grocery stores. Rooms are clean and the breakfast options are the the usual stuff we get in all ESA properties. We were in the city to primarily visit the Hollywood area, Griffith park and Universal Studios. This hotel is in perfect location for these places and has ample parking space.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r263772659-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>263772659</t>
+  </si>
+  <si>
+    <t>04/05/2015</t>
+  </si>
+  <si>
+    <t>I have a 98 Nights booking here in King Suite</t>
+  </si>
+  <si>
+    <t>When I checked In the hotel positively surprised me. I am here for a business trip of 14 weeks. The rooms are spacious and have Kitchen, Fridge, Microwave to make it more homely. They claim to provide breakfast but do not rely on that. Because they serve only Muffin, Apple and Coffee. I am deducting 0.5 point because of this. A deduction of another point because of my Laptop got stolen from their room and when I threatened them to file a police complaint somehow they were able to recover my laptop from their laundry room. Minus 1 for this. Do not stay in any of the rooms (specially King Suite) on the ground floor. Because it will be very noisy and you will not be able to open the curtains because of loss of privacy. Minus 0.5. But the location is really good with lot of restaurants around, Public Transport (busline, Railways), very near to Griffith Observatory (7miles) and other attractions.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>When I checked In the hotel positively surprised me. I am here for a business trip of 14 weeks. The rooms are spacious and have Kitchen, Fridge, Microwave to make it more homely. They claim to provide breakfast but do not rely on that. Because they serve only Muffin, Apple and Coffee. I am deducting 0.5 point because of this. A deduction of another point because of my Laptop got stolen from their room and when I threatened them to file a police complaint somehow they were able to recover my laptop from their laundry room. Minus 1 for this. Do not stay in any of the rooms (specially King Suite) on the ground floor. Because it will be very noisy and you will not be able to open the curtains because of loss of privacy. Minus 0.5. But the location is really good with lot of restaurants around, Public Transport (busline, Railways), very near to Griffith Observatory (7miles) and other attractions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r261779009-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>261779009</t>
+  </si>
+  <si>
+    <t>03/25/2015</t>
+  </si>
+  <si>
+    <t>A serve yourself hotel, very interesting</t>
+  </si>
+  <si>
+    <t>My room was fine but I wasn't expecting to not have any maid service.  In fact, we had to take our dirty towels to the front desk to get clean ones.  I also had to ask for kitchen plates, utensils, pans, dish towels, etc.  It was fine but not what I expected.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r261453277-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>261453277</t>
+  </si>
+  <si>
+    <t>03/24/2015</t>
+  </si>
+  <si>
+    <t>I stayed her 3 times in 2014/ 2015</t>
+  </si>
+  <si>
+    <t>This was a place I stayed when I did my contract in LA. the first time I stayed it was nice. The second time I stayed I left because I found a cheaper deal across the highway. The third time I stayed I was just resting from a 30hour drive from Houston, texas heading to Oakland, CA. One thing I can say from all the stays was that the bed is still not comfortable, everything else is good, except that bed.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r252414736-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>252414736</t>
+  </si>
+  <si>
+    <t>02/03/2015</t>
+  </si>
+  <si>
+    <t>Good, clean, effective lodging...</t>
+  </si>
+  <si>
+    <t>This year we, as a family, decided to visit the Los Angeles Area to get a first hand experience of the Theme Parks as well as the Hollywood Area.Arrival at hotel was late (around 10:00 PM) and everything was working perfectly; front desk personnel was just waiting for us.We used this hotel in three different occasions and everyone of them we received great service.Congratulations!!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded February 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2015</t>
+  </si>
+  <si>
+    <t>This year we, as a family, decided to visit the Los Angeles Area to get a first hand experience of the Theme Parks as well as the Hollywood Area.Arrival at hotel was late (around 10:00 PM) and everything was working perfectly; front desk personnel was just waiting for us.We used this hotel in three different occasions and everyone of them we received great service.Congratulations!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r248989436-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>248989436</t>
+  </si>
+  <si>
+    <t>01/12/2015</t>
+  </si>
+  <si>
+    <t>Great!</t>
+  </si>
+  <si>
+    <t>I really enjoyed staying at this hotel. I loved that it had a kitchen, and it provided Showtime on the TV. The TV channels were reasonable. However, the floor and carpet was not cleaned very well, and the people who stayed above my room was a little noisy. Other than that, it was a great stay. I would go back again!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded January 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2015</t>
+  </si>
+  <si>
+    <t>I really enjoyed staying at this hotel. I loved that it had a kitchen, and it provided Showtime on the TV. The TV channels were reasonable. However, the floor and carpet was not cleaned very well, and the people who stayed above my room was a little noisy. Other than that, it was a great stay. I would go back again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r245482670-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>245482670</t>
+  </si>
+  <si>
+    <t>12/22/2014</t>
+  </si>
+  <si>
+    <t>Was comfortable like having an apartment away from home.</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised by the overall experience of this hotel. Having never stayed in this type of hotel. We needed to spend five nights while in town this month and we had our puppy with us. The Holiday Inn we stayed at last year changed their pet policy and I was scrambling to find another pet friendly place to stay. There were plenty of places around the property to walk the dog. Check in was easy, the room had a full kitchen and a couch and coffee table. We had a king bed, the mattress was a little crunchy on the sides but we did sleep ok.They don't clean the room everyday, so you ask for that service if you want. This works when you  value your privacy. I felt like I was at home. The elevators worked well, overall the noise wasn't an issue, occasionally someone walking too hard upstairs or a door shutting hard. They have a grab n go breakfast, muffins and granola bars cereal, juices and coffee . I would stay here again next time I am in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded December 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2014</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised by the overall experience of this hotel. Having never stayed in this type of hotel. We needed to spend five nights while in town this month and we had our puppy with us. The Holiday Inn we stayed at last year changed their pet policy and I was scrambling to find another pet friendly place to stay. There were plenty of places around the property to walk the dog. Check in was easy, the room had a full kitchen and a couch and coffee table. We had a king bed, the mattress was a little crunchy on the sides but we did sleep ok.They don't clean the room everyday, so you ask for that service if you want. This works when you  value your privacy. I felt like I was at home. The elevators worked well, overall the noise wasn't an issue, occasionally someone walking too hard upstairs or a door shutting hard. They have a grab n go breakfast, muffins and granola bars cereal, juices and coffee . I would stay here again next time I am in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r242028880-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>242028880</t>
+  </si>
+  <si>
+    <t>11/29/2014</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>We needed a place to stay for two nights near Burbank/LA, and this Glendale hotel worked out fine. I booked through Bill Shatner's "Negotiator" site. It was about halfway from the Getty Villa and the Huntington Botanical Gardens, two places we would be visiting. Rooms were fine...full kitchen, but you had to ask the front desk for utensils/glasses/pots/pans, etc. if you wanted to cook. Bed was comfortable. Flat screen tv with limited cable was nice. Free wi-fi. Breakfast is what everyone else has already said...granola bars, fruit, muffins, and coffee ("grab-and-go").You could do much worse.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded December 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 4, 2014</t>
+  </si>
+  <si>
+    <t>We needed a place to stay for two nights near Burbank/LA, and this Glendale hotel worked out fine. I booked through Bill Shatner's "Negotiator" site. It was about halfway from the Getty Villa and the Huntington Botanical Gardens, two places we would be visiting. Rooms were fine...full kitchen, but you had to ask the front desk for utensils/glasses/pots/pans, etc. if you wanted to cook. Bed was comfortable. Flat screen tv with limited cable was nice. Free wi-fi. Breakfast is what everyone else has already said...granola bars, fruit, muffins, and coffee ("grab-and-go").You could do much worse.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r240756799-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>240756799</t>
+  </si>
+  <si>
+    <t>11/20/2014</t>
+  </si>
+  <si>
+    <t>Had a great time</t>
+  </si>
+  <si>
+    <t>My wife and three grandkids stayed here last summer and it worked out really well, the room was big enough for all of us to stay, the kitchen really worked out great. The coffee was fresh every morning but the grab and run breakfast which was made up of alot of nothing was nothing to write home about. But the staff was super friendly and they made our stay a happy one. They offered lots of directions to different attractions, and responded quickly anytime we needed anything. I would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded November 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 25, 2014</t>
+  </si>
+  <si>
+    <t>My wife and three grandkids stayed here last summer and it worked out really well, the room was big enough for all of us to stay, the kitchen really worked out great. The coffee was fresh every morning but the grab and run breakfast which was made up of alot of nothing was nothing to write home about. But the staff was super friendly and they made our stay a happy one. They offered lots of directions to different attractions, and responded quickly anytime we needed anything. I would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r240314044-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>240314044</t>
+  </si>
+  <si>
+    <t>11/17/2014</t>
+  </si>
+  <si>
+    <t>Paper thin walls.</t>
+  </si>
+  <si>
+    <t>Just stayed here for a long weekend away. Staff are okay but do not go out of their way and front desk coverage is non-existent at night. I called for a wake up call and the night person who answered said "No problem". When I called in the morning to revise the front desk person said "We will try our best." and then they never called. The new decor is ok, beds are very hard, elevators are quite old and slow, free parking in a safe area, not too far from various highways. The free breakfast is quite simple so if that is a criteria look elsewhere. My main issue was the noise from the halls and other floors. It was constant and loud. Not people yelling or kids running, just regular noise and it seemed to be amplified. Very hard to rest at night. For the money you are spending, you could do better. Look elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>Just stayed here for a long weekend away. Staff are okay but do not go out of their way and front desk coverage is non-existent at night. I called for a wake up call and the night person who answered said "No problem". When I called in the morning to revise the front desk person said "We will try our best." and then they never called. The new decor is ok, beds are very hard, elevators are quite old and slow, free parking in a safe area, not too far from various highways. The free breakfast is quite simple so if that is a criteria look elsewhere. My main issue was the noise from the halls and other floors. It was constant and loud. Not people yelling or kids running, just regular noise and it seemed to be amplified. Very hard to rest at night. For the money you are spending, you could do better. Look elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r224106943-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>224106943</t>
+  </si>
+  <si>
+    <t>08/24/2014</t>
+  </si>
+  <si>
+    <t>Nice accommodations but some nits on service side.</t>
+  </si>
+  <si>
+    <t>I chose this place to stay in my home town when I had to be out of my house for a few days during a remodel, and I could bring my pet with me for an additional charge rather than having to board her. The other pet friendly choice in the price range gets terrible reviews and has inconvenient parking, although it does have a few more onsite amenities including housekeeping and is about $25 a night cheaper.
+The physical quality of this facility is very nice. My queen bed room wasn't big but it was laid out pretty well. A good useful little kitchen, nice new furnishings, clean and attractively decorated. Parking is very convenient once you're checked in and have key card access to a few other entry doors besides the lobby. 
+Service isn't this property's superpower. Promises of call back, or time to bring up amenities ordered to the room weren't kept. "10 minutes" was more than an hour on two occasions dealing with the front desk, and might have been longer had I not either called back or stopped by the desk. Also when ordering amenities, some of what was promised (coffee filter packs, dishtowels) weren't provided. 
+There is no housekeeping for guests there for less than a week, which was fine with me in principle since I had a pet in the room and didn't want them in the room when I was out. But...I chose this place to stay in my home town when I had to be out of my house for a few days during a remodel, and I could bring my pet with me for an additional charge rather than having to board her. The other pet friendly choice in the price range gets terrible reviews and has inconvenient parking, although it does have a few more onsite amenities including housekeeping and is about $25 a night cheaper.The physical quality of this facility is very nice. My queen bed room wasn't big but it was laid out pretty well. A good useful little kitchen, nice new furnishings, clean and attractively decorated. Parking is very convenient once you're checked in and have key card access to a few other entry doors besides the lobby. Service isn't this property's superpower. Promises of call back, or time to bring up amenities ordered to the room weren't kept. "10 minutes" was more than an hour on two occasions dealing with the front desk, and might have been longer had I not either called back or stopped by the desk. Also when ordering amenities, some of what was promised (coffee filter packs, dishtowels) weren't provided. There is no housekeeping for guests there for less than a week, which was fine with me in principle since I had a pet in the room and didn't want them in the room when I was out. But for an average price of $130 a night in a non-resort area, plus the $25 per night pet supplement I paid, it seemed a little bit pricey. It's a self service motel/hotel all the way. In room amenities are also pretty spartan. Teeny little shampoo and conditioner. Definitely one or two uses at most. I brought my own. No paper towels, no in room coffee provided although you can order a coffee maker free of charge. (Along with plates, cups, utensils, coffee maker, toaster, frying pan.) One ice tray provided. No ice machine in hotel. Very little staff on site at any one time from what I could tell, so you'll need to manage your bags and be patient when you need something. If you need more towels, you take your used ones to the front desk to exchange for fresh ones.If you want, you can get "grab and go breakfast" which is coffee or tea downstairs, fruit, and packaged breakfast pastries in the lobby from 6 to 930. Free parking. Free wifi, but it was too slow for me to use efficiently so I gave up and used cell data for my tablet and cell.Bed is REALLY hard which is fine for me personally as I have a bad back, but might bother some people. It squeaked when moving on it, but no big deal. The room smelled weird, but in fairness it was a smoking room that also accommodates pets, so the odor was probably a function of some cleaning product used to neutralize that. A/C unit on the wall was loud but worked ok on hot August days, and the window opens a little bit, but it's a busy street, so that could also get loud. Water pressure was fair. No problem with hot water, but had trouble getting it to be cold water. Full size fridge, microwave, two burner stove, quite a lot of storage in drawers and cabinets and shelves, although the closet is just average size with a half dozen hangers.Not very sound proofed. My neighbors one night must have slammed their door two dozen times in the space of 3 hours, and it literally made the bed shake and scared the beejeezus out of my cat. Also could hear tantrum throwing children and people conversing in hallways.The TV was apparently permanently set on power saver and would shut itself off every two hours or so. It's a flat screen but not HD. You get basic cable, plus a couple of premium channels. (Channel guide provided on a card in the room was inaccurate.)Location is in a decent commercial area on a busy street. There is a bus line, but I had my car so I don't know how convenient it is for getting around town. There are several chain fast food places, donut shop, mini mart, pizza joint etc. within walking distance. Restaurant next door is closed so hopefully for travelers looking to walk to a sit down restaurant, something else will move in.I'm giving this 4 stars because it's the rooms themselves are very attractive, pretty comfortable and clean on check in. Once I shopped for needed staples, I was comfortable there. But I felt like it was pretty expensive for spartan, or really almost no guest service once you check in. If you need a place with a kitchenette and/or that is pet friendly in the area, you have a car to get to a market to stock up what you need for food, drink, hygiene products, or if you are satisfied with using the fast food places and minimarts within walking distance, I would recommend it as one of the better options in Glendale.Book as early as possible for the best deal. My price went up by 40 dollars within a week of first checking prices, nailing down my contractors' schedule and finally booking it. and another 20 dollars increase when I had to add a day. I requested a two hour late checkout but was only allowed one without additional charge which seemed a little strange because on my checkout day, the place appeared almost completely empty, checkout time is 11 and checkin at 3. I actually had to book an extra day I didn't even stay because I needed to get out of the house and in a room in the morning, and they wouldn't commit to an early check in. They're strict on it apparently, full occupancy or not.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded August 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2014</t>
+  </si>
+  <si>
+    <t>I chose this place to stay in my home town when I had to be out of my house for a few days during a remodel, and I could bring my pet with me for an additional charge rather than having to board her. The other pet friendly choice in the price range gets terrible reviews and has inconvenient parking, although it does have a few more onsite amenities including housekeeping and is about $25 a night cheaper.
+The physical quality of this facility is very nice. My queen bed room wasn't big but it was laid out pretty well. A good useful little kitchen, nice new furnishings, clean and attractively decorated. Parking is very convenient once you're checked in and have key card access to a few other entry doors besides the lobby. 
+Service isn't this property's superpower. Promises of call back, or time to bring up amenities ordered to the room weren't kept. "10 minutes" was more than an hour on two occasions dealing with the front desk, and might have been longer had I not either called back or stopped by the desk. Also when ordering amenities, some of what was promised (coffee filter packs, dishtowels) weren't provided. 
+There is no housekeeping for guests there for less than a week, which was fine with me in principle since I had a pet in the room and didn't want them in the room when I was out. But...I chose this place to stay in my home town when I had to be out of my house for a few days during a remodel, and I could bring my pet with me for an additional charge rather than having to board her. The other pet friendly choice in the price range gets terrible reviews and has inconvenient parking, although it does have a few more onsite amenities including housekeeping and is about $25 a night cheaper.The physical quality of this facility is very nice. My queen bed room wasn't big but it was laid out pretty well. A good useful little kitchen, nice new furnishings, clean and attractively decorated. Parking is very convenient once you're checked in and have key card access to a few other entry doors besides the lobby. Service isn't this property's superpower. Promises of call back, or time to bring up amenities ordered to the room weren't kept. "10 minutes" was more than an hour on two occasions dealing with the front desk, and might have been longer had I not either called back or stopped by the desk. Also when ordering amenities, some of what was promised (coffee filter packs, dishtowels) weren't provided. There is no housekeeping for guests there for less than a week, which was fine with me in principle since I had a pet in the room and didn't want them in the room when I was out. But for an average price of $130 a night in a non-resort area, plus the $25 per night pet supplement I paid, it seemed a little bit pricey. It's a self service motel/hotel all the way. In room amenities are also pretty spartan. Teeny little shampoo and conditioner. Definitely one or two uses at most. I brought my own. No paper towels, no in room coffee provided although you can order a coffee maker free of charge. (Along with plates, cups, utensils, coffee maker, toaster, frying pan.) One ice tray provided. No ice machine in hotel. Very little staff on site at any one time from what I could tell, so you'll need to manage your bags and be patient when you need something. If you need more towels, you take your used ones to the front desk to exchange for fresh ones.If you want, you can get "grab and go breakfast" which is coffee or tea downstairs, fruit, and packaged breakfast pastries in the lobby from 6 to 930. Free parking. Free wifi, but it was too slow for me to use efficiently so I gave up and used cell data for my tablet and cell.Bed is REALLY hard which is fine for me personally as I have a bad back, but might bother some people. It squeaked when moving on it, but no big deal. The room smelled weird, but in fairness it was a smoking room that also accommodates pets, so the odor was probably a function of some cleaning product used to neutralize that. A/C unit on the wall was loud but worked ok on hot August days, and the window opens a little bit, but it's a busy street, so that could also get loud. Water pressure was fair. No problem with hot water, but had trouble getting it to be cold water. Full size fridge, microwave, two burner stove, quite a lot of storage in drawers and cabinets and shelves, although the closet is just average size with a half dozen hangers.Not very sound proofed. My neighbors one night must have slammed their door two dozen times in the space of 3 hours, and it literally made the bed shake and scared the beejeezus out of my cat. Also could hear tantrum throwing children and people conversing in hallways.The TV was apparently permanently set on power saver and would shut itself off every two hours or so. It's a flat screen but not HD. You get basic cable, plus a couple of premium channels. (Channel guide provided on a card in the room was inaccurate.)Location is in a decent commercial area on a busy street. There is a bus line, but I had my car so I don't know how convenient it is for getting around town. There are several chain fast food places, donut shop, mini mart, pizza joint etc. within walking distance. Restaurant next door is closed so hopefully for travelers looking to walk to a sit down restaurant, something else will move in.I'm giving this 4 stars because it's the rooms themselves are very attractive, pretty comfortable and clean on check in. Once I shopped for needed staples, I was comfortable there. But I felt like it was pretty expensive for spartan, or really almost no guest service once you check in. If you need a place with a kitchenette and/or that is pet friendly in the area, you have a car to get to a market to stock up what you need for food, drink, hygiene products, or if you are satisfied with using the fast food places and minimarts within walking distance, I would recommend it as one of the better options in Glendale.Book as early as possible for the best deal. My price went up by 40 dollars within a week of first checking prices, nailing down my contractors' schedule and finally booking it. and another 20 dollars increase when I had to add a day. I requested a two hour late checkout but was only allowed one without additional charge which seemed a little strange because on my checkout day, the place appeared almost completely empty, checkout time is 11 and checkin at 3. I actually had to book an extra day I didn't even stay because I needed to get out of the house and in a room in the morning, and they wouldn't commit to an early check in. They're strict on it apparently, full occupancy or not.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r221632877-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>221632877</t>
+  </si>
+  <si>
+    <t>08/13/2014</t>
+  </si>
+  <si>
+    <t>Summer2014</t>
+  </si>
+  <si>
+    <t>If you are on a family trip this is not for you, I stayed 2 nights and it seemed that this is the "after party" hotel of the area.Both nights there was drunk people in and out of their rooms screaming and knocking on doors, slamming them and of course we didn't get much rest I booked a not refundable rate ( wasn't cheap either ) so I have to stayed there both nights, I don't recommend this as a family hotel, but it looked like the after party guests did enjoyed it so if you're in the area for a wedding or just to party this migth suit your needsMoreShow less</t>
+  </si>
+  <si>
+    <t>If you are on a family trip this is not for you, I stayed 2 nights and it seemed that this is the "after party" hotel of the area.Both nights there was drunk people in and out of their rooms screaming and knocking on doors, slamming them and of course we didn't get much rest I booked a not refundable rate ( wasn't cheap either ) so I have to stayed there both nights, I don't recommend this as a family hotel, but it looked like the after party guests did enjoyed it so if you're in the area for a wedding or just to party this migth suit your needsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r216717842-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>216717842</t>
+  </si>
+  <si>
+    <t>07/21/2014</t>
+  </si>
+  <si>
+    <t>Decent hotel</t>
+  </si>
+  <si>
+    <t>The rooms were small. The kitchen is decent but with bringing food in, we got ants the first night, which they then had to spray for. The people are very nice and helpful which is the best thing about that hotel. I hated that the rooms aren't cleaned everyday and that I had to ask for towels from the front desk everyday. It wasn't a big deal just an inconvenience especially when your tired and just want to shower and go to bed. The grab and go breakfast was always out of coffee and was very simple with pre-packaged granola bars and muffins. Very simple. There was grocery stores and fast food places to eat at which was a great. Overall I think the price should be a little less for the quality of the room but not a outrageous price.MoreShow less</t>
+  </si>
+  <si>
+    <t>The rooms were small. The kitchen is decent but with bringing food in, we got ants the first night, which they then had to spray for. The people are very nice and helpful which is the best thing about that hotel. I hated that the rooms aren't cleaned everyday and that I had to ask for towels from the front desk everyday. It wasn't a big deal just an inconvenience especially when your tired and just want to shower and go to bed. The grab and go breakfast was always out of coffee and was very simple with pre-packaged granola bars and muffins. Very simple. There was grocery stores and fast food places to eat at which was a great. Overall I think the price should be a little less for the quality of the room but not a outrageous price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r206193664-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>206193664</t>
+  </si>
+  <si>
+    <t>05/19/2014</t>
+  </si>
+  <si>
+    <t>A good value</t>
+  </si>
+  <si>
+    <t>Conveniently located, clean and pleasant. An easy and restful stay. Glendale is close to a lot of very enjoyable LA neighborhoods.  This hotel is less expensive than most and offers full kitchens.  A good valueMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded May 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2014</t>
+  </si>
+  <si>
+    <t>Conveniently located, clean and pleasant. An easy and restful stay. Glendale is close to a lot of very enjoyable LA neighborhoods.  This hotel is less expensive than most and offers full kitchens.  A good valueMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r205934755-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>205934755</t>
+  </si>
+  <si>
+    <t>05/17/2014</t>
+  </si>
+  <si>
+    <t>Over priced!!!!!</t>
+  </si>
+  <si>
+    <t>Absolutely HORRIBLE. I'm currently in one of their rooms right now and I am so livid that I am spending over $300 on this room! This is the worst hotel I've ever been in, and I would never come back. The walls are so thin that I can hear EVERYTHING from the janitors talking, people turning on the shower, people walking upstairs, the laundry room, etc. I can smell people smoking... And to make it even more annoying, we got placed on the bottom floor in a handicap room so the shower looks like something from a high school boys locker room! If I spent half the price, I wouldn't be complaining. But for the price I paid, I expected something way better than this. I am going to go on EVERY single website they advertise on and write a review about how HORRIBLE AND OVER PRICED this place is.MoreShow less</t>
+  </si>
+  <si>
+    <t>Absolutely HORRIBLE. I'm currently in one of their rooms right now and I am so livid that I am spending over $300 on this room! This is the worst hotel I've ever been in, and I would never come back. The walls are so thin that I can hear EVERYTHING from the janitors talking, people turning on the shower, people walking upstairs, the laundry room, etc. I can smell people smoking... And to make it even more annoying, we got placed on the bottom floor in a handicap room so the shower looks like something from a high school boys locker room! If I spent half the price, I wouldn't be complaining. But for the price I paid, I expected something way better than this. I am going to go on EVERY single website they advertise on and write a review about how HORRIBLE AND OVER PRICED this place is.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r204151435-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>204151435</t>
+  </si>
+  <si>
+    <t>05/05/2014</t>
+  </si>
+  <si>
+    <t>ghost</t>
+  </si>
+  <si>
+    <t>seriously....4 of us experienced the existence of ghost in the hallway and inside our rooms in different ocassions this is the first time i experienced ghost in a hotel. this is creepy.i swear! no joke</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r195281998-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>195281998</t>
+  </si>
+  <si>
+    <t>02/24/2014</t>
+  </si>
+  <si>
+    <t>Best place to stay especially for people who are looking for a handy kitchen</t>
+  </si>
+  <si>
+    <t>I have been there 3 times and was never disappointed. The staff are very friendly and helpful (esp Chris).The hotel is located in a good quiet place, easily accessible to public transport and few good restaurants nearby.This place has a good kitchen which fulfills all the basic cooking needs. Will consider only this hotel when i stay on GlendaleMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded February 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2014</t>
+  </si>
+  <si>
+    <t>I have been there 3 times and was never disappointed. The staff are very friendly and helpful (esp Chris).The hotel is located in a good quiet place, easily accessible to public transport and few good restaurants nearby.This place has a good kitchen which fulfills all the basic cooking needs. Will consider only this hotel when i stay on GlendaleMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r193663975-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>193663975</t>
+  </si>
+  <si>
+    <t>02/10/2014</t>
+  </si>
+  <si>
+    <t>Granddaughter's first birthday</t>
+  </si>
+  <si>
+    <t>What should have been a joyous trip was marred by a sick child and accomodations that suffered greater maladies.  From no towels on arrival, tracking down towels in the late evening that we had to launder, broken outside access door, accidentally triggered fire alarms by lighting contractors who created messy and impassable hallways.  We will never consider staying in this facility again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded February 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2014</t>
+  </si>
+  <si>
+    <t>What should have been a joyous trip was marred by a sick child and accomodations that suffered greater maladies.  From no towels on arrival, tracking down towels in the late evening that we had to launder, broken outside access door, accidentally triggered fire alarms by lighting contractors who created messy and impassable hallways.  We will never consider staying in this facility again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r190101340-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>190101340</t>
+  </si>
+  <si>
+    <t>01/07/2014</t>
+  </si>
+  <si>
+    <t>Pretty good experience!</t>
+  </si>
+  <si>
+    <t>The hotel is located in a very good location and close to places that we wanted to check in. Staff are outstanding helpful, Specially Evelin @ front desk and Karolin for great house keeping.We definitely will check in again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded January 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 14, 2014</t>
+  </si>
+  <si>
+    <t>The hotel is located in a very good location and close to places that we wanted to check in. Staff are outstanding helpful, Specially Evelin @ front desk and Karolin for great house keeping.We definitely will check in again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r184015682-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>184015682</t>
+  </si>
+  <si>
+    <t>11/07/2013</t>
+  </si>
+  <si>
+    <t>Loved It!</t>
+  </si>
+  <si>
+    <t>Very impressed with the Extended Stay America - Los Angeles - Glendale! It exceeded our expectations, beautiful, spacious, affordable and had everything you could possibly want. The staff was excellent! We will ONLY stay here when in Glendale!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded November 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2013</t>
+  </si>
+  <si>
+    <t>Very impressed with the Extended Stay America - Los Angeles - Glendale! It exceeded our expectations, beautiful, spacious, affordable and had everything you could possibly want. The staff was excellent! We will ONLY stay here when in Glendale!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r183958522-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>183958522</t>
+  </si>
+  <si>
+    <t>Very satisfied</t>
+  </si>
+  <si>
+    <t>My wife and I stayed one month at this hotel in Glendale during our recent visit to Los Angeles.  The room was very clean, comfortable, spacious with kitchen facilities that came in handy.  Above all, the staff were very polite, friendly and accommodating.  We recommend them to all who need to be in more then just a room.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>My wife and I stayed one month at this hotel in Glendale during our recent visit to Los Angeles.  The room was very clean, comfortable, spacious with kitchen facilities that came in handy.  Above all, the staff were very polite, friendly and accommodating.  We recommend them to all who need to be in more then just a room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r182493100-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>182493100</t>
+  </si>
+  <si>
+    <t>10/26/2013</t>
+  </si>
+  <si>
+    <t>A great experience at extended stay!</t>
+  </si>
+  <si>
+    <t>This was a great trip experience! I have no complaints! The staff was always helpful and the room was very comfortable for my needs! I stayed here 1 month and the full kitchen, with the stove top and full size fridge, was a great featureMoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded October 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2013</t>
+  </si>
+  <si>
+    <t>This was a great trip experience! I have no complaints! The staff was always helpful and the room was very comfortable for my needs! I stayed here 1 month and the full kitchen, with the stove top and full size fridge, was a great featureMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r170628174-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>170628174</t>
+  </si>
+  <si>
+    <t>08/03/2013</t>
+  </si>
+  <si>
+    <t>Extended Stay America in Glendale,CA</t>
+  </si>
+  <si>
+    <t>nice new name, better than the name Homestead; very clean &amp; neat, newly painted facility; comfortable bed, clean/crisp while linens, large fridge, clean (maybe new) carpet &amp; curtains, nice &amp; clean room &amp; bathroom; very cool a/c not noisy; friendly &amp; accommodating staff; accessible to where i needed to go &amp; at the same time not really on a busy neighborhood nor traffic-congested areaMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded August 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 5, 2013</t>
+  </si>
+  <si>
+    <t>nice new name, better than the name Homestead; very clean &amp; neat, newly painted facility; comfortable bed, clean/crisp while linens, large fridge, clean (maybe new) carpet &amp; curtains, nice &amp; clean room &amp; bathroom; very cool a/c not noisy; friendly &amp; accommodating staff; accessible to where i needed to go &amp; at the same time not really on a busy neighborhood nor traffic-congested areaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r168668595-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>168668595</t>
+  </si>
+  <si>
+    <t>07/23/2013</t>
+  </si>
+  <si>
+    <t>Saved By Dvin and Holly...</t>
+  </si>
+  <si>
+    <t>It was a mini vacation to take our kids to Universal Studio for their first visit.  I had a reservation at another hotel which we checked in and checked out within 1/2 hour later because we felt the hotel was a fire hazard.  Now we have no hotel to stay at and my husband and I are in our car for two hours calling around to find a hotel we can stay for 2 nights...anywhere in Burbank or Glendale.  Every hotel we called were either sold out or only suites that was available at $300+ a night which was out of our budget.  It was our last call to Extended Stay America in Glendale and I was prepare to hear "sorry sold out", instead a very pleasant gentleman "Dvin" answered the phone and said he has one room available and was within our budget.  After arriving at Extended Stay America past 10pm and telling Dvin what we had gone through and have not had dinner yet, Dvin suggested a restaurant to us and called the restaurant to make sure they were still open.  
+Dvin advised us that they only have one night available and suggest that we speak with Holly which is the manager of the hotel and see if she can help us and call another Extended Stay America for our 2nd night stay.  Next morning I spoke to Holly and explained what had happened and Holly was able...It was a mini vacation to take our kids to Universal Studio for their first visit.  I had a reservation at another hotel which we checked in and checked out within 1/2 hour later because we felt the hotel was a fire hazard.  Now we have no hotel to stay at and my husband and I are in our car for two hours calling around to find a hotel we can stay for 2 nights...anywhere in Burbank or Glendale.  Every hotel we called were either sold out or only suites that was available at $300+ a night which was out of our budget.  It was our last call to Extended Stay America in Glendale and I was prepare to hear "sorry sold out", instead a very pleasant gentleman "Dvin" answered the phone and said he has one room available and was within our budget.  After arriving at Extended Stay America past 10pm and telling Dvin what we had gone through and have not had dinner yet, Dvin suggested a restaurant to us and called the restaurant to make sure they were still open.  Dvin advised us that they only have one night available and suggest that we speak with Holly which is the manager of the hotel and see if she can help us and call another Extended Stay America for our 2nd night stay.  Next morning I spoke to Holly and explained what had happened and Holly was able to confirm us for one night stay at their Burbank property.  Thank you Dvin and Holly...a job well done and appreciated.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded July 31, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2013</t>
+  </si>
+  <si>
+    <t>It was a mini vacation to take our kids to Universal Studio for their first visit.  I had a reservation at another hotel which we checked in and checked out within 1/2 hour later because we felt the hotel was a fire hazard.  Now we have no hotel to stay at and my husband and I are in our car for two hours calling around to find a hotel we can stay for 2 nights...anywhere in Burbank or Glendale.  Every hotel we called were either sold out or only suites that was available at $300+ a night which was out of our budget.  It was our last call to Extended Stay America in Glendale and I was prepare to hear "sorry sold out", instead a very pleasant gentleman "Dvin" answered the phone and said he has one room available and was within our budget.  After arriving at Extended Stay America past 10pm and telling Dvin what we had gone through and have not had dinner yet, Dvin suggested a restaurant to us and called the restaurant to make sure they were still open.  
+Dvin advised us that they only have one night available and suggest that we speak with Holly which is the manager of the hotel and see if she can help us and call another Extended Stay America for our 2nd night stay.  Next morning I spoke to Holly and explained what had happened and Holly was able...It was a mini vacation to take our kids to Universal Studio for their first visit.  I had a reservation at another hotel which we checked in and checked out within 1/2 hour later because we felt the hotel was a fire hazard.  Now we have no hotel to stay at and my husband and I are in our car for two hours calling around to find a hotel we can stay for 2 nights...anywhere in Burbank or Glendale.  Every hotel we called were either sold out or only suites that was available at $300+ a night which was out of our budget.  It was our last call to Extended Stay America in Glendale and I was prepare to hear "sorry sold out", instead a very pleasant gentleman "Dvin" answered the phone and said he has one room available and was within our budget.  After arriving at Extended Stay America past 10pm and telling Dvin what we had gone through and have not had dinner yet, Dvin suggested a restaurant to us and called the restaurant to make sure they were still open.  Dvin advised us that they only have one night available and suggest that we speak with Holly which is the manager of the hotel and see if she can help us and call another Extended Stay America for our 2nd night stay.  Next morning I spoke to Holly and explained what had happened and Holly was able to confirm us for one night stay at their Burbank property.  Thank you Dvin and Holly...a job well done and appreciated.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r168343908-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>168343908</t>
+  </si>
+  <si>
+    <t>07/20/2013</t>
+  </si>
+  <si>
+    <t>Best place</t>
+  </si>
+  <si>
+    <t>Armineh gave me the best customer service, she helped me with anything i needed.About roomsI love them theyre so clean nice remodeled i love the small kitchen. I also liked the morning breakfast. The big parking lot.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded July 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2013</t>
+  </si>
+  <si>
+    <t>Armineh gave me the best customer service, she helped me with anything i needed.About roomsI love them theyre so clean nice remodeled i love the small kitchen. I also liked the morning breakfast. The big parking lot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r158481185-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>158481185</t>
+  </si>
+  <si>
+    <t>04/22/2013</t>
+  </si>
+  <si>
+    <t>wedding guests</t>
+  </si>
+  <si>
+    <t>We booked 15 rooms for guests coming from the East for our daughter's wedding. Everyone was happy with our choice. The rooms were comfortable, and the staff was incredible - every single one. It was a good experience, and we hope to stay here when we come out to visit once or twice a year. The carpets are a little stained, but that will improve soon since renovations are scheduled to begin next month. Overall, it was a great place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded April 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2013</t>
+  </si>
+  <si>
+    <t>We booked 15 rooms for guests coming from the East for our daughter's wedding. Everyone was happy with our choice. The rooms were comfortable, and the staff was incredible - every single one. It was a good experience, and we hope to stay here when we come out to visit once or twice a year. The carpets are a little stained, but that will improve soon since renovations are scheduled to begin next month. Overall, it was a great place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r157265749-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>157265749</t>
+  </si>
+  <si>
+    <t>04/09/2013</t>
+  </si>
+  <si>
+    <t>awful pillows furniture old and dirty waiting for renovation</t>
+  </si>
+  <si>
+    <t>Hotel ok but we're at the tail end of the furniture in the room- they told us they are going to start renovating at check in. So the furniture is dirty and old and it's going to get noisy and smelly with renovations and we'll probably have to move! THE Pillows are the worst. Go out and buy your own to stay here! Bedding too! Other guests were doing the same! To bad at these prices you shouldn't be stuck with poor quality bedding! Too bad the reservationist on the phone didn't know about the condition of the hotel and the renovations when booking our 60 day reservation!800 extended stay phone reservation is the worst part of the experience. It takes the agent forever to navigate a poorly designed computer system just to locate a room for 30-60 days!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Hotel ok but we're at the tail end of the furniture in the room- they told us they are going to start renovating at check in. So the furniture is dirty and old and it's going to get noisy and smelly with renovations and we'll probably have to move! THE Pillows are the worst. Go out and buy your own to stay here! Bedding too! Other guests were doing the same! To bad at these prices you shouldn't be stuck with poor quality bedding! Too bad the reservationist on the phone didn't know about the condition of the hotel and the renovations when booking our 60 day reservation!800 extended stay phone reservation is the worst part of the experience. It takes the agent forever to navigate a poorly designed computer system just to locate a room for 30-60 days!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r157262142-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>157262142</t>
+  </si>
+  <si>
+    <t>A Great Place to Stay</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for one week. We think for the price it was an excellent value. We were on the first floor and it was quiet.The kitchen facilities were clean and we supplemented with dish soap and paper towels from the Dollar Store (they are everywhere in LA). Dishes were minimal and only one pot. So if you were really wanting to cook you may want to bring some of your own dishes, or maybe ask at the front desk. A real plus is that why we were close to the freeways we couldn't hear them. It was easy to go in any direction from this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>James B, Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded April 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2013</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for one week. We think for the price it was an excellent value. We were on the first floor and it was quiet.The kitchen facilities were clean and we supplemented with dish soap and paper towels from the Dollar Store (they are everywhere in LA). Dishes were minimal and only one pot. So if you were really wanting to cook you may want to bring some of your own dishes, or maybe ask at the front desk. A real plus is that why we were close to the freeways we couldn't hear them. It was easy to go in any direction from this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r156336270-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>156336270</t>
+  </si>
+  <si>
+    <t>04/01/2013</t>
+  </si>
+  <si>
+    <t>Thank you</t>
+  </si>
+  <si>
+    <t>I stay with my students at this hotel in March, we enjoyed here very much. Thank you Armineh and  other staff are very nice to us and listen to us carefully. They also give us nice breakfast and service and I love it very much. I want to come back again here.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stay with my students at this hotel in March, we enjoyed here very much. Thank you Armineh and  other staff are very nice to us and listen to us carefully. They also give us nice breakfast and service and I love it very much. I want to come back again here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r155946442-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>155946442</t>
+  </si>
+  <si>
+    <t>03/28/2013</t>
+  </si>
+  <si>
+    <t>Holly, Armenah &amp; the Staff Are Incredible!</t>
+  </si>
+  <si>
+    <t>My wife and I came to the Glendale Extended Stay in December of '12 as a temporary living. During our stay, the manager Holly, assistant manager Armenah, and the entire staff has become such good friends to us. I fully recommend that anyone visiting the Glendale area choose this location for short or long-term stay. Thanks folks! ~ Jerry HoldenMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>My wife and I came to the Glendale Extended Stay in December of '12 as a temporary living. During our stay, the manager Holly, assistant manager Armenah, and the entire staff has become such good friends to us. I fully recommend that anyone visiting the Glendale area choose this location for short or long-term stay. Thanks folks! ~ Jerry HoldenMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r155624756-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>155624756</t>
+  </si>
+  <si>
+    <t>03/25/2013</t>
+  </si>
+  <si>
+    <t>We love Extended Stay and the staff in Glendale, CA</t>
+  </si>
+  <si>
+    <t>My husband and I have been in a temporary living situation since December and have truly enjoyed our stay at the Glendale Extended Stay on Glenoaks Blvd. Holly, Armenah and the staff have been more than helpful so it's a pleasure to see them everyday. We are very happy about our stay here and would recommend Extended Stay to our friends and family. Thank you!~ Shea ChambersMoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I have been in a temporary living situation since December and have truly enjoyed our stay at the Glendale Extended Stay on Glenoaks Blvd. Holly, Armenah and the staff have been more than helpful so it's a pleasure to see them everyday. We are very happy about our stay here and would recommend Extended Stay to our friends and family. Thank you!~ Shea ChambersMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r149708889-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>149708889</t>
+  </si>
+  <si>
+    <t>01/14/2013</t>
+  </si>
+  <si>
+    <t>Very good option for stays over 14 days</t>
+  </si>
+  <si>
+    <t>We got a great price ($99 per night) for a two week reservation.  The location is central to everything in Glendale. 
+The suite contains ample closet space, a king size bed, futon sofa, bathroom with tub, dressing area and full kitchen.  There is also a TV in the room, and wifi and parking are included.  
+Front desk staff were always more than helpful with print-outs from my email, scans and other business-office services.  Mail was forwarded to this address during my stay and it was always delivered to me promptly.  Staff also helped me with directions on where to go when we first checked in.  Grocery store and pharmacy are nearby, as are hospitals, restaurants and shopping malls. 
+Cleaning service is complimentary once a week.  If you need it more than that there is a fee to pay.  The room comes stocked with amenities such as toilet paper and tissue boxes, as well as clean towels and linens.  There is an iron and ironing board for your use as well.  A garbage disposal is located on each floor, and there is a laundry room with several washers / dryers (for a fee) on the ground floor. 
+I would definitely recommend this property to people looking for a place to stay while they are searching for a new home, moving out of a current home, or staying for more than two weeks and do not want to spend more than $100...We got a great price ($99 per night) for a two week reservation.  The location is central to everything in Glendale. The suite contains ample closet space, a king size bed, futon sofa, bathroom with tub, dressing area and full kitchen.  There is also a TV in the room, and wifi and parking are included.  Front desk staff were always more than helpful with print-outs from my email, scans and other business-office services.  Mail was forwarded to this address during my stay and it was always delivered to me promptly.  Staff also helped me with directions on where to go when we first checked in.  Grocery store and pharmacy are nearby, as are hospitals, restaurants and shopping malls. Cleaning service is complimentary once a week.  If you need it more than that there is a fee to pay.  The room comes stocked with amenities such as toilet paper and tissue boxes, as well as clean towels and linens.  There is an iron and ironing board for your use as well.  A garbage disposal is located on each floor, and there is a laundry room with several washers / dryers (for a fee) on the ground floor. I would definitely recommend this property to people looking for a place to stay while they are searching for a new home, moving out of a current home, or staying for more than two weeks and do not want to spend more than $100 per night on a hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded January 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2013</t>
+  </si>
+  <si>
+    <t>We got a great price ($99 per night) for a two week reservation.  The location is central to everything in Glendale. 
+The suite contains ample closet space, a king size bed, futon sofa, bathroom with tub, dressing area and full kitchen.  There is also a TV in the room, and wifi and parking are included.  
+Front desk staff were always more than helpful with print-outs from my email, scans and other business-office services.  Mail was forwarded to this address during my stay and it was always delivered to me promptly.  Staff also helped me with directions on where to go when we first checked in.  Grocery store and pharmacy are nearby, as are hospitals, restaurants and shopping malls. 
+Cleaning service is complimentary once a week.  If you need it more than that there is a fee to pay.  The room comes stocked with amenities such as toilet paper and tissue boxes, as well as clean towels and linens.  There is an iron and ironing board for your use as well.  A garbage disposal is located on each floor, and there is a laundry room with several washers / dryers (for a fee) on the ground floor. 
+I would definitely recommend this property to people looking for a place to stay while they are searching for a new home, moving out of a current home, or staying for more than two weeks and do not want to spend more than $100...We got a great price ($99 per night) for a two week reservation.  The location is central to everything in Glendale. The suite contains ample closet space, a king size bed, futon sofa, bathroom with tub, dressing area and full kitchen.  There is also a TV in the room, and wifi and parking are included.  Front desk staff were always more than helpful with print-outs from my email, scans and other business-office services.  Mail was forwarded to this address during my stay and it was always delivered to me promptly.  Staff also helped me with directions on where to go when we first checked in.  Grocery store and pharmacy are nearby, as are hospitals, restaurants and shopping malls. Cleaning service is complimentary once a week.  If you need it more than that there is a fee to pay.  The room comes stocked with amenities such as toilet paper and tissue boxes, as well as clean towels and linens.  There is an iron and ironing board for your use as well.  A garbage disposal is located on each floor, and there is a laundry room with several washers / dryers (for a fee) on the ground floor. I would definitely recommend this property to people looking for a place to stay while they are searching for a new home, moving out of a current home, or staying for more than two weeks and do not want to spend more than $100 per night on a hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r149185581-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>149185581</t>
+  </si>
+  <si>
+    <t>01/08/2013</t>
+  </si>
+  <si>
+    <t>Phenominal Staff</t>
+  </si>
+  <si>
+    <t>I had multiple issues during my trip, but the staff was quick to respond and fix all of them. I stayed here to go to the rose bowl, my family and I came from Oklahoma and we stayed for over a week. The staff was full of information on places to visit and places to eat. I was told the breakfast had not arrived, but was very suprised to see it there the next day. When I questioned this the guy at the front desk told me that the manager had gone out and gotten it. The last two nights of my stay we had an insane nieghbor who was yelling and trying to get into other rooms, I called the desk and a man came up to talk to this person. The person was screaming and yelling at him accusing him of being racial and yelling at all who passed by that the place was horrible and there were bugs in her bed! The poor guy, remained calm and talked the insane lady back into her room. I commend him on this, it took everything in me and my wife to not intrude on the situation! The rest of the night was quite, we were shocked to see this same lady yelling at a lady in the front the very next morning. Come to find out it was the manager, she as well remained calm and asked the insane...I had multiple issues during my trip, but the staff was quick to respond and fix all of them. I stayed here to go to the rose bowl, my family and I came from Oklahoma and we stayed for over a week. The staff was full of information on places to visit and places to eat. I was told the breakfast had not arrived, but was very suprised to see it there the next day. When I questioned this the guy at the front desk told me that the manager had gone out and gotten it. The last two nights of my stay we had an insane nieghbor who was yelling and trying to get into other rooms, I called the desk and a man came up to talk to this person. The person was screaming and yelling at him accusing him of being racial and yelling at all who passed by that the place was horrible and there were bugs in her bed! The poor guy, remained calm and talked the insane lady back into her room. I commend him on this, it took everything in me and my wife to not intrude on the situation! The rest of the night was quite, we were shocked to see this same lady yelling at a lady in the front the very next morning. Come to find out it was the manager, she as well remained calm and asked the insane lady to please leave the premises. Me and my family left for the day and when we returned that evening we stopped at the front to inquire on whether we would be having the same issue that night. The manager was there and ensured us that we would not be having that problem again, she was very apologetic and even offered a discount on our room. The professionalism of the staff astonished me! My family and I will come to stay here again if we decide to attend the rose bowl next year.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded January 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2013</t>
+  </si>
+  <si>
+    <t>I had multiple issues during my trip, but the staff was quick to respond and fix all of them. I stayed here to go to the rose bowl, my family and I came from Oklahoma and we stayed for over a week. The staff was full of information on places to visit and places to eat. I was told the breakfast had not arrived, but was very suprised to see it there the next day. When I questioned this the guy at the front desk told me that the manager had gone out and gotten it. The last two nights of my stay we had an insane nieghbor who was yelling and trying to get into other rooms, I called the desk and a man came up to talk to this person. The person was screaming and yelling at him accusing him of being racial and yelling at all who passed by that the place was horrible and there were bugs in her bed! The poor guy, remained calm and talked the insane lady back into her room. I commend him on this, it took everything in me and my wife to not intrude on the situation! The rest of the night was quite, we were shocked to see this same lady yelling at a lady in the front the very next morning. Come to find out it was the manager, she as well remained calm and asked the insane...I had multiple issues during my trip, but the staff was quick to respond and fix all of them. I stayed here to go to the rose bowl, my family and I came from Oklahoma and we stayed for over a week. The staff was full of information on places to visit and places to eat. I was told the breakfast had not arrived, but was very suprised to see it there the next day. When I questioned this the guy at the front desk told me that the manager had gone out and gotten it. The last two nights of my stay we had an insane nieghbor who was yelling and trying to get into other rooms, I called the desk and a man came up to talk to this person. The person was screaming and yelling at him accusing him of being racial and yelling at all who passed by that the place was horrible and there were bugs in her bed! The poor guy, remained calm and talked the insane lady back into her room. I commend him on this, it took everything in me and my wife to not intrude on the situation! The rest of the night was quite, we were shocked to see this same lady yelling at a lady in the front the very next morning. Come to find out it was the manager, she as well remained calm and asked the insane lady to please leave the premises. Me and my family left for the day and when we returned that evening we stopped at the front to inquire on whether we would be having the same issue that night. The manager was there and ensured us that we would not be having that problem again, she was very apologetic and even offered a discount on our room. The professionalism of the staff astonished me! My family and I will come to stay here again if we decide to attend the rose bowl next year.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r148979253-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>148979253</t>
+  </si>
+  <si>
+    <t>01/06/2013</t>
+  </si>
+  <si>
+    <t>Needs maintenance</t>
+  </si>
+  <si>
+    <t>We stayed here last year when the building was still quite new and were pleased with the accomodations, especially for the price.  I wish it had an exercise room though, just a bike and a few weights would be great.  This year, the building is showing its age and lack of maintenance.  The closet door was damaged and off track, the mirror wasn't cleaned, personal items from the previous tenant were found in the shower and under the bed,  there were minimal utensils and cooking equipment in the kitchen, no oven, not enough dish soap,  the can opener was so flimsy that my can bended it, There was no breakfast one morning, because it was a holiday.  On the  upside, the staff is friendly and the location is relatively quiet.  I didn't notice any noise from neighbors, no water running in pipes when people flush, etc.  I hope management puts some effort into keeping up the hotel or it will become run-down.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded January 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2013</t>
+  </si>
+  <si>
+    <t>We stayed here last year when the building was still quite new and were pleased with the accomodations, especially for the price.  I wish it had an exercise room though, just a bike and a few weights would be great.  This year, the building is showing its age and lack of maintenance.  The closet door was damaged and off track, the mirror wasn't cleaned, personal items from the previous tenant were found in the shower and under the bed,  there were minimal utensils and cooking equipment in the kitchen, no oven, not enough dish soap,  the can opener was so flimsy that my can bended it, There was no breakfast one morning, because it was a holiday.  On the  upside, the staff is friendly and the location is relatively quiet.  I didn't notice any noise from neighbors, no water running in pipes when people flush, etc.  I hope management puts some effort into keeping up the hotel or it will become run-down.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r141580372-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>141580372</t>
+  </si>
+  <si>
+    <t>09/29/2012</t>
+  </si>
+  <si>
+    <t>Decent value</t>
+  </si>
+  <si>
+    <t>The room was generally clean, although the hallway could do with some better lighting and perhaps improved flooring.  Found that the bed mattress sagged a bit in the center. The kitchenette was functional.  Staff was friendly and helpful and the grab-and-go breakfast was fine (coffee, muffins, instant oatmeal, fruit).  Free parking.  Several restaurants and shops close by to stock up.  Decent value for the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>HotelManagement14, Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded October 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2012</t>
+  </si>
+  <si>
+    <t>The room was generally clean, although the hallway could do with some better lighting and perhaps improved flooring.  Found that the bed mattress sagged a bit in the center. The kitchenette was functional.  Staff was friendly and helpful and the grab-and-go breakfast was fine (coffee, muffins, instant oatmeal, fruit).  Free parking.  Several restaurants and shops close by to stock up.  Decent value for the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r137313689-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>137313689</t>
+  </si>
+  <si>
+    <t>08/15/2012</t>
+  </si>
+  <si>
+    <t>Not a good stay</t>
+  </si>
+  <si>
+    <t>The wife and I and ourtwo kids went to this place for the night because the kids had a swim meet at the LA 84 Pool in L.A.and we had to be there no later than 7 am. We made reservations for a double King  bed room. When we got there  we were told that our month old reservation has a problem. They didnt have the room type we reserved because they were sold out. However, they told us they would give us 2 queen bed rooms due to the mix up and comp the second room. Now I dont know if I am being too sensitive, but why would I want to split the family up into 2 rooms that werent even ajoined. Needless to say, we finally agreed. and an adult and a child went to each room. The room was fairly clean and dated. The caulking in the tub was horrible. We watched a little tv to unwind.(We had to get up early to get the kids breakfast and to drive 20 or so minutes) But thats when the show started. Yelling and screaming from some guests down the hall and doors slamming. Not just once but all through the night. I called the front desk but noone was at the desk at night. Just a sign that in a nutshell says "see ya in the morning" we got up and got our things to go. The...The wife and I and ourtwo kids went to this place for the night because the kids had a swim meet at the LA 84 Pool in L.A.and we had to be there no later than 7 am. We made reservations for a double King  bed room. When we got there  we were told that our month old reservation has a problem. They didnt have the room type we reserved because they were sold out. However, they told us they would give us 2 queen bed rooms due to the mix up and comp the second room. Now I dont know if I am being too sensitive, but why would I want to split the family up into 2 rooms that werent even ajoined. Needless to say, we finally agreed. and an adult and a child went to each room. The room was fairly clean and dated. The caulking in the tub was horrible. We watched a little tv to unwind.(We had to get up early to get the kids breakfast and to drive 20 or so minutes) But thats when the show started. Yelling and screaming from some guests down the hall and doors slamming. Not just once but all through the night. I called the front desk but noone was at the desk at night. Just a sign that in a nutshell says "see ya in the morning" we got up and got our things to go. The rancid stench of vomit filled the air once we hit the hallway. I almost puked myself. I would never stay here again. Brandon at the front desk was quite pleasant, had good customer service skills and should consider looking for another job at a better place.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded August 21, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 21, 2012</t>
+  </si>
+  <si>
+    <t>The wife and I and ourtwo kids went to this place for the night because the kids had a swim meet at the LA 84 Pool in L.A.and we had to be there no later than 7 am. We made reservations for a double King  bed room. When we got there  we were told that our month old reservation has a problem. They didnt have the room type we reserved because they were sold out. However, they told us they would give us 2 queen bed rooms due to the mix up and comp the second room. Now I dont know if I am being too sensitive, but why would I want to split the family up into 2 rooms that werent even ajoined. Needless to say, we finally agreed. and an adult and a child went to each room. The room was fairly clean and dated. The caulking in the tub was horrible. We watched a little tv to unwind.(We had to get up early to get the kids breakfast and to drive 20 or so minutes) But thats when the show started. Yelling and screaming from some guests down the hall and doors slamming. Not just once but all through the night. I called the front desk but noone was at the desk at night. Just a sign that in a nutshell says "see ya in the morning" we got up and got our things to go. The...The wife and I and ourtwo kids went to this place for the night because the kids had a swim meet at the LA 84 Pool in L.A.and we had to be there no later than 7 am. We made reservations for a double King  bed room. When we got there  we were told that our month old reservation has a problem. They didnt have the room type we reserved because they were sold out. However, they told us they would give us 2 queen bed rooms due to the mix up and comp the second room. Now I dont know if I am being too sensitive, but why would I want to split the family up into 2 rooms that werent even ajoined. Needless to say, we finally agreed. and an adult and a child went to each room. The room was fairly clean and dated. The caulking in the tub was horrible. We watched a little tv to unwind.(We had to get up early to get the kids breakfast and to drive 20 or so minutes) But thats when the show started. Yelling and screaming from some guests down the hall and doors slamming. Not just once but all through the night. I called the front desk but noone was at the desk at night. Just a sign that in a nutshell says "see ya in the morning" we got up and got our things to go. The rancid stench of vomit filled the air once we hit the hallway. I almost puked myself. I would never stay here again. Brandon at the front desk was quite pleasant, had good customer service skills and should consider looking for another job at a better place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r136296776-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>136296776</t>
+  </si>
+  <si>
+    <t>08/05/2012</t>
+  </si>
+  <si>
+    <t>Very nice place to stay</t>
+  </si>
+  <si>
+    <t>We stayed 4 Weeks in one of the appartments. The rooms are clean and nice. It is nothing special but you have a small kitchen, a clean bathroom and a bed. The stuff in the Hotel is very helpful, nice and friedly. The parkinglot is big enough so you get always a place for your car. Once we had a problem with our AC. The carpet in front of the AC was so wet. We told the Stuff but nobody was able to fix the AC. So they gave as a new room. They have no breakfast there, but in the morning you can get Coffee,Tea, Muffins and Fruits in the Lobby. If this place would have a Pool it would be prefect for a longer stay in LA.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded August 7, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2012</t>
+  </si>
+  <si>
+    <t>We stayed 4 Weeks in one of the appartments. The rooms are clean and nice. It is nothing special but you have a small kitchen, a clean bathroom and a bed. The stuff in the Hotel is very helpful, nice and friedly. The parkinglot is big enough so you get always a place for your car. Once we had a problem with our AC. The carpet in front of the AC was so wet. We told the Stuff but nobody was able to fix the AC. So they gave as a new room. They have no breakfast there, but in the morning you can get Coffee,Tea, Muffins and Fruits in the Lobby. If this place would have a Pool it would be prefect for a longer stay in LA.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r131056336-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>131056336</t>
+  </si>
+  <si>
+    <t>05/31/2012</t>
+  </si>
+  <si>
+    <t>A great deal !</t>
+  </si>
+  <si>
+    <t>Four nights with my husband and my mom to visit our nearby daughter.  Room was clean; the kitchen was quite basic/adequate; however, when we requested a frying pan &amp; spatula, we immediately were handed these.  No problem turning in towels and receiving fresh ones - just don't expect service.  When we first arrived, our assigned room was quite a far walk from the elevator.  Because of my elderly mom, I asked if we might change to a room closer to the elevator; within minutes, our wish was granted.  The staff was very pleasant and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at Extended Stay America - Los Angeles - Glendale, responded to this reviewResponded July 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2012</t>
+  </si>
+  <si>
+    <t>Four nights with my husband and my mom to visit our nearby daughter.  Room was clean; the kitchen was quite basic/adequate; however, when we requested a frying pan &amp; spatula, we immediately were handed these.  No problem turning in towels and receiving fresh ones - just don't expect service.  When we first arrived, our assigned room was quite a far walk from the elevator.  Because of my elderly mom, I asked if we might change to a room closer to the elevator; within minutes, our wish was granted.  The staff was very pleasant and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r130274020-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>130274020</t>
+  </si>
+  <si>
+    <t>05/20/2012</t>
+  </si>
+  <si>
+    <t>Nice staff</t>
+  </si>
+  <si>
+    <t>I stayed here with my mom and daughter for four nights. We arrived late the first night. The entire carpet was damp, and the room smelled -- like wet carpet. The front desk person said there were no other rooms, so we stayed but were moved the next morning. Apparently, someone had washed the carpet that day, which is a bit odd considering guests were coming that night. Anyway, the new room was just fine and met our needs. Front-desk staff was excellent. Not having housekeeping come in every day and exchanging our own towels took a bit of getting used to, but it is, after all, extended-stay lodging. The kitchen was adequate, although we ended up not using anything other than some bowls and spoons for cereal. Someone should have picked up the trash that was dumped on the ground outside, and empty the exterior trash can, but the interior was fine.I completed a survey after we got back and mentioned the carpet experience. The manager was nice enough to credit us back for that night. I would come back here.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here with my mom and daughter for four nights. We arrived late the first night. The entire carpet was damp, and the room smelled -- like wet carpet. The front desk person said there were no other rooms, so we stayed but were moved the next morning. Apparently, someone had washed the carpet that day, which is a bit odd considering guests were coming that night. Anyway, the new room was just fine and met our needs. Front-desk staff was excellent. Not having housekeeping come in every day and exchanging our own towels took a bit of getting used to, but it is, after all, extended-stay lodging. The kitchen was adequate, although we ended up not using anything other than some bowls and spoons for cereal. Someone should have picked up the trash that was dumped on the ground outside, and empty the exterior trash can, but the interior was fine.I completed a survey after we got back and mentioned the carpet experience. The manager was nice enough to credit us back for that night. I would come back here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r126773881-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>126773881</t>
+  </si>
+  <si>
+    <t>03/27/2012</t>
+  </si>
+  <si>
+    <t>Recommend</t>
+  </si>
+  <si>
+    <t>We even get discount, staying for a month. We found the staff very friendly and helpfull.I'll stay again in this hotel.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r125133380-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>125133380</t>
+  </si>
+  <si>
+    <t>02/24/2012</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>Motel rooms in and around the San Fernando Valley are expensive so I tried finding a bargain on Priceline. I was pleasantly surprised when bidding blind on that site gave me this hotel. The room was large, lovely and they recently replaced the old TVs with flat screens safely bolted down. The room had a full closet and great water pressure in the shower. I was so busy I didn't get to enjoy the room for long but I sure wish I could have. A lovely place.</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r125085826-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>125085826</t>
+  </si>
+  <si>
+    <t>02/23/2012</t>
+  </si>
+  <si>
+    <t>Staff is great, accommodations adequate</t>
+  </si>
+  <si>
+    <t>I might be spoiled by the fancy hotels of Las Vegas, or spoiled as a native Los Angeleno in the first place, but I really can't complain about the Homestead.  Our house was undergoing some last minute, urgent repairs, and we stayed here.  It's not your swanky hotel, but it's got what you need for a week (or two)--two burners, a full size--clean!--refrigerator, microwave, coffee maker, clean tub, towels.  When I walked into my room, i noticed a slight smell, but after keeping the air conditioning on, it's pretty much gone away.
+The bed is relatively comfortable.  Nothing too fancy, nothing hostel-like.
+While I stayed, they changed out all the old school television sets and replaced them with 32" LG flat screens.  Nice upgrade.
+Wi-fi is free, but slow.  Try streaming a tv show on your laptop and you'll never finish watching it.
+While I wouldn't call these accommodations 4 star, they're probably 2.5 - 3 star.  But the real reason why this hotel isn't "falling apart" to me, is the staff.  Every single staff member I've spoken to has been patient and nice, and willing to help.  Even investigate changes in payment instead of just telling you they have "no idea".  They're the ones that really make this hotel liveable.  Because otherwise, my first look at the peeling wallpaper and first whiff of the elevator, and I would've been running for the hills.
+So yeah, stay here if you...I might be spoiled by the fancy hotels of Las Vegas, or spoiled as a native Los Angeleno in the first place, but I really can't complain about the Homestead.  Our house was undergoing some last minute, urgent repairs, and we stayed here.  It's not your swanky hotel, but it's got what you need for a week (or two)--two burners, a full size--clean!--refrigerator, microwave, coffee maker, clean tub, towels.  When I walked into my room, i noticed a slight smell, but after keeping the air conditioning on, it's pretty much gone away.The bed is relatively comfortable.  Nothing too fancy, nothing hostel-like.While I stayed, they changed out all the old school television sets and replaced them with 32" LG flat screens.  Nice upgrade.Wi-fi is free, but slow.  Try streaming a tv show on your laptop and you'll never finish watching it.While I wouldn't call these accommodations 4 star, they're probably 2.5 - 3 star.  But the real reason why this hotel isn't "falling apart" to me, is the staff.  Every single staff member I've spoken to has been patient and nice, and willing to help.  Even investigate changes in payment instead of just telling you they have "no idea".  They're the ones that really make this hotel liveable.  Because otherwise, my first look at the peeling wallpaper and first whiff of the elevator, and I would've been running for the hills.So yeah, stay here if you have to.  It won't kill you.MoreShow less</t>
+  </si>
+  <si>
+    <t>I might be spoiled by the fancy hotels of Las Vegas, or spoiled as a native Los Angeleno in the first place, but I really can't complain about the Homestead.  Our house was undergoing some last minute, urgent repairs, and we stayed here.  It's not your swanky hotel, but it's got what you need for a week (or two)--two burners, a full size--clean!--refrigerator, microwave, coffee maker, clean tub, towels.  When I walked into my room, i noticed a slight smell, but after keeping the air conditioning on, it's pretty much gone away.
+The bed is relatively comfortable.  Nothing too fancy, nothing hostel-like.
+While I stayed, they changed out all the old school television sets and replaced them with 32" LG flat screens.  Nice upgrade.
+Wi-fi is free, but slow.  Try streaming a tv show on your laptop and you'll never finish watching it.
+While I wouldn't call these accommodations 4 star, they're probably 2.5 - 3 star.  But the real reason why this hotel isn't "falling apart" to me, is the staff.  Every single staff member I've spoken to has been patient and nice, and willing to help.  Even investigate changes in payment instead of just telling you they have "no idea".  They're the ones that really make this hotel liveable.  Because otherwise, my first look at the peeling wallpaper and first whiff of the elevator, and I would've been running for the hills.
+So yeah, stay here if you...I might be spoiled by the fancy hotels of Las Vegas, or spoiled as a native Los Angeleno in the first place, but I really can't complain about the Homestead.  Our house was undergoing some last minute, urgent repairs, and we stayed here.  It's not your swanky hotel, but it's got what you need for a week (or two)--two burners, a full size--clean!--refrigerator, microwave, coffee maker, clean tub, towels.  When I walked into my room, i noticed a slight smell, but after keeping the air conditioning on, it's pretty much gone away.The bed is relatively comfortable.  Nothing too fancy, nothing hostel-like.While I stayed, they changed out all the old school television sets and replaced them with 32" LG flat screens.  Nice upgrade.Wi-fi is free, but slow.  Try streaming a tv show on your laptop and you'll never finish watching it.While I wouldn't call these accommodations 4 star, they're probably 2.5 - 3 star.  But the real reason why this hotel isn't "falling apart" to me, is the staff.  Every single staff member I've spoken to has been patient and nice, and willing to help.  Even investigate changes in payment instead of just telling you they have "no idea".  They're the ones that really make this hotel liveable.  Because otherwise, my first look at the peeling wallpaper and first whiff of the elevator, and I would've been running for the hills.So yeah, stay here if you have to.  It won't kill you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r124981854-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
+  </si>
+  <si>
+    <t>124981854</t>
+  </si>
+  <si>
+    <t>02/21/2012</t>
+  </si>
+  <si>
+    <t>Price is right &amp; pretty decent accommodations</t>
+  </si>
+  <si>
+    <t>We planned a trip to visit our daughter in Glendale CA &amp; wanted an efficiency type hotel.  This was recommended by our daughter, who stayed here while searching for her apartment.  It is not fancy at all, but that wasn't a priority.  It has a sink, fridge with a freezer, 2 burner stovetop, microwave; basically the essentials for a small kitchen.  It is quiet for being on a main road.  There are quite a few shopping areas &amp; restaurants very close by, like within the surrounding blocks, as in walking distance.  For $88 a night, it's a good value.  I asked for additional pillows because there were only 2 on the bed.  We have been really comfortable so far.MoreShow less</t>
+  </si>
+  <si>
+    <t>We planned a trip to visit our daughter in Glendale CA &amp; wanted an efficiency type hotel.  This was recommended by our daughter, who stayed here while searching for her apartment.  It is not fancy at all, but that wasn't a priority.  It has a sink, fridge with a freezer, 2 burner stovetop, microwave; basically the essentials for a small kitchen.  It is quiet for being on a main road.  There are quite a few shopping areas &amp; restaurants very close by, like within the surrounding blocks, as in walking distance.  For $88 a night, it's a good value.  I asked for additional pillows because there were only 2 on the bed.  We have been really comfortable so far.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2669,5642 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>2</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>4</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" t="s">
+        <v>90</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>91</v>
+      </c>
+      <c r="X7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" t="s">
+        <v>106</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" t="s">
+        <v>106</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>115</v>
+      </c>
+      <c r="X9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>123</v>
+      </c>
+      <c r="X10" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>131</v>
+      </c>
+      <c r="O11" t="s">
+        <v>132</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>133</v>
+      </c>
+      <c r="X11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>141</v>
+      </c>
+      <c r="O12" t="s">
+        <v>106</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>142</v>
+      </c>
+      <c r="X12" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>146</v>
+      </c>
+      <c r="J13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K13" t="s">
+        <v>148</v>
+      </c>
+      <c r="L13" t="s">
+        <v>149</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>141</v>
+      </c>
+      <c r="O13" t="s">
+        <v>106</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>150</v>
+      </c>
+      <c r="X13" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" t="s">
+        <v>157</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>158</v>
+      </c>
+      <c r="O14" t="s">
+        <v>90</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>159</v>
+      </c>
+      <c r="X14" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>163</v>
+      </c>
+      <c r="J15" t="s">
+        <v>164</v>
+      </c>
+      <c r="K15" t="s">
+        <v>165</v>
+      </c>
+      <c r="L15" t="s">
+        <v>166</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>158</v>
+      </c>
+      <c r="O15" t="s">
+        <v>90</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>167</v>
+      </c>
+      <c r="X15" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>171</v>
+      </c>
+      <c r="J16" t="s">
+        <v>172</v>
+      </c>
+      <c r="K16" t="s">
+        <v>173</v>
+      </c>
+      <c r="L16" t="s">
+        <v>174</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>158</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>175</v>
+      </c>
+      <c r="X16" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>179</v>
+      </c>
+      <c r="J17" t="s">
+        <v>180</v>
+      </c>
+      <c r="K17" t="s">
+        <v>181</v>
+      </c>
+      <c r="L17" t="s">
+        <v>182</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>183</v>
+      </c>
+      <c r="O17" t="s">
+        <v>132</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>184</v>
+      </c>
+      <c r="X17" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>188</v>
+      </c>
+      <c r="J18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K18" t="s">
+        <v>190</v>
+      </c>
+      <c r="L18" t="s">
+        <v>191</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>183</v>
+      </c>
+      <c r="O18" t="s">
+        <v>106</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>192</v>
+      </c>
+      <c r="X18" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>196</v>
+      </c>
+      <c r="J19" t="s">
+        <v>197</v>
+      </c>
+      <c r="K19" t="s">
+        <v>198</v>
+      </c>
+      <c r="L19" t="s">
+        <v>199</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>183</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>200</v>
+      </c>
+      <c r="X19" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>203</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>204</v>
+      </c>
+      <c r="J20" t="s">
+        <v>205</v>
+      </c>
+      <c r="K20" t="s">
+        <v>206</v>
+      </c>
+      <c r="L20" t="s">
+        <v>207</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>183</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>208</v>
+      </c>
+      <c r="X20" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>211</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>212</v>
+      </c>
+      <c r="J21" t="s">
+        <v>205</v>
+      </c>
+      <c r="K21" t="s">
+        <v>213</v>
+      </c>
+      <c r="L21" t="s">
+        <v>214</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>183</v>
+      </c>
+      <c r="O21" t="s">
+        <v>98</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>208</v>
+      </c>
+      <c r="X21" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>216</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>217</v>
+      </c>
+      <c r="J22" t="s">
+        <v>218</v>
+      </c>
+      <c r="K22" t="s">
+        <v>219</v>
+      </c>
+      <c r="L22" t="s">
+        <v>220</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>221</v>
+      </c>
+      <c r="O22" t="s">
+        <v>90</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>222</v>
+      </c>
+      <c r="X22" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>225</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>226</v>
+      </c>
+      <c r="J23" t="s">
+        <v>227</v>
+      </c>
+      <c r="K23" t="s">
+        <v>228</v>
+      </c>
+      <c r="L23" t="s">
+        <v>229</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>230</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>231</v>
+      </c>
+      <c r="X23" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>234</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>235</v>
+      </c>
+      <c r="J24" t="s">
+        <v>236</v>
+      </c>
+      <c r="K24" t="s">
+        <v>237</v>
+      </c>
+      <c r="L24" t="s">
+        <v>238</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>239</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>240</v>
+      </c>
+      <c r="X24" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>243</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>244</v>
+      </c>
+      <c r="J25" t="s">
+        <v>245</v>
+      </c>
+      <c r="K25" t="s">
+        <v>246</v>
+      </c>
+      <c r="L25" t="s">
+        <v>247</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>239</v>
+      </c>
+      <c r="O25" t="s">
+        <v>98</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>248</v>
+      </c>
+      <c r="X25" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>251</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>252</v>
+      </c>
+      <c r="J26" t="s">
+        <v>253</v>
+      </c>
+      <c r="K26" t="s">
+        <v>254</v>
+      </c>
+      <c r="L26" t="s">
+        <v>255</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>256</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>257</v>
+      </c>
+      <c r="X26" t="s">
+        <v>258</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>260</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>261</v>
+      </c>
+      <c r="J27" t="s">
+        <v>262</v>
+      </c>
+      <c r="K27" t="s">
+        <v>263</v>
+      </c>
+      <c r="L27" t="s">
+        <v>264</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>265</v>
+      </c>
+      <c r="O27" t="s">
+        <v>132</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>266</v>
+      </c>
+      <c r="X27" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>269</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>270</v>
+      </c>
+      <c r="J28" t="s">
+        <v>271</v>
+      </c>
+      <c r="K28" t="s">
+        <v>272</v>
+      </c>
+      <c r="L28" t="s">
+        <v>273</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>265</v>
+      </c>
+      <c r="O28" t="s">
+        <v>132</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>266</v>
+      </c>
+      <c r="X28" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>275</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>276</v>
+      </c>
+      <c r="J29" t="s">
+        <v>277</v>
+      </c>
+      <c r="K29" t="s">
+        <v>278</v>
+      </c>
+      <c r="L29" t="s">
+        <v>279</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>221</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>280</v>
+      </c>
+      <c r="X29" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>283</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>284</v>
+      </c>
+      <c r="J30" t="s">
+        <v>285</v>
+      </c>
+      <c r="K30" t="s">
+        <v>286</v>
+      </c>
+      <c r="L30" t="s">
+        <v>287</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>288</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>289</v>
+      </c>
+      <c r="X30" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>292</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>293</v>
+      </c>
+      <c r="J31" t="s">
+        <v>294</v>
+      </c>
+      <c r="K31" t="s">
+        <v>295</v>
+      </c>
+      <c r="L31" t="s">
+        <v>296</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>221</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>297</v>
+      </c>
+      <c r="X31" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>300</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>301</v>
+      </c>
+      <c r="J32" t="s">
+        <v>302</v>
+      </c>
+      <c r="K32" t="s">
+        <v>303</v>
+      </c>
+      <c r="L32" t="s">
+        <v>304</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>288</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>305</v>
+      </c>
+      <c r="X32" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>308</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>309</v>
+      </c>
+      <c r="J33" t="s">
+        <v>310</v>
+      </c>
+      <c r="K33" t="s">
+        <v>311</v>
+      </c>
+      <c r="L33" t="s">
+        <v>312</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>313</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>314</v>
+      </c>
+      <c r="X33" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>317</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>318</v>
+      </c>
+      <c r="J34" t="s">
+        <v>319</v>
+      </c>
+      <c r="K34" t="s">
+        <v>320</v>
+      </c>
+      <c r="L34" t="s">
+        <v>321</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>313</v>
+      </c>
+      <c r="O34" t="s">
+        <v>106</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>322</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>323</v>
+      </c>
+      <c r="J35" t="s">
+        <v>324</v>
+      </c>
+      <c r="K35" t="s">
+        <v>325</v>
+      </c>
+      <c r="L35" t="s">
+        <v>326</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>327</v>
+      </c>
+      <c r="O35" t="s">
+        <v>90</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>328</v>
+      </c>
+      <c r="X35" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>331</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>332</v>
+      </c>
+      <c r="J36" t="s">
+        <v>324</v>
+      </c>
+      <c r="K36" t="s">
+        <v>333</v>
+      </c>
+      <c r="L36" t="s">
+        <v>334</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>327</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>328</v>
+      </c>
+      <c r="X36" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>336</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>337</v>
+      </c>
+      <c r="J37" t="s">
+        <v>338</v>
+      </c>
+      <c r="K37" t="s">
+        <v>339</v>
+      </c>
+      <c r="L37" t="s">
+        <v>340</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>341</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>342</v>
+      </c>
+      <c r="X37" t="s">
+        <v>343</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>345</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>346</v>
+      </c>
+      <c r="J38" t="s">
+        <v>347</v>
+      </c>
+      <c r="K38" t="s">
+        <v>348</v>
+      </c>
+      <c r="L38" t="s">
+        <v>349</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>350</v>
+      </c>
+      <c r="O38" t="s">
+        <v>90</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>351</v>
+      </c>
+      <c r="X38" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>354</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>355</v>
+      </c>
+      <c r="J39" t="s">
+        <v>356</v>
+      </c>
+      <c r="K39" t="s">
+        <v>357</v>
+      </c>
+      <c r="L39" t="s">
+        <v>358</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>350</v>
+      </c>
+      <c r="O39" t="s">
+        <v>90</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>359</v>
+      </c>
+      <c r="X39" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>362</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>363</v>
+      </c>
+      <c r="J40" t="s">
+        <v>364</v>
+      </c>
+      <c r="K40" t="s">
+        <v>365</v>
+      </c>
+      <c r="L40" t="s">
+        <v>366</v>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="s">
+        <v>350</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>359</v>
+      </c>
+      <c r="X40" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>368</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>369</v>
+      </c>
+      <c r="J41" t="s">
+        <v>370</v>
+      </c>
+      <c r="K41" t="s">
+        <v>371</v>
+      </c>
+      <c r="L41" t="s">
+        <v>372</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>373</v>
+      </c>
+      <c r="O41" t="s">
+        <v>132</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>374</v>
+      </c>
+      <c r="X41" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>377</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>378</v>
+      </c>
+      <c r="J42" t="s">
+        <v>379</v>
+      </c>
+      <c r="K42" t="s">
+        <v>380</v>
+      </c>
+      <c r="L42" t="s">
+        <v>381</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>373</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>374</v>
+      </c>
+      <c r="X42" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>383</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>384</v>
+      </c>
+      <c r="J43" t="s">
+        <v>385</v>
+      </c>
+      <c r="K43" t="s">
+        <v>386</v>
+      </c>
+      <c r="L43" t="s">
+        <v>387</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>388</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>389</v>
+      </c>
+      <c r="X43" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>392</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>393</v>
+      </c>
+      <c r="J44" t="s">
+        <v>394</v>
+      </c>
+      <c r="K44" t="s">
+        <v>395</v>
+      </c>
+      <c r="L44" t="s">
+        <v>396</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>397</v>
+      </c>
+      <c r="O44" t="s">
+        <v>106</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>399</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>400</v>
+      </c>
+      <c r="J45" t="s">
+        <v>401</v>
+      </c>
+      <c r="K45" t="s">
+        <v>402</v>
+      </c>
+      <c r="L45" t="s">
+        <v>403</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>404</v>
+      </c>
+      <c r="O45" t="s">
+        <v>106</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>405</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>406</v>
+      </c>
+      <c r="J46" t="s">
+        <v>407</v>
+      </c>
+      <c r="K46" t="s">
+        <v>408</v>
+      </c>
+      <c r="L46" t="s">
+        <v>409</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>410</v>
+      </c>
+      <c r="O46" t="s">
+        <v>106</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>411</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>412</v>
+      </c>
+      <c r="J47" t="s">
+        <v>413</v>
+      </c>
+      <c r="K47" t="s">
+        <v>414</v>
+      </c>
+      <c r="L47" t="s">
+        <v>415</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>416</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>417</v>
+      </c>
+      <c r="X47" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>420</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>421</v>
+      </c>
+      <c r="J48" t="s">
+        <v>422</v>
+      </c>
+      <c r="K48" t="s">
+        <v>423</v>
+      </c>
+      <c r="L48" t="s">
+        <v>424</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>425</v>
+      </c>
+      <c r="O48" t="s">
+        <v>90</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>2</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>426</v>
+      </c>
+      <c r="X48" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>429</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>430</v>
+      </c>
+      <c r="J49" t="s">
+        <v>431</v>
+      </c>
+      <c r="K49" t="s">
+        <v>432</v>
+      </c>
+      <c r="L49" t="s">
+        <v>433</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>416</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>434</v>
+      </c>
+      <c r="X49" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>437</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>438</v>
+      </c>
+      <c r="J50" t="s">
+        <v>439</v>
+      </c>
+      <c r="K50" t="s">
+        <v>440</v>
+      </c>
+      <c r="L50" t="s">
+        <v>441</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s">
+        <v>442</v>
+      </c>
+      <c r="O50" t="s">
+        <v>98</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>443</v>
+      </c>
+      <c r="X50" t="s">
+        <v>444</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>446</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>447</v>
+      </c>
+      <c r="J51" t="s">
+        <v>448</v>
+      </c>
+      <c r="K51" t="s">
+        <v>449</v>
+      </c>
+      <c r="L51" t="s">
+        <v>450</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>451</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="n">
+        <v>4</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>452</v>
+      </c>
+      <c r="X51" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>455</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>456</v>
+      </c>
+      <c r="J52" t="s">
+        <v>457</v>
+      </c>
+      <c r="K52" t="s">
+        <v>458</v>
+      </c>
+      <c r="L52" t="s">
+        <v>459</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>442</v>
+      </c>
+      <c r="O52" t="s">
+        <v>132</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>2</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>461</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>462</v>
+      </c>
+      <c r="J53" t="s">
+        <v>463</v>
+      </c>
+      <c r="K53" t="s">
+        <v>464</v>
+      </c>
+      <c r="L53" t="s">
+        <v>465</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>466</v>
+      </c>
+      <c r="O53" t="s">
+        <v>132</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>467</v>
+      </c>
+      <c r="X53" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>470</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>471</v>
+      </c>
+      <c r="J54" t="s">
+        <v>472</v>
+      </c>
+      <c r="K54" t="s">
+        <v>473</v>
+      </c>
+      <c r="L54" t="s">
+        <v>474</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>476</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>477</v>
+      </c>
+      <c r="J55" t="s">
+        <v>478</v>
+      </c>
+      <c r="K55" t="s">
+        <v>479</v>
+      </c>
+      <c r="L55" t="s">
+        <v>480</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>451</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>482</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>483</v>
+      </c>
+      <c r="J56" t="s">
+        <v>484</v>
+      </c>
+      <c r="K56" t="s">
+        <v>485</v>
+      </c>
+      <c r="L56" t="s">
+        <v>486</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>487</v>
+      </c>
+      <c r="O56" t="s">
+        <v>98</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>488</v>
+      </c>
+      <c r="X56" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>491</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>492</v>
+      </c>
+      <c r="J57" t="s">
+        <v>493</v>
+      </c>
+      <c r="K57" t="s">
+        <v>494</v>
+      </c>
+      <c r="L57" t="s">
+        <v>495</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>2</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>488</v>
+      </c>
+      <c r="X57" t="s">
+        <v>489</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>497</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>498</v>
+      </c>
+      <c r="J58" t="s">
+        <v>499</v>
+      </c>
+      <c r="K58" t="s">
+        <v>500</v>
+      </c>
+      <c r="L58" t="s">
+        <v>501</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>410</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>502</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>503</v>
+      </c>
+      <c r="J59" t="s">
+        <v>504</v>
+      </c>
+      <c r="K59" t="s">
+        <v>505</v>
+      </c>
+      <c r="L59" t="s">
+        <v>506</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>507</v>
+      </c>
+      <c r="O59" t="s">
+        <v>106</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>508</v>
+      </c>
+      <c r="X59" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>511</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>512</v>
+      </c>
+      <c r="J60" t="s">
+        <v>513</v>
+      </c>
+      <c r="K60" t="s">
+        <v>514</v>
+      </c>
+      <c r="L60" t="s">
+        <v>515</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>2</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>516</v>
+      </c>
+      <c r="X60" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>519</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>520</v>
+      </c>
+      <c r="J61" t="s">
+        <v>521</v>
+      </c>
+      <c r="K61" t="s">
+        <v>522</v>
+      </c>
+      <c r="L61" t="s">
+        <v>523</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>507</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>524</v>
+      </c>
+      <c r="X61" t="s">
+        <v>525</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>527</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>528</v>
+      </c>
+      <c r="J62" t="s">
+        <v>529</v>
+      </c>
+      <c r="K62" t="s">
+        <v>530</v>
+      </c>
+      <c r="L62" t="s">
+        <v>531</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>532</v>
+      </c>
+      <c r="O62" t="s">
+        <v>90</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>533</v>
+      </c>
+      <c r="X62" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>536</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>537</v>
+      </c>
+      <c r="J63" t="s">
+        <v>529</v>
+      </c>
+      <c r="K63" t="s">
+        <v>538</v>
+      </c>
+      <c r="L63" t="s">
+        <v>539</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>540</v>
+      </c>
+      <c r="O63" t="s">
+        <v>90</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>533</v>
+      </c>
+      <c r="X63" t="s">
+        <v>534</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>542</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>543</v>
+      </c>
+      <c r="J64" t="s">
+        <v>544</v>
+      </c>
+      <c r="K64" t="s">
+        <v>545</v>
+      </c>
+      <c r="L64" t="s">
+        <v>546</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>547</v>
+      </c>
+      <c r="X64" t="s">
+        <v>548</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>550</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>551</v>
+      </c>
+      <c r="J65" t="s">
+        <v>552</v>
+      </c>
+      <c r="K65" t="s">
+        <v>553</v>
+      </c>
+      <c r="L65" t="s">
+        <v>554</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>555</v>
+      </c>
+      <c r="O65" t="s">
+        <v>132</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>556</v>
+      </c>
+      <c r="X65" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>559</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>560</v>
+      </c>
+      <c r="J66" t="s">
+        <v>561</v>
+      </c>
+      <c r="K66" t="s">
+        <v>562</v>
+      </c>
+      <c r="L66" t="s">
+        <v>563</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>564</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>565</v>
+      </c>
+      <c r="X66" t="s">
+        <v>566</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>568</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>569</v>
+      </c>
+      <c r="J67" t="s">
+        <v>570</v>
+      </c>
+      <c r="K67" t="s">
+        <v>571</v>
+      </c>
+      <c r="L67" t="s">
+        <v>572</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>573</v>
+      </c>
+      <c r="X67" t="s">
+        <v>574</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>576</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>577</v>
+      </c>
+      <c r="J68" t="s">
+        <v>578</v>
+      </c>
+      <c r="K68" t="s">
+        <v>579</v>
+      </c>
+      <c r="L68" t="s">
+        <v>580</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>581</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>582</v>
+      </c>
+      <c r="X68" t="s">
+        <v>583</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>585</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>586</v>
+      </c>
+      <c r="J69" t="s">
+        <v>587</v>
+      </c>
+      <c r="K69" t="s">
+        <v>588</v>
+      </c>
+      <c r="L69" t="s">
+        <v>589</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>590</v>
+      </c>
+      <c r="O69" t="s">
+        <v>106</v>
+      </c>
+      <c r="P69" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>592</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>593</v>
+      </c>
+      <c r="J70" t="s">
+        <v>587</v>
+      </c>
+      <c r="K70" t="s">
+        <v>594</v>
+      </c>
+      <c r="L70" t="s">
+        <v>595</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>590</v>
+      </c>
+      <c r="O70" t="s">
+        <v>98</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>596</v>
+      </c>
+      <c r="X70" t="s">
+        <v>597</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>599</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>600</v>
+      </c>
+      <c r="J71" t="s">
+        <v>601</v>
+      </c>
+      <c r="K71" t="s">
+        <v>602</v>
+      </c>
+      <c r="L71" t="s">
+        <v>603</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>590</v>
+      </c>
+      <c r="O71" t="s">
+        <v>98</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>596</v>
+      </c>
+      <c r="X71" t="s">
+        <v>597</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>605</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>606</v>
+      </c>
+      <c r="J72" t="s">
+        <v>607</v>
+      </c>
+      <c r="K72" t="s">
+        <v>608</v>
+      </c>
+      <c r="L72" t="s">
+        <v>609</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>610</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>596</v>
+      </c>
+      <c r="X72" t="s">
+        <v>597</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>612</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>613</v>
+      </c>
+      <c r="J73" t="s">
+        <v>614</v>
+      </c>
+      <c r="K73" t="s">
+        <v>615</v>
+      </c>
+      <c r="L73" t="s">
+        <v>616</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>610</v>
+      </c>
+      <c r="O73" t="s">
+        <v>90</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>596</v>
+      </c>
+      <c r="X73" t="s">
+        <v>597</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>618</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>619</v>
+      </c>
+      <c r="J74" t="s">
+        <v>620</v>
+      </c>
+      <c r="K74" t="s">
+        <v>621</v>
+      </c>
+      <c r="L74" t="s">
+        <v>622</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>623</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>624</v>
+      </c>
+      <c r="X74" t="s">
+        <v>625</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>627</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>628</v>
+      </c>
+      <c r="J75" t="s">
+        <v>629</v>
+      </c>
+      <c r="K75" t="s">
+        <v>630</v>
+      </c>
+      <c r="L75" t="s">
+        <v>631</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>632</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>633</v>
+      </c>
+      <c r="X75" t="s">
+        <v>634</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>636</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>637</v>
+      </c>
+      <c r="J76" t="s">
+        <v>638</v>
+      </c>
+      <c r="K76" t="s">
+        <v>639</v>
+      </c>
+      <c r="L76" t="s">
+        <v>640</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s">
+        <v>632</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>641</v>
+      </c>
+      <c r="X76" t="s">
+        <v>642</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>644</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>645</v>
+      </c>
+      <c r="J77" t="s">
+        <v>646</v>
+      </c>
+      <c r="K77" t="s">
+        <v>647</v>
+      </c>
+      <c r="L77" t="s">
+        <v>648</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>649</v>
+      </c>
+      <c r="O77" t="s">
+        <v>90</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>650</v>
+      </c>
+      <c r="X77" t="s">
+        <v>651</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>653</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>654</v>
+      </c>
+      <c r="J78" t="s">
+        <v>655</v>
+      </c>
+      <c r="K78" t="s">
+        <v>656</v>
+      </c>
+      <c r="L78" t="s">
+        <v>657</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="s">
+        <v>623</v>
+      </c>
+      <c r="O78" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>2</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>658</v>
+      </c>
+      <c r="X78" t="s">
+        <v>659</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>661</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>662</v>
+      </c>
+      <c r="J79" t="s">
+        <v>663</v>
+      </c>
+      <c r="K79" t="s">
+        <v>664</v>
+      </c>
+      <c r="L79" t="s">
+        <v>665</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>666</v>
+      </c>
+      <c r="O79" t="s">
+        <v>106</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>667</v>
+      </c>
+      <c r="X79" t="s">
+        <v>668</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>670</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>671</v>
+      </c>
+      <c r="J80" t="s">
+        <v>672</v>
+      </c>
+      <c r="K80" t="s">
+        <v>673</v>
+      </c>
+      <c r="L80" t="s">
+        <v>674</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>675</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>676</v>
+      </c>
+      <c r="X80" t="s">
+        <v>677</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>679</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>680</v>
+      </c>
+      <c r="J81" t="s">
+        <v>681</v>
+      </c>
+      <c r="K81" t="s">
+        <v>682</v>
+      </c>
+      <c r="L81" t="s">
+        <v>683</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>675</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>3</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>676</v>
+      </c>
+      <c r="X81" t="s">
+        <v>677</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>685</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>686</v>
+      </c>
+      <c r="J82" t="s">
+        <v>687</v>
+      </c>
+      <c r="K82" t="s">
+        <v>688</v>
+      </c>
+      <c r="L82" t="s">
+        <v>689</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>690</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>691</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>692</v>
+      </c>
+      <c r="J83" t="s">
+        <v>693</v>
+      </c>
+      <c r="K83" t="s">
+        <v>694</v>
+      </c>
+      <c r="L83" t="s">
+        <v>695</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>696</v>
+      </c>
+      <c r="O83" t="s">
+        <v>106</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>697</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>698</v>
+      </c>
+      <c r="J84" t="s">
+        <v>699</v>
+      </c>
+      <c r="K84" t="s">
+        <v>700</v>
+      </c>
+      <c r="L84" t="s">
+        <v>701</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>696</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>36368</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>703</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>704</v>
+      </c>
+      <c r="J85" t="s">
+        <v>705</v>
+      </c>
+      <c r="K85" t="s">
+        <v>706</v>
+      </c>
+      <c r="L85" t="s">
+        <v>707</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>696</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>3</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>708</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_254.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_254.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="792">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Teri K</t>
+  </si>
+  <si>
     <t>07/01/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Wonderful place to stay! Staff was great and we would use again. Very clean and nice. Great rate. We stayed 6 wks. No problems at all. Parking was great location was wonderful. Again the staff was wonderful and they were very helpful. More</t>
   </si>
   <si>
+    <t>Ribird</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r566915825-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>We stayed there with our pet and we were told to save the first handicap parking spot for emergency personnel even though we had a valid placard.  Upon arrival we could only park there for 30 minutes and had to pay $5.00.  Due to experience, Police and Fire can park anywhere they like so that concept of holding a handicap spot open did not sit well for us and we refused to pay for an open parking space.  Secondly, there is sign inside the elevator that states, "no pets in elevator"  SoMotel why did you give us a room on the 3rd floor?  First time stay at one of these places and certainly our last.  Room was clean but the bedspreads appeared to need washing.  We left in the middle of the night.More</t>
   </si>
   <si>
+    <t>W8937ZKjacqueliner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r565964987-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>The room had a wierd smell upon entering had to spray perfume. Kitchen looked like it was quickly wiped down with a rag and water, bathroom door didn't lock, The top shelf in the closet was slightly broken so we couldn't place any of our belongings up there, tried using the iron and it was broken, sofa bed was uncomfortable and above all there was no complimentary cleaning service; there was an additional fee if you wanted cleaning service.More</t>
   </si>
   <si>
+    <t>fresnillo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r555877711-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -270,6 +282,9 @@
     <t>They miss my appointment to clean my room after I’m paid, the front desk people are very gentle and helpful the bad thing they give room next to someone have a dog and I tell them I’m not a dog friendly More</t>
   </si>
   <si>
+    <t>Ben S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r546834673-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -300,6 +315,9 @@
     <t>Well priced hotel for the convenience of being close to Hollywood (need hire car). It was never more than a 20min Drive. Good access to local food, supermarkets and freeways. Couple of rooms we were initially shown were smelly so through persistence we were upgraded to a “deluxe” style room which was very kind of the manager. The hotel is clean enough and the staff are friendly enough. It was mostly quiet throughout. We got a good discount code for 35% off their nightly rate so all in all we had a great stay at a great price. More</t>
   </si>
   <si>
+    <t>marisniulkisl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r546930465-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -318,6 +336,9 @@
     <t>Average hotel room, size was good, the first room they gave me didn't close the door, but they promptly provided another one. The second one the sheets and blanket were not exactly clean with spots of stuff in it.More</t>
   </si>
   <si>
+    <t>Kirk A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r541783390-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -348,6 +369,9 @@
     <t>The hotel is conveniently located for travelers to the Los Angeles Glendale Area.  The convenience of making ones own meals is very attractive to long term stay visitors.   I will definitely stay at this hotel exclusively on my next tripMore</t>
   </si>
   <si>
+    <t>emilioh942</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r541585989-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -372,6 +396,9 @@
     <t>Rooms were not clean. Hair on towels, shower and sheets.  Floors were dirty. My sucks were one white.  Breakfast was non existent.  People were loud in the rooms next to mine.  Over priced. A motel would've been betterMore</t>
   </si>
   <si>
+    <t>cynthiabP8276RH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r539596378-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -396,6 +423,9 @@
     <t>The staff was very accommodating and friendly.  We arrived prior to check in from out of town and they helped get us in a room earlier.  Great location for Universal Studios and great room rates.  The property is very clean.More</t>
   </si>
   <si>
+    <t>bradley s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r529675629-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -426,6 +456,9 @@
     <t>All the housekeeping staff are excellent service and the management team is always ready to help and always has a smile and a little always say good morning to us , I would recommend this place to all of my friends and families members, pet friendly here also More</t>
   </si>
   <si>
+    <t>gupto</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r527413830-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -453,6 +486,9 @@
     <t>I use this hotel almost once every week as I visit this area for business. I find this place to be nice, clean and comfortable. They renovated the third floor rooms already. So its even better now. The front desk staff is very friendly and helpful. Especially Liliana's customer service, friendliness and attention to detail is certainly worth mentioning. This is not the cheapest of all Extended Stay America properties, but It's a great value. I will certainly recommend this property.More</t>
   </si>
   <si>
+    <t>Brandon1968</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r526829739-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -477,6 +513,9 @@
     <t>Hard to find the reception in the car park. Pleasant staff but when leaving the elevator to 3 Rd floor room met by a wall of cigarette smoke. Whole floor a smoking floor. Asked to be moved  but unfortunately the room stank of stale Oder and  . TV poor reception and no internet connection. Fortunately reception staff refunded the 4 night booking when we found a best western on Route 66 nearer Glendora.More</t>
   </si>
   <si>
+    <t>David A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r508160134-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -504,6 +543,9 @@
     <t>Stayed at the extended stay in Glendale California. It was clean and had everything we needed. A nice kitchen area. It was only a shart driving distance to everywhere I wanted to go. The front desk personnel were extremely helpful. I would go there again.More</t>
   </si>
   <si>
+    <t>edwardsH7384RE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r504801577-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -528,6 +570,9 @@
     <t>Happy with our stay. Room was clean. I rarely feel comfortable to sleep and use facilities at a hotel but here it was nice that I felt comfortable. A/C unit was noisy and bothersome at night but I did not mention to the staff.  More</t>
   </si>
   <si>
+    <t>gagiks2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r501280202-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -552,6 +597,9 @@
     <t>Thanks for helping us and understanding of our situation, happy to see that people like animals and they are really friendly. Thanks Liliana for creating a friendly environment for us and making our trip better More</t>
   </si>
   <si>
+    <t>J9933ADdavide</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r497055572-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -579,6 +627,9 @@
     <t>over all is was great to meet just wonderful staff Lilian, Eric, Alexander, including the cleaning staff where grand. Thanks all the staff there at Extended stay. This was my first time being there and also felt welcome.More</t>
   </si>
   <si>
+    <t>gustavoivana</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r496732469-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -603,6 +654,9 @@
     <t>My stay at the Extended Stay America- Glendale was very positive. Staff was very kind and accommodating. Grab and go breakfast was quick and simple. Room was very clean. Kitchen appliances helped make business expenses more cost effective. I will stay here again for future business visits.More</t>
   </si>
   <si>
+    <t>nothappy31</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r494940405-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -627,6 +681,9 @@
     <t>The room I was assigned was VERY DIRTY! Wasn't cleaned after the previous guest. That definitely ruined my night. And the breakfast selection was very limited. Never again will I stay at an extended stay. More</t>
   </si>
   <si>
+    <t>Shanae C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r491790331-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -651,6 +708,9 @@
     <t>Liliana is very nice, she makes you feel comfortable from the first time you walk in .very  warm and inviting...she's knowledgeable about all the questions I had..I had only great experiences with her..she defines true hospitality.. Majority of the employees here are nice. I can truly appreciate that.More</t>
   </si>
   <si>
+    <t>naveens554</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r491877548-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -666,6 +726,9 @@
     <t>Clean, pleasant hotel which comes and at a good rate   The Location is near to Hollywood and universal studios which is a bonus.  Would recommend to stay here if you are looking for a good experience.  4/5 ratingMore</t>
   </si>
   <si>
+    <t>Ciukv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r489251061-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -693,6 +756,9 @@
     <t>The hotel had been renovated not too long ago when we visited, this was also a week long trip for tourist attractions (so you have a baseline on what this trip was about).I feel like all extended stay rooms have a smell to them since they have a kitchen, and all of the variety of smells from making food soak into the furniture, in which I would recommend bringing an air freshener just to help you feel more at home. The room overall was clean, and received a decent signal of wi-fi (free wi-fi definitely not strong enough for business purposes). Also please remember that if you are staying here you receive cleaning service once per week included in your stay, it IS called extended stay and not just an overnight hotel so don't complain that the room is not cleaned everyday if you are staying for more than 2 days.The hotel is in a prime location, meaning not being too far from tourist locations such as the Griffith Observatory, the Hollywood Sign, Hollywood walk of fame, Santa Monica Pier, and Venice Beach just off the top of my head. Definitely would recommend staying here for a budget hotel while still in close proximity to top tourist attractions.More</t>
   </si>
   <si>
+    <t>jiu64</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r479145416-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -720,6 +786,9 @@
     <t>The hotel was convenient located for us and the rooms were fine. We had booked for four people and got a room with one King bed and extra couch at a rate of USD 170. The couch was very uncomfortable!!The staff was nice and friendly.The only thing that really bothered me was the parking fee. I never paid at a Motel property for parking- that´s really a reason for not coming back.More</t>
   </si>
   <si>
+    <t>BeautyForAshes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r473916344-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -747,6 +816,9 @@
     <t>Arrival and check in went fine but things went downhill from there. Got to our room which we booked for 2 adults, 3 kids. There were 2 queen beds, no cot or extra bedding for 5th person. Called for a for they said there wasn't one available but would bring up extra bedding. They did but it was 2 sheets and 2 thin blankets. Asked for a couple more blankets and they said they didn't have any. Took our comforters off the beds to make a bed on the floor. Room was clean but that's about all it had going for it. Had to request plates, cutlery and anything else for the kitchenette. The breakfast in the morning was a joke. Granola bars, processed muffins and coffee. That's it. No juice, fruit or milk. Ridiculous. There is nothing near the hotel either for decent food. Not a good place to stay. Especially with kids. More</t>
   </si>
   <si>
+    <t>BarbB2000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r471702457-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -771,6 +843,9 @@
     <t>Reception by Alex, very pleasant and helpful.    We booked and prepaid a 2Q room with kitchenette, but room 302 was not stocked with any kitchen items as it normally is. Was ok, since we only needed it one night, and Alex provided us with a coffemaker and mugs at check in. Room was pleasantly furnished, clean , nice property... Included breakfast was only "continental style" to include  coffee, granola bars, muffins, and packaged oatmeal, enough to get us started... it was close to area tourist attractions like Griffith Park, LA Zoo, Autry Museum, Forest LawnMore</t>
   </si>
   <si>
+    <t>momstephano</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r446451022-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -798,6 +873,9 @@
     <t>This was our second stay here, and it was very convenient for the things we were going to be doing while in town. One of the reasons I picked this hotel is its like a apartment. They have a full kitchen with a counter with stools for dining. They are pet friendly and they had free parking. We were told that they were going to start charging for parking but would not be charged this stay. I don't understand how you can charge for parking when we have to self park and the lot is not secured, this will be the main reason I'll probably not return. They already have the parking lot, why start charging a daily parking fee? The room itself was clean, a little dated, not luxury, but suited our needs for a four night stay. Easy access to walk the dog and plenty  of grassy areas on site. They have a nice laundry room which is handy to refresh the traveling clothes.More</t>
   </si>
   <si>
+    <t>LyndaTodd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r431336603-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -825,6 +903,9 @@
     <t>The staff was wonderful, but what I didn't expect was to hear dogs barking! My miss that it is a dog friendly hotel, but kudos to staff for moving my room when I was woken up the first night I stayed there. Clean rooms and nice to have a mini-kitchen.More</t>
   </si>
   <si>
+    <t>David R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r431044437-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -843,6 +924,9 @@
     <t>Although the premise of Extended Stay is for working people during the week, I chose Ex Stay Glendale based on parking and a good weekend rate.Although the address is Glendale, it's a few blocks from the Tesla Super Charger in Burbank (though I didn't see any EV parking at the hotel itself.)The rooms are big, and after the usual chemical "just cleaned" hotel odor was comfortable enough with a generous supply of TV channels.The "complimentary breakfast" wasn't much of a compliment - coffee with artificial creamer and a plastic-wrapped muffin that looked as if it had been made in the Nixon administration. But the price for the room was fair and there are many options for nice diners within the neighborhood.I'd recommend this location for out-of-towners visiting LA for leisure trips.More</t>
   </si>
   <si>
+    <t>SusanAndJim</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r410793972-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -867,6 +951,9 @@
     <t>My 2 daughters and I stayed at this hotel for 2 nights in late August. We were greeted by a very friendly and helpful front desk attendant and given a great room with king bed and pullout sofa bed. The room was large and included a kitchenette, desk area, nice closet space and bathroom with the sink in the open area. This was very convenient for the 3 of us. The king bed was comfortable while the sofa bed suffered from poor support and a thin mattress.The grab and go breakfast and coffee were served from a table in the lobby and included granola bars, instant oatmeal, and packaged muffins. The coffee was, unfortunately, the brown water we usually get at motels.Wifi signal was strong, and there were plenty of outlets in the room for our various electronic devices. The hotel is well located, very near to the Burbank-Glendale line.The building has 2 elevators. The maid service is weekly, but the desk attendants offered to have linens brought up if we needed them during our 2-night stay.All in all, we enjoyed our visit and would definitely consider staying here again.More</t>
   </si>
   <si>
+    <t>gglow</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r407868937-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -894,6 +981,9 @@
     <t>We stayed on night there on the way to San Diego, The check was slow, there was just one person helping the guests. The rooms were clean. The complementary breakfast was just some muffins and danishes (not freshly baked), but it is what you would expect from this price range of a hotel. The area around the hotel is more residential and just have a few restaurants.More</t>
   </si>
   <si>
+    <t>Daisy G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r405496615-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -918,6 +1008,9 @@
     <t>I booked this hotel a night before my stay and was very satisfied. I went to Universal Studios and was looking for something close and cheap, glad I found this place! I checked in at 11pm with no problem, very quick friendly guy in the front. My biggest concern every time I stay in an LA hotel is whether or not my car will be safe in the parking lot but I didn't have those worries here. The neighborhood was very quite, I didn't see any homeless people or have any disturbances.   My room was very clean and bigger than I expected. Bed and pillow was very comfortable.The only thing that I didn't like was during checkout, other guests and I were trying to checkout but no one was at the front desk. When I showed up the people before me said they had been waiting for about 15 minutes so I went to look for any employee and couldn't find anyone. A guest literally had to go into the employee break room to get some employees out. A part from that I was satisfied.More</t>
   </si>
   <si>
+    <t>Z9261USerich</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r398187828-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -942,6 +1035,9 @@
     <t>brown splatters on toilet lid, smell of baby diapers in room, sticky bathroom floor, ants everywhere...rude, incompetent front desk staff.  and the grounds are lousy, but that was inconsequential, really.More</t>
   </si>
   <si>
+    <t>dinethnnanayakkara</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r389404771-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -969,6 +1065,9 @@
     <t>This is our second time staying at one of the Extended Stay America hotels. As was the case on the previous occasion, we enjoyed our stay. Really spacious room. Clean and tidy. We came across a few very helpful staff during our 5 night stay there. We will definitely come back when we visit LA next. Our stay was between 12 - 17 June 2016More</t>
   </si>
   <si>
+    <t>Lateka P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r386801134-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -984,6 +1083,9 @@
     <t>OMG, the hotel smelled really bad.  The room had a horrible odor.  We checked in turned on the air to try and remove the odor.  Went towards the front door and here were two nasty looking dogs checking in with their owner. All day we felt that something was biting us.  Only to pull the covers back for bed and fleas were jumping.  Of course they were fully booked and could not relocate us.  He offered to change the sheets only for us to see a big piss spot in the bed. I will never go back.</t>
   </si>
   <si>
+    <t>Jaymi G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r354336873-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -1011,6 +1113,9 @@
     <t>We had a nice stay at this Extended Stay.  The room was clean and spacious.  The location was great.  The employees were very helpful and professional.  The lobby in the morning has a great set up for a quick breakfast snack.  If you call the lobby and need a coffee maker and coffee they will bring it.More</t>
   </si>
   <si>
+    <t>tes1France</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r354278223-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -1026,6 +1131,9 @@
     <t>What make this place special is the staff. Namely Zac and Diana. They both went out of their way to help us not only in the hotel but finding our way around Los Angeles and giving us tips. 5 star staff. The hotel itself need upgrating in the rooms as they are very dated. Having said that the cleaners do a fantastic job and they are spotless. Good location for Universal studios and Holwood if you don't want to be in the middle of it all. Great Pollo Loco 2 minutes walk away plus a good mini market and donut shop! Breakfast is very poor, grab and go, ie. a few muffins in plastic, apple or orange, coffee and muesli bars. Not really a breakfast.More</t>
   </si>
   <si>
+    <t>levine331</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r336897762-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -1053,6 +1161,9 @@
     <t>Stayed here with my family of 4 last week when visiting Los Angeles and Hollywood for vacation. Hotel was a bit dated and there were a few issues with our room. Staff did everything they could to try and rectify but ended up giving us a credit. Location is perfect! Just outside the Griffith Park and close to Hollywood, makes a great location away from the busyness of the tourist spots.More</t>
   </si>
   <si>
+    <t>C C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r320801905-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -1080,6 +1191,9 @@
     <t>Just a few details  the hotel could have made a nicer impression on arrival. Don't stay at the end of the hall near the outside doors--all night coming and going of guests door slamming. Room was non-smoking but smelled like Pets. Bathroom sink (no hot water). Night time front desk staff not friendly! wrinkled sweater like we woke her up. Not accommodating or volunteering information about the property etc.. Although Nice grab and go (free) breakfast. Morning staff neat and friendly. Room and bed clean, comfortable. Priced with range for location.More</t>
   </si>
   <si>
+    <t>milton l</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r316438077-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -1104,6 +1218,9 @@
     <t>Close to downtown L.A. Nice,quiet and we think safe neighborhood,friendly and helpful staff,just don't stay downstairs (upstairs people start walking at 5:00 am couldn't sleep at all after that!!!More</t>
   </si>
   <si>
+    <t>Schmeis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r316080358-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -1122,6 +1239,9 @@
     <t>Relatively speaking in line with the reset of the LA basin the price was lower than many. Location was okay and the room was okay. However...it's a bit industrial and not overly warm and welcoming. The room had plenty of outlets available for charging electronics. However, the rest was more Spartan than comfortable. The bed was almost rock hard with only one night stand. Carpet was worn with burn marks, and the place smelled of stale cigarettes...in the no smoking floor. Glad we were only staying one night.More</t>
   </si>
   <si>
+    <t>nm8rdave</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r282137416-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -1149,6 +1269,9 @@
     <t>Nice hotel. Reasonably priced and well located. Nothing fancy here. No frills. But very clean and with a friendly, attentive staff. My only complaint would be the overall noise. My room, 131, was located directly next to the boiler room and the front entrance. I could hear the door opening and closing all evening long and there was bumping and machine noises from the boiler room. I could also clearly hear all the voices and door slamming in the hallway, but I see that as a problem with many modern hotels and not unique to this hotel. Finally, the A/C was not as efficient as it could be and the room was warm all night. All that said, I would say that the hotel was a good value, clean and friendly. I would recommend avoiding room 131 and the boiler room area and you should be fine. More</t>
   </si>
   <si>
+    <t>Anil V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r281970828-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -1167,6 +1290,9 @@
     <t>Overall we liked our stay in this hotel.But rooms are not that nice as shown in the pictures, maybe only few rooms are renovated. We stayed in first floor. Breakfast is grab and go.Kitchen is clean. Bathroom is okay. We were looking to stay near Hollywood but we couldn't find any extended stay other than Glendale one nearer to Hollywood.More</t>
   </si>
   <si>
+    <t>Vasu M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r276358183-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -1194,6 +1320,9 @@
     <t>Stayed here for four nights recently and the experience has been quite good. The hotel is in a very central location in walkable distance to good restaurants and grocery stores. Rooms are clean and the breakfast options are the the usual stuff we get in all ESA properties. We were in the city to primarily visit the Hollywood area, Griffith park and Universal Studios. This hotel is in perfect location for these places and has ample parking space.More</t>
   </si>
   <si>
+    <t>anirban c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r263772659-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -1215,6 +1344,9 @@
     <t>When I checked In the hotel positively surprised me. I am here for a business trip of 14 weeks. The rooms are spacious and have Kitchen, Fridge, Microwave to make it more homely. They claim to provide breakfast but do not rely on that. Because they serve only Muffin, Apple and Coffee. I am deducting 0.5 point because of this. A deduction of another point because of my Laptop got stolen from their room and when I threatened them to file a police complaint somehow they were able to recover my laptop from their laundry room. Minus 1 for this. Do not stay in any of the rooms (specially King Suite) on the ground floor. Because it will be very noisy and you will not be able to open the curtains because of loss of privacy. Minus 0.5. But the location is really good with lot of restaurants around, Public Transport (busline, Railways), very near to Griffith Observatory (7miles) and other attractions.More</t>
   </si>
   <si>
+    <t>Dressagetrainer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r261779009-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -1233,6 +1365,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Leon144</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r261453277-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -1251,6 +1386,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>jose_a_rojas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r252414736-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -1278,6 +1416,9 @@
     <t>This year we, as a family, decided to visit the Los Angeles Area to get a first hand experience of the Theme Parks as well as the Hollywood Area.Arrival at hotel was late (around 10:00 PM) and everything was working perfectly; front desk personnel was just waiting for us.We used this hotel in three different occasions and everyone of them we received great service.Congratulations!!More</t>
   </si>
   <si>
+    <t>Fay Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r248989436-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -1329,6 +1470,9 @@
     <t>I was pleasantly surprised by the overall experience of this hotel. Having never stayed in this type of hotel. We needed to spend five nights while in town this month and we had our puppy with us. The Holiday Inn we stayed at last year changed their pet policy and I was scrambling to find another pet friendly place to stay. There were plenty of places around the property to walk the dog. Check in was easy, the room had a full kitchen and a couch and coffee table. We had a king bed, the mattress was a little crunchy on the sides but we did sleep ok.They don't clean the room everyday, so you ask for that service if you want. This works when you  value your privacy. I felt like I was at home. The elevators worked well, overall the noise wasn't an issue, occasionally someone walking too hard upstairs or a door shutting hard. They have a grab n go breakfast, muffins and granola bars cereal, juices and coffee . I would stay here again next time I am in the area.More</t>
   </si>
   <si>
+    <t>AZdesert-rat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r242028880-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -1356,6 +1500,9 @@
     <t>We needed a place to stay for two nights near Burbank/LA, and this Glendale hotel worked out fine. I booked through Bill Shatner's "Negotiator" site. It was about halfway from the Getty Villa and the Huntington Botanical Gardens, two places we would be visiting. Rooms were fine...full kitchen, but you had to ask the front desk for utensils/glasses/pots/pans, etc. if you wanted to cook. Bed was comfortable. Flat screen tv with limited cable was nice. Free wi-fi. Breakfast is what everyone else has already said...granola bars, fruit, muffins, and coffee ("grab-and-go").You could do much worse.More</t>
   </si>
   <si>
+    <t>Reynaldo G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r240756799-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -1383,6 +1530,9 @@
     <t>My wife and three grandkids stayed here last summer and it worked out really well, the room was big enough for all of us to stay, the kitchen really worked out great. The coffee was fresh every morning but the grab and run breakfast which was made up of alot of nothing was nothing to write home about. But the staff was super friendly and they made our stay a happy one. They offered lots of directions to different attractions, and responded quickly anytime we needed anything. I would stay here again.More</t>
   </si>
   <si>
+    <t>themick13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r240314044-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -1399,6 +1549,9 @@
   </si>
   <si>
     <t>Just stayed here for a long weekend away. Staff are okay but do not go out of their way and front desk coverage is non-existent at night. I called for a wake up call and the night person who answered said "No problem". When I called in the morning to revise the front desk person said "We will try our best." and then they never called. The new decor is ok, beds are very hard, elevators are quite old and slow, free parking in a safe area, not too far from various highways. The free breakfast is quite simple so if that is a criteria look elsewhere. My main issue was the noise from the halls and other floors. It was constant and loud. Not people yelling or kids running, just regular noise and it seemed to be amplified. Very hard to rest at night. For the money you are spending, you could do better. Look elsewhere.More</t>
+  </si>
+  <si>
+    <t>tessiesmama</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r224106943-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
@@ -1434,6 +1587,9 @@
 There is no housekeeping for guests there for less than a week, which was fine with me in principle since I had a pet in the room and didn't want them in the room when I was out. But...I chose this place to stay in my home town when I had to be out of my house for a few days during a remodel, and I could bring my pet with me for an additional charge rather than having to board her. The other pet friendly choice in the price range gets terrible reviews and has inconvenient parking, although it does have a few more onsite amenities including housekeeping and is about $25 a night cheaper.The physical quality of this facility is very nice. My queen bed room wasn't big but it was laid out pretty well. A good useful little kitchen, nice new furnishings, clean and attractively decorated. Parking is very convenient once you're checked in and have key card access to a few other entry doors besides the lobby. Service isn't this property's superpower. Promises of call back, or time to bring up amenities ordered to the room weren't kept. "10 minutes" was more than an hour on two occasions dealing with the front desk, and might have been longer had I not either called back or stopped by the desk. Also when ordering amenities, some of what was promised (coffee filter packs, dishtowels) weren't provided. There is no housekeeping for guests there for less than a week, which was fine with me in principle since I had a pet in the room and didn't want them in the room when I was out. But for an average price of $130 a night in a non-resort area, plus the $25 per night pet supplement I paid, it seemed a little bit pricey. It's a self service motel/hotel all the way. In room amenities are also pretty spartan. Teeny little shampoo and conditioner. Definitely one or two uses at most. I brought my own. No paper towels, no in room coffee provided although you can order a coffee maker free of charge. (Along with plates, cups, utensils, coffee maker, toaster, frying pan.) One ice tray provided. No ice machine in hotel. Very little staff on site at any one time from what I could tell, so you'll need to manage your bags and be patient when you need something. If you need more towels, you take your used ones to the front desk to exchange for fresh ones.If you want, you can get "grab and go breakfast" which is coffee or tea downstairs, fruit, and packaged breakfast pastries in the lobby from 6 to 930. Free parking. Free wifi, but it was too slow for me to use efficiently so I gave up and used cell data for my tablet and cell.Bed is REALLY hard which is fine for me personally as I have a bad back, but might bother some people. It squeaked when moving on it, but no big deal. The room smelled weird, but in fairness it was a smoking room that also accommodates pets, so the odor was probably a function of some cleaning product used to neutralize that. A/C unit on the wall was loud but worked ok on hot August days, and the window opens a little bit, but it's a busy street, so that could also get loud. Water pressure was fair. No problem with hot water, but had trouble getting it to be cold water. Full size fridge, microwave, two burner stove, quite a lot of storage in drawers and cabinets and shelves, although the closet is just average size with a half dozen hangers.Not very sound proofed. My neighbors one night must have slammed their door two dozen times in the space of 3 hours, and it literally made the bed shake and scared the beejeezus out of my cat. Also could hear tantrum throwing children and people conversing in hallways.The TV was apparently permanently set on power saver and would shut itself off every two hours or so. It's a flat screen but not HD. You get basic cable, plus a couple of premium channels. (Channel guide provided on a card in the room was inaccurate.)Location is in a decent commercial area on a busy street. There is a bus line, but I had my car so I don't know how convenient it is for getting around town. There are several chain fast food places, donut shop, mini mart, pizza joint etc. within walking distance. Restaurant next door is closed so hopefully for travelers looking to walk to a sit down restaurant, something else will move in.I'm giving this 4 stars because it's the rooms themselves are very attractive, pretty comfortable and clean on check in. Once I shopped for needed staples, I was comfortable there. But I felt like it was pretty expensive for spartan, or really almost no guest service once you check in. If you need a place with a kitchenette and/or that is pet friendly in the area, you have a car to get to a market to stock up what you need for food, drink, hygiene products, or if you are satisfied with using the fast food places and minimarts within walking distance, I would recommend it as one of the better options in Glendale.Book as early as possible for the best deal. My price went up by 40 dollars within a week of first checking prices, nailing down my contractors' schedule and finally booking it. and another 20 dollars increase when I had to add a day. I requested a two hour late checkout but was only allowed one without additional charge which seemed a little strange because on my checkout day, the place appeared almost completely empty, checkout time is 11 and checkin at 3. I actually had to book an extra day I didn't even stay because I needed to get out of the house and in a room in the morning, and they wouldn't commit to an early check in. They're strict on it apparently, full occupancy or not.More</t>
   </si>
   <si>
+    <t>Ricardo R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r221632877-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -1452,6 +1608,9 @@
     <t>If you are on a family trip this is not for you, I stayed 2 nights and it seemed that this is the "after party" hotel of the area.Both nights there was drunk people in and out of their rooms screaming and knocking on doors, slamming them and of course we didn't get much rest I booked a not refundable rate ( wasn't cheap either ) so I have to stayed there both nights, I don't recommend this as a family hotel, but it looked like the after party guests did enjoyed it so if you're in the area for a wedding or just to party this migth suit your needsMore</t>
   </si>
   <si>
+    <t>Stephanie A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r216717842-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -1470,6 +1629,9 @@
     <t>The rooms were small. The kitchen is decent but with bringing food in, we got ants the first night, which they then had to spray for. The people are very nice and helpful which is the best thing about that hotel. I hated that the rooms aren't cleaned everyday and that I had to ask for towels from the front desk everyday. It wasn't a big deal just an inconvenience especially when your tired and just want to shower and go to bed. The grab and go breakfast was always out of coffee and was very simple with pre-packaged granola bars and muffins. Very simple. There was grocery stores and fast food places to eat at which was a great. Overall I think the price should be a little less for the quality of the room but not a outrageous price.More</t>
   </si>
   <si>
+    <t>Helen M I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r206193664-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -1497,6 +1659,9 @@
     <t>Conveniently located, clean and pleasant. An easy and restful stay. Glendale is close to a lot of very enjoyable LA neighborhoods.  This hotel is less expensive than most and offers full kitchens.  A good valueMore</t>
   </si>
   <si>
+    <t>Nadia W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r205934755-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -1515,6 +1680,9 @@
     <t>Absolutely HORRIBLE. I'm currently in one of their rooms right now and I am so livid that I am spending over $300 on this room! This is the worst hotel I've ever been in, and I would never come back. The walls are so thin that I can hear EVERYTHING from the janitors talking, people turning on the shower, people walking upstairs, the laundry room, etc. I can smell people smoking... And to make it even more annoying, we got placed on the bottom floor in a handicap room so the shower looks like something from a high school boys locker room! If I spent half the price, I wouldn't be complaining. But for the price I paid, I expected something way better than this. I am going to go on EVERY single website they advertise on and write a review about how HORRIBLE AND OVER PRICED this place is.More</t>
   </si>
   <si>
+    <t>D6441DRtraveller</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r204151435-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -1530,6 +1698,9 @@
     <t>seriously....4 of us experienced the existence of ghost in the hallway and inside our rooms in different ocassions this is the first time i experienced ghost in a hotel. this is creepy.i swear! no joke</t>
   </si>
   <si>
+    <t>chaitanya3069</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r195281998-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -1557,6 +1728,9 @@
     <t>I have been there 3 times and was never disappointed. The staff are very friendly and helpful (esp Chris).The hotel is located in a good quiet place, easily accessible to public transport and few good restaurants nearby.This place has a good kitchen which fulfills all the basic cooking needs. Will consider only this hotel when i stay on GlendaleMore</t>
   </si>
   <si>
+    <t>JWBas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r193663975-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -1581,6 +1755,9 @@
     <t>What should have been a joyous trip was marred by a sick child and accomodations that suffered greater maladies.  From no towels on arrival, tracking down towels in the late evening that we had to launder, broken outside access door, accidentally triggered fire alarms by lighting contractors who created messy and impassable hallways.  We will never consider staying in this facility again.More</t>
   </si>
   <si>
+    <t>geoim</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r190101340-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -1605,6 +1782,9 @@
     <t>The hotel is located in a very good location and close to places that we wanted to check in. Staff are outstanding helpful, Specially Evelin @ front desk and Karolin for great house keeping.We definitely will check in again.More</t>
   </si>
   <si>
+    <t>Vicki C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r184015682-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -1632,6 +1812,9 @@
     <t>Very impressed with the Extended Stay America - Los Angeles - Glendale! It exceeded our expectations, beautiful, spacious, affordable and had everything you could possibly want. The staff was excellent! We will ONLY stay here when in Glendale!More</t>
   </si>
   <si>
+    <t>Zareh O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r183958522-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -1650,6 +1833,9 @@
     <t>My wife and I stayed one month at this hotel in Glendale during our recent visit to Los Angeles.  The room was very clean, comfortable, spacious with kitchen facilities that came in handy.  Above all, the staff were very polite, friendly and accommodating.  We recommend them to all who need to be in more then just a room.More</t>
   </si>
   <si>
+    <t>Sfoxx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r182493100-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -1674,6 +1860,9 @@
     <t>This was a great trip experience! I have no complaints! The staff was always helpful and the room was very comfortable for my needs! I stayed here 1 month and the full kitchen, with the stove top and full size fridge, was a great featureMore</t>
   </si>
   <si>
+    <t>sandraa511</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r170628174-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -1699,6 +1888,9 @@
   </si>
   <si>
     <t>nice new name, better than the name Homestead; very clean &amp; neat, newly painted facility; comfortable bed, clean/crisp while linens, large fridge, clean (maybe new) carpet &amp; curtains, nice &amp; clean room &amp; bathroom; very cool a/c not noisy; friendly &amp; accommodating staff; accessible to where i needed to go &amp; at the same time not really on a busy neighborhood nor traffic-congested areaMore</t>
+  </si>
+  <si>
+    <t>Angelina M</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r168668595-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
@@ -1730,6 +1922,9 @@
 Dvin advised us that they only have one night available and suggest that we speak with Holly which is the manager of the hotel and see if she can help us and call another Extended Stay America for our 2nd night stay.  Next morning I spoke to Holly and explained what had happened and Holly was able...It was a mini vacation to take our kids to Universal Studio for their first visit.  I had a reservation at another hotel which we checked in and checked out within 1/2 hour later because we felt the hotel was a fire hazard.  Now we have no hotel to stay at and my husband and I are in our car for two hours calling around to find a hotel we can stay for 2 nights...anywhere in Burbank or Glendale.  Every hotel we called were either sold out or only suites that was available at $300+ a night which was out of our budget.  It was our last call to Extended Stay America in Glendale and I was prepare to hear "sorry sold out", instead a very pleasant gentleman "Dvin" answered the phone and said he has one room available and was within our budget.  After arriving at Extended Stay America past 10pm and telling Dvin what we had gone through and have not had dinner yet, Dvin suggested a restaurant to us and called the restaurant to make sure they were still open.  Dvin advised us that they only have one night available and suggest that we speak with Holly which is the manager of the hotel and see if she can help us and call another Extended Stay America for our 2nd night stay.  Next morning I spoke to Holly and explained what had happened and Holly was able to confirm us for one night stay at their Burbank property.  Thank you Dvin and Holly...a job well done and appreciated.More</t>
   </si>
   <si>
+    <t>Arturixkksks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r168343908-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -1754,6 +1949,9 @@
     <t>Armineh gave me the best customer service, she helped me with anything i needed.About roomsI love them theyre so clean nice remodeled i love the small kitchen. I also liked the morning breakfast. The big parking lot.More</t>
   </si>
   <si>
+    <t>Charlotte T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r158481185-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -1781,6 +1979,9 @@
     <t>We booked 15 rooms for guests coming from the East for our daughter's wedding. Everyone was happy with our choice. The rooms were comfortable, and the staff was incredible - every single one. It was a good experience, and we hope to stay here when we come out to visit once or twice a year. The carpets are a little stained, but that will improve soon since renovations are scheduled to begin next month. Overall, it was a great place to stay.More</t>
   </si>
   <si>
+    <t>Mtraveler55 M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r157265749-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -1802,6 +2003,9 @@
     <t>Hotel ok but we're at the tail end of the furniture in the room- they told us they are going to start renovating at check in. So the furniture is dirty and old and it's going to get noisy and smelly with renovations and we'll probably have to move! THE Pillows are the worst. Go out and buy your own to stay here! Bedding too! Other guests were doing the same! To bad at these prices you shouldn't be stuck with poor quality bedding! Too bad the reservationist on the phone didn't know about the condition of the hotel and the renovations when booking our 60 day reservation!800 extended stay phone reservation is the worst part of the experience. It takes the agent forever to navigate a poorly designed computer system just to locate a room for 30-60 days!More</t>
   </si>
   <si>
+    <t>376KB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r157262142-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -1823,6 +2027,9 @@
     <t>My husband and I stayed here for one week. We think for the price it was an excellent value. We were on the first floor and it was quiet.The kitchen facilities were clean and we supplemented with dish soap and paper towels from the Dollar Store (they are everywhere in LA). Dishes were minimal and only one pot. So if you were really wanting to cook you may want to bring some of your own dishes, or maybe ask at the front desk. A real plus is that why we were close to the freeways we couldn't hear them. It was easy to go in any direction from this location.More</t>
   </si>
   <si>
+    <t>TakashiM_13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r156336270-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -1841,6 +2048,9 @@
     <t>I stay with my students at this hotel in March, we enjoyed here very much. Thank you Armineh and  other staff are very nice to us and listen to us carefully. They also give us nice breakfast and service and I love it very much. I want to come back again here.More</t>
   </si>
   <si>
+    <t>JerryHolden</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r155946442-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -1862,6 +2072,9 @@
     <t>My wife and I came to the Glendale Extended Stay in December of '12 as a temporary living. During our stay, the manager Holly, assistant manager Armenah, and the entire staff has become such good friends to us. I fully recommend that anyone visiting the Glendale area choose this location for short or long-term stay. Thanks folks! ~ Jerry HoldenMore</t>
   </si>
   <si>
+    <t>Shea C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r155624756-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -1878,6 +2091,9 @@
   </si>
   <si>
     <t>My husband and I have been in a temporary living situation since December and have truly enjoyed our stay at the Glendale Extended Stay on Glenoaks Blvd. Holly, Armenah and the staff have been more than helpful so it's a pleasure to see them everyday. We are very happy about our stay here and would recommend Extended Stay to our friends and family. Thank you!~ Shea ChambersMore</t>
+  </si>
+  <si>
+    <t>UmTareq</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r149708889-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
@@ -1915,6 +2131,9 @@
 I would definitely recommend this property to people looking for a place to stay while they are searching for a new home, moving out of a current home, or staying for more than two weeks and do not want to spend more than $100...We got a great price ($99 per night) for a two week reservation.  The location is central to everything in Glendale. The suite contains ample closet space, a king size bed, futon sofa, bathroom with tub, dressing area and full kitchen.  There is also a TV in the room, and wifi and parking are included.  Front desk staff were always more than helpful with print-outs from my email, scans and other business-office services.  Mail was forwarded to this address during my stay and it was always delivered to me promptly.  Staff also helped me with directions on where to go when we first checked in.  Grocery store and pharmacy are nearby, as are hospitals, restaurants and shopping malls. Cleaning service is complimentary once a week.  If you need it more than that there is a fee to pay.  The room comes stocked with amenities such as toilet paper and tissue boxes, as well as clean towels and linens.  There is an iron and ironing board for your use as well.  A garbage disposal is located on each floor, and there is a laundry room with several washers / dryers (for a fee) on the ground floor. I would definitely recommend this property to people looking for a place to stay while they are searching for a new home, moving out of a current home, or staying for more than two weeks and do not want to spend more than $100 per night on a hotel.More</t>
   </si>
   <si>
+    <t>Manny J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r149185581-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -1942,6 +2161,9 @@
     <t>I had multiple issues during my trip, but the staff was quick to respond and fix all of them. I stayed here to go to the rose bowl, my family and I came from Oklahoma and we stayed for over a week. The staff was full of information on places to visit and places to eat. I was told the breakfast had not arrived, but was very suprised to see it there the next day. When I questioned this the guy at the front desk told me that the manager had gone out and gotten it. The last two nights of my stay we had an insane nieghbor who was yelling and trying to get into other rooms, I called the desk and a man came up to talk to this person. The person was screaming and yelling at him accusing him of being racial and yelling at all who passed by that the place was horrible and there were bugs in her bed! The poor guy, remained calm and talked the insane lady back into her room. I commend him on this, it took everything in me and my wife to not intrude on the situation! The rest of the night was quite, we were shocked to see this same lady yelling at a lady in the front the very next morning. Come to find out it was the manager, she as well remained calm and asked the insane...I had multiple issues during my trip, but the staff was quick to respond and fix all of them. I stayed here to go to the rose bowl, my family and I came from Oklahoma and we stayed for over a week. The staff was full of information on places to visit and places to eat. I was told the breakfast had not arrived, but was very suprised to see it there the next day. When I questioned this the guy at the front desk told me that the manager had gone out and gotten it. The last two nights of my stay we had an insane nieghbor who was yelling and trying to get into other rooms, I called the desk and a man came up to talk to this person. The person was screaming and yelling at him accusing him of being racial and yelling at all who passed by that the place was horrible and there were bugs in her bed! The poor guy, remained calm and talked the insane lady back into her room. I commend him on this, it took everything in me and my wife to not intrude on the situation! The rest of the night was quite, we were shocked to see this same lady yelling at a lady in the front the very next morning. Come to find out it was the manager, she as well remained calm and asked the insane lady to please leave the premises. Me and my family left for the day and when we returned that evening we stopped at the front to inquire on whether we would be having the same issue that night. The manager was there and ensured us that we would not be having that problem again, she was very apologetic and even offered a discount on our room. The professionalism of the staff astonished me! My family and I will come to stay here again if we decide to attend the rose bowl next year.More</t>
   </si>
   <si>
+    <t>MSLAMT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r148979253-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -1966,6 +2188,9 @@
     <t>We stayed here last year when the building was still quite new and were pleased with the accomodations, especially for the price.  I wish it had an exercise room though, just a bike and a few weights would be great.  This year, the building is showing its age and lack of maintenance.  The closet door was damaged and off track, the mirror wasn't cleaned, personal items from the previous tenant were found in the shower and under the bed,  there were minimal utensils and cooking equipment in the kitchen, no oven, not enough dish soap,  the can opener was so flimsy that my can bended it, There was no breakfast one morning, because it was a holiday.  On the  upside, the staff is friendly and the location is relatively quiet.  I didn't notice any noise from neighbors, no water running in pipes when people flush, etc.  I hope management puts some effort into keeping up the hotel or it will become run-down.More</t>
   </si>
   <si>
+    <t>Nomad422</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r141580372-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -1993,6 +2218,9 @@
     <t>The room was generally clean, although the hallway could do with some better lighting and perhaps improved flooring.  Found that the bed mattress sagged a bit in the center. The kitchenette was functional.  Staff was friendly and helpful and the grab-and-go breakfast was fine (coffee, muffins, instant oatmeal, fruit).  Free parking.  Several restaurants and shops close by to stock up.  Decent value for the price.More</t>
   </si>
   <si>
+    <t>gr8whtshrk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r137313689-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -2017,6 +2245,9 @@
     <t>The wife and I and ourtwo kids went to this place for the night because the kids had a swim meet at the LA 84 Pool in L.A.and we had to be there no later than 7 am. We made reservations for a double King  bed room. When we got there  we were told that our month old reservation has a problem. They didnt have the room type we reserved because they were sold out. However, they told us they would give us 2 queen bed rooms due to the mix up and comp the second room. Now I dont know if I am being too sensitive, but why would I want to split the family up into 2 rooms that werent even ajoined. Needless to say, we finally agreed. and an adult and a child went to each room. The room was fairly clean and dated. The caulking in the tub was horrible. We watched a little tv to unwind.(We had to get up early to get the kids breakfast and to drive 20 or so minutes) But thats when the show started. Yelling and screaming from some guests down the hall and doors slamming. Not just once but all through the night. I called the front desk but noone was at the desk at night. Just a sign that in a nutshell says "see ya in the morning" we got up and got our things to go. The...The wife and I and ourtwo kids went to this place for the night because the kids had a swim meet at the LA 84 Pool in L.A.and we had to be there no later than 7 am. We made reservations for a double King  bed room. When we got there  we were told that our month old reservation has a problem. They didnt have the room type we reserved because they were sold out. However, they told us they would give us 2 queen bed rooms due to the mix up and comp the second room. Now I dont know if I am being too sensitive, but why would I want to split the family up into 2 rooms that werent even ajoined. Needless to say, we finally agreed. and an adult and a child went to each room. The room was fairly clean and dated. The caulking in the tub was horrible. We watched a little tv to unwind.(We had to get up early to get the kids breakfast and to drive 20 or so minutes) But thats when the show started. Yelling and screaming from some guests down the hall and doors slamming. Not just once but all through the night. I called the front desk but noone was at the desk at night. Just a sign that in a nutshell says "see ya in the morning" we got up and got our things to go. The rancid stench of vomit filled the air once we hit the hallway. I almost puked myself. I would never stay here again. Brandon at the front desk was quite pleasant, had good customer service skills and should consider looking for another job at a better place.More</t>
   </si>
   <si>
+    <t>Svenja P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r136296776-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -2044,6 +2275,9 @@
     <t>We stayed 4 Weeks in one of the appartments. The rooms are clean and nice. It is nothing special but you have a small kitchen, a clean bathroom and a bed. The stuff in the Hotel is very helpful, nice and friedly. The parkinglot is big enough so you get always a place for your car. Once we had a problem with our AC. The carpet in front of the AC was so wet. We told the Stuff but nobody was able to fix the AC. So they gave as a new room. They have no breakfast there, but in the morning you can get Coffee,Tea, Muffins and Fruits in the Lobby. If this place would have a Pool it would be prefect for a longer stay in LA.More</t>
   </si>
   <si>
+    <t>Cheryl103</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r131056336-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -2071,6 +2305,9 @@
     <t>Four nights with my husband and my mom to visit our nearby daughter.  Room was clean; the kitchen was quite basic/adequate; however, when we requested a frying pan &amp; spatula, we immediately were handed these.  No problem turning in towels and receiving fresh ones - just don't expect service.  When we first arrived, our assigned room was quite a far walk from the elevator.  Because of my elderly mom, I asked if we might change to a room closer to the elevator; within minutes, our wish was granted.  The staff was very pleasant and helpful.More</t>
   </si>
   <si>
+    <t>katie2004</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r130274020-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -2089,6 +2326,9 @@
     <t>I stayed here with my mom and daughter for four nights. We arrived late the first night. The entire carpet was damp, and the room smelled -- like wet carpet. The front desk person said there were no other rooms, so we stayed but were moved the next morning. Apparently, someone had washed the carpet that day, which is a bit odd considering guests were coming that night. Anyway, the new room was just fine and met our needs. Front-desk staff was excellent. Not having housekeeping come in every day and exchanging our own towels took a bit of getting used to, but it is, after all, extended-stay lodging. The kitchen was adequate, although we ended up not using anything other than some bowls and spoons for cereal. Someone should have picked up the trash that was dumped on the ground outside, and empty the exterior trash can, but the interior was fine.I completed a survey after we got back and mentioned the carpet experience. The manager was nice enough to credit us back for that night. I would come back here.More</t>
   </si>
   <si>
+    <t>Vahagn K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r126773881-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -2107,6 +2347,9 @@
     <t>March 2012</t>
   </si>
   <si>
+    <t>PersonintheVicinity</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r125133380-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
   </si>
   <si>
@@ -2123,6 +2366,9 @@
   </si>
   <si>
     <t>February 2012</t>
+  </si>
+  <si>
+    <t>claud09</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r125085826-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
@@ -2151,6 +2397,9 @@
 Wi-fi is free, but slow.  Try streaming a tv show on your laptop and you'll never finish watching it.
 While I wouldn't call these accommodations 4 star, they're probably 2.5 - 3 star.  But the real reason why this hotel isn't "falling apart" to me, is the staff.  Every single staff member I've spoken to has been patient and nice, and willing to help.  Even investigate changes in payment instead of just telling you they have "no idea".  They're the ones that really make this hotel liveable.  Because otherwise, my first look at the peeling wallpaper and first whiff of the elevator, and I would've been running for the hills.
 So yeah, stay here if you...I might be spoiled by the fancy hotels of Las Vegas, or spoiled as a native Los Angeleno in the first place, but I really can't complain about the Homestead.  Our house was undergoing some last minute, urgent repairs, and we stayed here.  It's not your swanky hotel, but it's got what you need for a week (or two)--two burners, a full size--clean!--refrigerator, microwave, coffee maker, clean tub, towels.  When I walked into my room, i noticed a slight smell, but after keeping the air conditioning on, it's pretty much gone away.The bed is relatively comfortable.  Nothing too fancy, nothing hostel-like.While I stayed, they changed out all the old school television sets and replaced them with 32" LG flat screens.  Nice upgrade.Wi-fi is free, but slow.  Try streaming a tv show on your laptop and you'll never finish watching it.While I wouldn't call these accommodations 4 star, they're probably 2.5 - 3 star.  But the real reason why this hotel isn't "falling apart" to me, is the staff.  Every single staff member I've spoken to has been patient and nice, and willing to help.  Even investigate changes in payment instead of just telling you they have "no idea".  They're the ones that really make this hotel liveable.  Because otherwise, my first look at the peeling wallpaper and first whiff of the elevator, and I would've been running for the hills.So yeah, stay here if you have to.  It won't kill you.More</t>
+  </si>
+  <si>
+    <t>AnneMelodini</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32431-d217244-r124981854-Extended_Stay_America_Los_Angeles_Glendale-Glendale_California.html</t>
@@ -2673,43 +2922,47 @@
       <c r="A2" t="n">
         <v>36368</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>146275</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2721,56 +2974,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>36368</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>146276</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -2788,56 +3045,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>36368</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>146277</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="n">
         <v>2</v>
@@ -2859,56 +3120,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>36368</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>146278</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>4</v>
@@ -2930,56 +3195,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>36368</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>74806</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -3001,56 +3270,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="X6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Y6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>36368</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>146279</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P7" t="n">
         <v>3</v>
@@ -3072,56 +3345,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="X7" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>36368</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>142910</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="O8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -3143,56 +3420,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>36368</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>146280</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="O9" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -3214,56 +3495,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="X9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="Y9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>36368</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>146281</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="L10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -3285,56 +3570,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="X10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="Y10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>36368</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>146282</v>
+      </c>
+      <c r="C11" t="s">
+        <v>135</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="J11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="K11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="L11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="O11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3346,56 +3635,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="X11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="Y11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>36368</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>146283</v>
+      </c>
+      <c r="C12" t="s">
+        <v>146</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="J12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="O12" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -3413,56 +3706,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="X12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="Y12" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>36368</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>146284</v>
+      </c>
+      <c r="C13" t="s">
+        <v>156</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="J13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="K13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="O13" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3474,56 +3771,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="X13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="Y13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>36368</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>151</v>
+      </c>
+      <c r="C14" t="s">
+        <v>165</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="J14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="K14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="O14" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3535,56 +3836,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="X14" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="Y14" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>36368</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>146285</v>
+      </c>
+      <c r="C15" t="s">
+        <v>175</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="J15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="K15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="O15" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -3606,56 +3911,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="X15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="Y15" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>36368</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>146286</v>
+      </c>
+      <c r="C16" t="s">
+        <v>184</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
+        <v>186</v>
+      </c>
+      <c r="J16" t="s">
+        <v>187</v>
+      </c>
+      <c r="K16" t="s">
+        <v>188</v>
+      </c>
+      <c r="L16" t="s">
+        <v>189</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>171</v>
       </c>
-      <c r="J16" t="s">
-        <v>172</v>
-      </c>
-      <c r="K16" t="s">
-        <v>173</v>
-      </c>
-      <c r="L16" t="s">
-        <v>174</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>158</v>
-      </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -3677,56 +3986,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="X16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="Y16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>36368</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>146287</v>
+      </c>
+      <c r="C17" t="s">
+        <v>193</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="J17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="K17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="L17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="O17" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -3748,56 +4061,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="X17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="Y17" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>36368</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>146288</v>
+      </c>
+      <c r="C18" t="s">
+        <v>203</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="J18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="K18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="L18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="O18" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -3819,56 +4136,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="X18" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="Y18" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>36368</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>146289</v>
+      </c>
+      <c r="C19" t="s">
+        <v>212</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="J19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="K19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="L19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -3890,56 +4211,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="X19" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="Y19" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>36368</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>146290</v>
+      </c>
+      <c r="C20" t="s">
+        <v>221</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="J20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="K20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="L20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3955,56 +4280,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="X20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="Y20" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>36368</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>146291</v>
+      </c>
+      <c r="C21" t="s">
+        <v>230</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="J21" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="K21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="L21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="O21" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -4026,56 +4355,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="X21" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="Y21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>36368</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>146292</v>
+      </c>
+      <c r="C22" t="s">
+        <v>236</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="J22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="K22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="L22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="O22" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -4093,56 +4426,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="X22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="Y22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>36368</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>146293</v>
+      </c>
+      <c r="C23" t="s">
+        <v>246</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="J23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="K23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="L23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4160,56 +4497,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="X23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="Y23" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>36368</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>146294</v>
+      </c>
+      <c r="C24" t="s">
+        <v>256</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="J24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="K24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="L24" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4221,56 +4562,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="X24" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="Y24" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>36368</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>146295</v>
+      </c>
+      <c r="C25" t="s">
+        <v>266</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="J25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="K25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="L25" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="O25" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -4288,56 +4633,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="X25" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="Y25" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>36368</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>146296</v>
+      </c>
+      <c r="C26" t="s">
+        <v>275</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="J26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="K26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="L26" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -4353,56 +4702,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="X26" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="Y26" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>36368</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>146297</v>
+      </c>
+      <c r="C27" t="s">
+        <v>285</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="J27" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="K27" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="L27" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="O27" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4420,56 +4773,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="X27" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="Y27" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>36368</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>1644</v>
+      </c>
+      <c r="C28" t="s">
+        <v>295</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="J28" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="K28" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="L28" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="O28" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="n">
@@ -4487,56 +4844,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="X28" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="Y28" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>36368</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>146298</v>
+      </c>
+      <c r="C29" t="s">
+        <v>302</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="J29" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="K29" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="L29" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4548,56 +4909,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="X29" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="Y29" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>36368</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>146299</v>
+      </c>
+      <c r="C30" t="s">
+        <v>311</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="J30" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="K30" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="L30" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -4615,56 +4980,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="X30" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="Y30" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>36368</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>146300</v>
+      </c>
+      <c r="C31" t="s">
+        <v>321</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="J31" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="K31" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="L31" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4676,56 +5045,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="X31" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="Y31" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>36368</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>146301</v>
+      </c>
+      <c r="C32" t="s">
+        <v>330</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>301</v>
+        <v>332</v>
       </c>
       <c r="J32" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="K32" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="L32" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>1</v>
@@ -4743,56 +5116,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="X32" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="Y32" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>36368</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>146302</v>
+      </c>
+      <c r="C33" t="s">
+        <v>339</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="J33" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="K33" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="L33" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -4810,56 +5187,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="X33" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="Y33" t="s">
-        <v>316</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>36368</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>146303</v>
+      </c>
+      <c r="C34" t="s">
+        <v>349</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="J34" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="K34" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
       <c r="L34" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="O34" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
@@ -4879,50 +5260,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>36368</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>146304</v>
+      </c>
+      <c r="C35" t="s">
+        <v>355</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="J35" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="K35" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
       <c r="L35" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="M35" t="n">
         <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="O35" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4938,56 +5323,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="X35" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="Y35" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>36368</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>146305</v>
+      </c>
+      <c r="C36" t="s">
+        <v>365</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="J36" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="K36" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="L36" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -5005,56 +5394,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="X36" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
       <c r="Y36" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>36368</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>146306</v>
+      </c>
+      <c r="C37" t="s">
+        <v>371</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="J37" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="K37" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="L37" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -5072,56 +5465,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="X37" t="s">
-        <v>343</v>
+        <v>379</v>
       </c>
       <c r="Y37" t="s">
-        <v>344</v>
+        <v>380</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>36368</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>14909</v>
+      </c>
+      <c r="C38" t="s">
+        <v>381</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="J38" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="K38" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="L38" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="O38" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="n">
@@ -5139,56 +5536,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="X38" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="Y38" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>36368</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>146307</v>
+      </c>
+      <c r="C39" t="s">
+        <v>391</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="J39" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="K39" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="L39" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="O39" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5204,56 +5605,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="X39" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="Y39" t="s">
-        <v>361</v>
+        <v>399</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>36368</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>43901</v>
+      </c>
+      <c r="C40" t="s">
+        <v>400</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="J40" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="K40" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="L40" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="M40" t="n">
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5265,56 +5670,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="X40" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
       <c r="Y40" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>36368</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>146308</v>
+      </c>
+      <c r="C41" t="s">
+        <v>407</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="J41" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="K41" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="L41" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="O41" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5326,56 +5735,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="X41" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="Y41" t="s">
-        <v>376</v>
+        <v>416</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>36368</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>146309</v>
+      </c>
+      <c r="C42" t="s">
+        <v>417</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="J42" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="K42" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="L42" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
@@ -5391,56 +5804,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="X42" t="s">
-        <v>375</v>
+        <v>415</v>
       </c>
       <c r="Y42" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>36368</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>146310</v>
+      </c>
+      <c r="C43" t="s">
+        <v>424</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="J43" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="K43" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="L43" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="n">
@@ -5458,56 +5875,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>389</v>
+        <v>431</v>
       </c>
       <c r="X43" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="Y43" t="s">
-        <v>391</v>
+        <v>433</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>36368</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>146311</v>
+      </c>
+      <c r="C44" t="s">
+        <v>434</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="J44" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="K44" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="L44" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="O44" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -5527,50 +5948,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>36368</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>146312</v>
+      </c>
+      <c r="C45" t="s">
+        <v>442</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="J45" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="K45" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="L45" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
       <c r="O45" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -5588,50 +6013,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>36368</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>146313</v>
+      </c>
+      <c r="C46" t="s">
+        <v>449</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>406</v>
+        <v>451</v>
       </c>
       <c r="J46" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="K46" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="L46" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="O46" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="n">
@@ -5651,50 +6080,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>36368</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>146314</v>
+      </c>
+      <c r="C47" t="s">
+        <v>456</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>411</v>
+        <v>457</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>412</v>
+        <v>458</v>
       </c>
       <c r="J47" t="s">
-        <v>413</v>
+        <v>459</v>
       </c>
       <c r="K47" t="s">
-        <v>414</v>
+        <v>460</v>
       </c>
       <c r="L47" t="s">
-        <v>415</v>
+        <v>461</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="n">
         <v>3</v>
@@ -5710,56 +6143,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>417</v>
+        <v>463</v>
       </c>
       <c r="X47" t="s">
-        <v>418</v>
+        <v>464</v>
       </c>
       <c r="Y47" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>36368</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>146315</v>
+      </c>
+      <c r="C48" t="s">
+        <v>466</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>421</v>
+        <v>468</v>
       </c>
       <c r="J48" t="s">
-        <v>422</v>
+        <v>469</v>
       </c>
       <c r="K48" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="L48" t="s">
-        <v>424</v>
+        <v>471</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>425</v>
+        <v>472</v>
       </c>
       <c r="O48" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5777,56 +6214,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="X48" t="s">
-        <v>427</v>
+        <v>474</v>
       </c>
       <c r="Y48" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>36368</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>146295</v>
+      </c>
+      <c r="C49" t="s">
+        <v>275</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>429</v>
+        <v>476</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
       <c r="J49" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
       <c r="K49" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
       <c r="L49" t="s">
-        <v>433</v>
+        <v>480</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -5844,56 +6285,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>434</v>
+        <v>481</v>
       </c>
       <c r="X49" t="s">
-        <v>435</v>
+        <v>482</v>
       </c>
       <c r="Y49" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>36368</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>146316</v>
+      </c>
+      <c r="C50" t="s">
+        <v>484</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>438</v>
+        <v>486</v>
       </c>
       <c r="J50" t="s">
-        <v>439</v>
+        <v>487</v>
       </c>
       <c r="K50" t="s">
-        <v>440</v>
+        <v>488</v>
       </c>
       <c r="L50" t="s">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>442</v>
+        <v>490</v>
       </c>
       <c r="O50" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5905,56 +6350,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>443</v>
+        <v>491</v>
       </c>
       <c r="X50" t="s">
-        <v>444</v>
+        <v>492</v>
       </c>
       <c r="Y50" t="s">
-        <v>445</v>
+        <v>493</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>36368</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>146317</v>
+      </c>
+      <c r="C51" t="s">
+        <v>494</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="J51" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
       <c r="K51" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="L51" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="n">
@@ -5972,56 +6421,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="X51" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
       <c r="Y51" t="s">
-        <v>454</v>
+        <v>503</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>36368</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>146318</v>
+      </c>
+      <c r="C52" t="s">
+        <v>504</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>455</v>
+        <v>505</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="J52" t="s">
-        <v>457</v>
+        <v>507</v>
       </c>
       <c r="K52" t="s">
-        <v>458</v>
+        <v>508</v>
       </c>
       <c r="L52" t="s">
-        <v>459</v>
+        <v>509</v>
       </c>
       <c r="M52" t="n">
         <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>442</v>
+        <v>490</v>
       </c>
       <c r="O52" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -6041,50 +6494,54 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>460</v>
+        <v>510</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>36368</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>146319</v>
+      </c>
+      <c r="C53" t="s">
+        <v>511</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>461</v>
+        <v>512</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="J53" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="K53" t="s">
-        <v>464</v>
+        <v>515</v>
       </c>
       <c r="L53" t="s">
-        <v>465</v>
+        <v>516</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>466</v>
+        <v>517</v>
       </c>
       <c r="O53" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="P53" t="n">
         <v>3</v>
@@ -6100,47 +6557,51 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>467</v>
+        <v>518</v>
       </c>
       <c r="X53" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
       <c r="Y53" t="s">
-        <v>469</v>
+        <v>520</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>36368</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>139366</v>
+      </c>
+      <c r="C54" t="s">
+        <v>521</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
       <c r="J54" t="s">
-        <v>472</v>
+        <v>524</v>
       </c>
       <c r="K54" t="s">
-        <v>473</v>
+        <v>525</v>
       </c>
       <c r="L54" t="s">
-        <v>474</v>
+        <v>526</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
@@ -6159,50 +6620,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>475</v>
+        <v>527</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>36368</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>25599</v>
+      </c>
+      <c r="C55" t="s">
+        <v>528</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>476</v>
+        <v>529</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>477</v>
+        <v>530</v>
       </c>
       <c r="J55" t="s">
-        <v>478</v>
+        <v>531</v>
       </c>
       <c r="K55" t="s">
-        <v>479</v>
+        <v>532</v>
       </c>
       <c r="L55" t="s">
-        <v>480</v>
+        <v>533</v>
       </c>
       <c r="M55" t="n">
         <v>3</v>
       </c>
       <c r="N55" t="s">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="n">
@@ -6222,50 +6687,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>481</v>
+        <v>534</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>36368</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>146320</v>
+      </c>
+      <c r="C56" t="s">
+        <v>535</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>482</v>
+        <v>536</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>483</v>
+        <v>537</v>
       </c>
       <c r="J56" t="s">
-        <v>484</v>
+        <v>538</v>
       </c>
       <c r="K56" t="s">
-        <v>485</v>
+        <v>539</v>
       </c>
       <c r="L56" t="s">
-        <v>486</v>
+        <v>540</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>487</v>
+        <v>541</v>
       </c>
       <c r="O56" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -6287,47 +6756,51 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>488</v>
+        <v>542</v>
       </c>
       <c r="X56" t="s">
-        <v>489</v>
+        <v>543</v>
       </c>
       <c r="Y56" t="s">
-        <v>490</v>
+        <v>544</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>36368</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>146321</v>
+      </c>
+      <c r="C57" t="s">
+        <v>545</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="J57" t="s">
-        <v>493</v>
+        <v>548</v>
       </c>
       <c r="K57" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="L57" t="s">
-        <v>495</v>
+        <v>550</v>
       </c>
       <c r="M57" t="n">
         <v>1</v>
@@ -6354,56 +6827,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>488</v>
+        <v>542</v>
       </c>
       <c r="X57" t="s">
-        <v>489</v>
+        <v>543</v>
       </c>
       <c r="Y57" t="s">
-        <v>496</v>
+        <v>551</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>36368</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>146322</v>
+      </c>
+      <c r="C58" t="s">
+        <v>552</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>497</v>
+        <v>553</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="J58" t="s">
-        <v>499</v>
+        <v>555</v>
       </c>
       <c r="K58" t="s">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="L58" t="s">
-        <v>501</v>
+        <v>557</v>
       </c>
       <c r="M58" t="n">
         <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>3</v>
@@ -6427,50 +6904,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>501</v>
+        <v>557</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>36368</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>146323</v>
+      </c>
+      <c r="C59" t="s">
+        <v>558</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>503</v>
+        <v>560</v>
       </c>
       <c r="J59" t="s">
-        <v>504</v>
+        <v>561</v>
       </c>
       <c r="K59" t="s">
-        <v>505</v>
+        <v>562</v>
       </c>
       <c r="L59" t="s">
-        <v>506</v>
+        <v>563</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>507</v>
+        <v>564</v>
       </c>
       <c r="O59" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -6482,47 +6963,51 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>508</v>
+        <v>565</v>
       </c>
       <c r="X59" t="s">
-        <v>509</v>
+        <v>566</v>
       </c>
       <c r="Y59" t="s">
-        <v>510</v>
+        <v>567</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>36368</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>146324</v>
+      </c>
+      <c r="C60" t="s">
+        <v>568</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>511</v>
+        <v>569</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>512</v>
+        <v>570</v>
       </c>
       <c r="J60" t="s">
-        <v>513</v>
+        <v>571</v>
       </c>
       <c r="K60" t="s">
-        <v>514</v>
+        <v>572</v>
       </c>
       <c r="L60" t="s">
-        <v>515</v>
+        <v>573</v>
       </c>
       <c r="M60" t="n">
         <v>1</v>
@@ -6549,56 +7034,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>516</v>
+        <v>574</v>
       </c>
       <c r="X60" t="s">
-        <v>517</v>
+        <v>575</v>
       </c>
       <c r="Y60" t="s">
-        <v>518</v>
+        <v>576</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>36368</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>146325</v>
+      </c>
+      <c r="C61" t="s">
+        <v>577</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>519</v>
+        <v>578</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>520</v>
+        <v>579</v>
       </c>
       <c r="J61" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
       <c r="K61" t="s">
-        <v>522</v>
+        <v>581</v>
       </c>
       <c r="L61" t="s">
-        <v>523</v>
+        <v>582</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>507</v>
+        <v>564</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>3</v>
@@ -6620,56 +7109,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>524</v>
+        <v>583</v>
       </c>
       <c r="X61" t="s">
-        <v>525</v>
+        <v>584</v>
       </c>
       <c r="Y61" t="s">
-        <v>526</v>
+        <v>585</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>36368</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>45960</v>
+      </c>
+      <c r="C62" t="s">
+        <v>586</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>527</v>
+        <v>587</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>528</v>
+        <v>588</v>
       </c>
       <c r="J62" t="s">
-        <v>529</v>
+        <v>589</v>
       </c>
       <c r="K62" t="s">
-        <v>530</v>
+        <v>590</v>
       </c>
       <c r="L62" t="s">
-        <v>531</v>
+        <v>591</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>532</v>
+        <v>592</v>
       </c>
       <c r="O62" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6691,56 +7184,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>533</v>
+        <v>593</v>
       </c>
       <c r="X62" t="s">
-        <v>534</v>
+        <v>594</v>
       </c>
       <c r="Y62" t="s">
-        <v>535</v>
+        <v>595</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>36368</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>146326</v>
+      </c>
+      <c r="C63" t="s">
+        <v>596</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>536</v>
+        <v>597</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>537</v>
+        <v>598</v>
       </c>
       <c r="J63" t="s">
-        <v>529</v>
+        <v>589</v>
       </c>
       <c r="K63" t="s">
-        <v>538</v>
+        <v>599</v>
       </c>
       <c r="L63" t="s">
-        <v>539</v>
+        <v>600</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>540</v>
+        <v>601</v>
       </c>
       <c r="O63" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -6762,47 +7259,51 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>533</v>
+        <v>593</v>
       </c>
       <c r="X63" t="s">
-        <v>534</v>
+        <v>594</v>
       </c>
       <c r="Y63" t="s">
-        <v>541</v>
+        <v>602</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>36368</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>146327</v>
+      </c>
+      <c r="C64" t="s">
+        <v>603</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>542</v>
+        <v>604</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>543</v>
+        <v>605</v>
       </c>
       <c r="J64" t="s">
-        <v>544</v>
+        <v>606</v>
       </c>
       <c r="K64" t="s">
-        <v>545</v>
+        <v>607</v>
       </c>
       <c r="L64" t="s">
-        <v>546</v>
+        <v>608</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
@@ -6829,56 +7330,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>547</v>
+        <v>609</v>
       </c>
       <c r="X64" t="s">
-        <v>548</v>
+        <v>610</v>
       </c>
       <c r="Y64" t="s">
-        <v>549</v>
+        <v>611</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>36368</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>146328</v>
+      </c>
+      <c r="C65" t="s">
+        <v>612</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>550</v>
+        <v>613</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>551</v>
+        <v>614</v>
       </c>
       <c r="J65" t="s">
-        <v>552</v>
+        <v>615</v>
       </c>
       <c r="K65" t="s">
-        <v>553</v>
+        <v>616</v>
       </c>
       <c r="L65" t="s">
-        <v>554</v>
+        <v>617</v>
       </c>
       <c r="M65" t="n">
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>555</v>
+        <v>618</v>
       </c>
       <c r="O65" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6900,56 +7405,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>556</v>
+        <v>619</v>
       </c>
       <c r="X65" t="s">
-        <v>557</v>
+        <v>620</v>
       </c>
       <c r="Y65" t="s">
-        <v>558</v>
+        <v>621</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>36368</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>44537</v>
+      </c>
+      <c r="C66" t="s">
+        <v>622</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>559</v>
+        <v>623</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>560</v>
+        <v>624</v>
       </c>
       <c r="J66" t="s">
-        <v>561</v>
+        <v>625</v>
       </c>
       <c r="K66" t="s">
-        <v>562</v>
+        <v>626</v>
       </c>
       <c r="L66" t="s">
-        <v>563</v>
+        <v>627</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>564</v>
+        <v>628</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -6971,47 +7480,51 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>565</v>
+        <v>629</v>
       </c>
       <c r="X66" t="s">
-        <v>566</v>
+        <v>630</v>
       </c>
       <c r="Y66" t="s">
-        <v>567</v>
+        <v>631</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>36368</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>146329</v>
+      </c>
+      <c r="C67" t="s">
+        <v>632</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>568</v>
+        <v>633</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>569</v>
+        <v>634</v>
       </c>
       <c r="J67" t="s">
-        <v>570</v>
+        <v>635</v>
       </c>
       <c r="K67" t="s">
-        <v>571</v>
+        <v>636</v>
       </c>
       <c r="L67" t="s">
-        <v>572</v>
+        <v>637</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
@@ -7038,56 +7551,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>573</v>
+        <v>638</v>
       </c>
       <c r="X67" t="s">
-        <v>574</v>
+        <v>639</v>
       </c>
       <c r="Y67" t="s">
-        <v>575</v>
+        <v>640</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>36368</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>3045</v>
+      </c>
+      <c r="C68" t="s">
+        <v>641</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>576</v>
+        <v>642</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>577</v>
+        <v>643</v>
       </c>
       <c r="J68" t="s">
-        <v>578</v>
+        <v>644</v>
       </c>
       <c r="K68" t="s">
-        <v>579</v>
+        <v>645</v>
       </c>
       <c r="L68" t="s">
-        <v>580</v>
+        <v>646</v>
       </c>
       <c r="M68" t="n">
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>581</v>
+        <v>647</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -7109,56 +7626,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>582</v>
+        <v>648</v>
       </c>
       <c r="X68" t="s">
-        <v>583</v>
+        <v>649</v>
       </c>
       <c r="Y68" t="s">
-        <v>584</v>
+        <v>650</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>36368</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>146330</v>
+      </c>
+      <c r="C69" t="s">
+        <v>651</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>585</v>
+        <v>652</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>586</v>
+        <v>653</v>
       </c>
       <c r="J69" t="s">
-        <v>587</v>
+        <v>654</v>
       </c>
       <c r="K69" t="s">
-        <v>588</v>
+        <v>655</v>
       </c>
       <c r="L69" t="s">
-        <v>589</v>
+        <v>656</v>
       </c>
       <c r="M69" t="n">
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>590</v>
+        <v>657</v>
       </c>
       <c r="O69" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P69" t="n">
         <v>2</v>
@@ -7182,50 +7703,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>591</v>
+        <v>658</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>36368</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>146331</v>
+      </c>
+      <c r="C70" t="s">
+        <v>659</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>592</v>
+        <v>660</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>593</v>
+        <v>661</v>
       </c>
       <c r="J70" t="s">
-        <v>587</v>
+        <v>654</v>
       </c>
       <c r="K70" t="s">
-        <v>594</v>
+        <v>662</v>
       </c>
       <c r="L70" t="s">
-        <v>595</v>
+        <v>663</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>590</v>
+        <v>657</v>
       </c>
       <c r="O70" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7247,56 +7772,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>596</v>
+        <v>664</v>
       </c>
       <c r="X70" t="s">
-        <v>597</v>
+        <v>665</v>
       </c>
       <c r="Y70" t="s">
-        <v>598</v>
+        <v>666</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>36368</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>146332</v>
+      </c>
+      <c r="C71" t="s">
+        <v>667</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>599</v>
+        <v>668</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>600</v>
+        <v>669</v>
       </c>
       <c r="J71" t="s">
-        <v>601</v>
+        <v>670</v>
       </c>
       <c r="K71" t="s">
-        <v>602</v>
+        <v>671</v>
       </c>
       <c r="L71" t="s">
-        <v>603</v>
+        <v>672</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>590</v>
+        <v>657</v>
       </c>
       <c r="O71" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7318,56 +7847,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>596</v>
+        <v>664</v>
       </c>
       <c r="X71" t="s">
-        <v>597</v>
+        <v>665</v>
       </c>
       <c r="Y71" t="s">
-        <v>604</v>
+        <v>673</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>36368</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>146333</v>
+      </c>
+      <c r="C72" t="s">
+        <v>674</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>605</v>
+        <v>675</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>606</v>
+        <v>676</v>
       </c>
       <c r="J72" t="s">
-        <v>607</v>
+        <v>677</v>
       </c>
       <c r="K72" t="s">
-        <v>608</v>
+        <v>678</v>
       </c>
       <c r="L72" t="s">
-        <v>609</v>
+        <v>679</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>610</v>
+        <v>680</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7389,56 +7922,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>596</v>
+        <v>664</v>
       </c>
       <c r="X72" t="s">
-        <v>597</v>
+        <v>665</v>
       </c>
       <c r="Y72" t="s">
-        <v>611</v>
+        <v>681</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>36368</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>146334</v>
+      </c>
+      <c r="C73" t="s">
+        <v>682</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>612</v>
+        <v>683</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>613</v>
+        <v>684</v>
       </c>
       <c r="J73" t="s">
-        <v>614</v>
+        <v>685</v>
       </c>
       <c r="K73" t="s">
-        <v>615</v>
+        <v>686</v>
       </c>
       <c r="L73" t="s">
-        <v>616</v>
+        <v>687</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>610</v>
+        <v>680</v>
       </c>
       <c r="O73" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7460,56 +7997,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>596</v>
+        <v>664</v>
       </c>
       <c r="X73" t="s">
-        <v>597</v>
+        <v>665</v>
       </c>
       <c r="Y73" t="s">
-        <v>617</v>
+        <v>688</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>36368</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>146335</v>
+      </c>
+      <c r="C74" t="s">
+        <v>689</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>618</v>
+        <v>690</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>619</v>
+        <v>691</v>
       </c>
       <c r="J74" t="s">
-        <v>620</v>
+        <v>692</v>
       </c>
       <c r="K74" t="s">
-        <v>621</v>
+        <v>693</v>
       </c>
       <c r="L74" t="s">
-        <v>622</v>
+        <v>694</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>623</v>
+        <v>695</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>4</v>
@@ -7531,56 +8072,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>624</v>
+        <v>696</v>
       </c>
       <c r="X74" t="s">
-        <v>625</v>
+        <v>697</v>
       </c>
       <c r="Y74" t="s">
-        <v>626</v>
+        <v>698</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>36368</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>146336</v>
+      </c>
+      <c r="C75" t="s">
+        <v>699</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>627</v>
+        <v>700</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>628</v>
+        <v>701</v>
       </c>
       <c r="J75" t="s">
-        <v>629</v>
+        <v>702</v>
       </c>
       <c r="K75" t="s">
-        <v>630</v>
+        <v>703</v>
       </c>
       <c r="L75" t="s">
-        <v>631</v>
+        <v>704</v>
       </c>
       <c r="M75" t="n">
         <v>5</v>
       </c>
       <c r="N75" t="s">
-        <v>632</v>
+        <v>705</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="n">
         <v>5</v>
@@ -7602,56 +8147,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>633</v>
+        <v>706</v>
       </c>
       <c r="X75" t="s">
-        <v>634</v>
+        <v>707</v>
       </c>
       <c r="Y75" t="s">
-        <v>635</v>
+        <v>708</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>36368</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>146337</v>
+      </c>
+      <c r="C76" t="s">
+        <v>709</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>636</v>
+        <v>710</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>637</v>
+        <v>711</v>
       </c>
       <c r="J76" t="s">
-        <v>638</v>
+        <v>712</v>
       </c>
       <c r="K76" t="s">
-        <v>639</v>
+        <v>713</v>
       </c>
       <c r="L76" t="s">
-        <v>640</v>
+        <v>714</v>
       </c>
       <c r="M76" t="n">
         <v>3</v>
       </c>
       <c r="N76" t="s">
-        <v>632</v>
+        <v>705</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7673,56 +8222,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>641</v>
+        <v>715</v>
       </c>
       <c r="X76" t="s">
-        <v>642</v>
+        <v>716</v>
       </c>
       <c r="Y76" t="s">
-        <v>643</v>
+        <v>717</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>36368</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>146338</v>
+      </c>
+      <c r="C77" t="s">
+        <v>718</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>644</v>
+        <v>719</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>645</v>
+        <v>720</v>
       </c>
       <c r="J77" t="s">
-        <v>646</v>
+        <v>721</v>
       </c>
       <c r="K77" t="s">
-        <v>647</v>
+        <v>722</v>
       </c>
       <c r="L77" t="s">
-        <v>648</v>
+        <v>723</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>649</v>
+        <v>724</v>
       </c>
       <c r="O77" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -7744,56 +8297,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>650</v>
+        <v>725</v>
       </c>
       <c r="X77" t="s">
-        <v>651</v>
+        <v>726</v>
       </c>
       <c r="Y77" t="s">
-        <v>652</v>
+        <v>727</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>36368</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>146339</v>
+      </c>
+      <c r="C78" t="s">
+        <v>728</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>653</v>
+        <v>729</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>654</v>
+        <v>730</v>
       </c>
       <c r="J78" t="s">
-        <v>655</v>
+        <v>731</v>
       </c>
       <c r="K78" t="s">
-        <v>656</v>
+        <v>732</v>
       </c>
       <c r="L78" t="s">
-        <v>657</v>
+        <v>733</v>
       </c>
       <c r="M78" t="n">
         <v>2</v>
       </c>
       <c r="N78" t="s">
-        <v>623</v>
+        <v>695</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>2</v>
@@ -7815,56 +8372,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>658</v>
+        <v>734</v>
       </c>
       <c r="X78" t="s">
-        <v>659</v>
+        <v>735</v>
       </c>
       <c r="Y78" t="s">
-        <v>660</v>
+        <v>736</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>36368</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>146340</v>
+      </c>
+      <c r="C79" t="s">
+        <v>737</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>661</v>
+        <v>738</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>662</v>
+        <v>739</v>
       </c>
       <c r="J79" t="s">
-        <v>663</v>
+        <v>740</v>
       </c>
       <c r="K79" t="s">
-        <v>664</v>
+        <v>741</v>
       </c>
       <c r="L79" t="s">
-        <v>665</v>
+        <v>742</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>666</v>
+        <v>743</v>
       </c>
       <c r="O79" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -7886,56 +8447,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>667</v>
+        <v>744</v>
       </c>
       <c r="X79" t="s">
-        <v>668</v>
+        <v>745</v>
       </c>
       <c r="Y79" t="s">
-        <v>669</v>
+        <v>746</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>36368</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>146341</v>
+      </c>
+      <c r="C80" t="s">
+        <v>747</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>670</v>
+        <v>748</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>671</v>
+        <v>749</v>
       </c>
       <c r="J80" t="s">
-        <v>672</v>
+        <v>750</v>
       </c>
       <c r="K80" t="s">
-        <v>673</v>
+        <v>751</v>
       </c>
       <c r="L80" t="s">
-        <v>674</v>
+        <v>752</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>675</v>
+        <v>753</v>
       </c>
       <c r="O80" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7957,56 +8522,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>676</v>
+        <v>754</v>
       </c>
       <c r="X80" t="s">
-        <v>677</v>
+        <v>755</v>
       </c>
       <c r="Y80" t="s">
-        <v>678</v>
+        <v>756</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>36368</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>146342</v>
+      </c>
+      <c r="C81" t="s">
+        <v>757</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>679</v>
+        <v>758</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>680</v>
+        <v>759</v>
       </c>
       <c r="J81" t="s">
-        <v>681</v>
+        <v>760</v>
       </c>
       <c r="K81" t="s">
-        <v>682</v>
+        <v>761</v>
       </c>
       <c r="L81" t="s">
-        <v>683</v>
+        <v>762</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>675</v>
+        <v>753</v>
       </c>
       <c r="O81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P81" t="n">
         <v>3</v>
@@ -8028,56 +8597,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>676</v>
+        <v>754</v>
       </c>
       <c r="X81" t="s">
-        <v>677</v>
+        <v>755</v>
       </c>
       <c r="Y81" t="s">
-        <v>684</v>
+        <v>763</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>36368</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>146343</v>
+      </c>
+      <c r="C82" t="s">
+        <v>764</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>685</v>
+        <v>765</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>686</v>
+        <v>766</v>
       </c>
       <c r="J82" t="s">
-        <v>687</v>
+        <v>767</v>
       </c>
       <c r="K82" t="s">
-        <v>688</v>
+        <v>768</v>
       </c>
       <c r="L82" t="s">
-        <v>689</v>
+        <v>769</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>690</v>
+        <v>770</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -8101,50 +8674,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>689</v>
+        <v>769</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>36368</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>146344</v>
+      </c>
+      <c r="C83" t="s">
+        <v>771</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>691</v>
+        <v>772</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>692</v>
+        <v>773</v>
       </c>
       <c r="J83" t="s">
-        <v>693</v>
+        <v>774</v>
       </c>
       <c r="K83" t="s">
-        <v>694</v>
+        <v>775</v>
       </c>
       <c r="L83" t="s">
-        <v>695</v>
+        <v>776</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>696</v>
+        <v>777</v>
       </c>
       <c r="O83" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P83" t="n">
         <v>4</v>
@@ -8168,50 +8745,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>695</v>
+        <v>776</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>36368</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>146345</v>
+      </c>
+      <c r="C84" t="s">
+        <v>778</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>697</v>
+        <v>779</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>698</v>
+        <v>780</v>
       </c>
       <c r="J84" t="s">
-        <v>699</v>
+        <v>781</v>
       </c>
       <c r="K84" t="s">
-        <v>700</v>
+        <v>782</v>
       </c>
       <c r="L84" t="s">
-        <v>701</v>
+        <v>783</v>
       </c>
       <c r="M84" t="n">
         <v>3</v>
       </c>
       <c r="N84" t="s">
-        <v>696</v>
+        <v>777</v>
       </c>
       <c r="O84" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -8235,50 +8816,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>702</v>
+        <v>784</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>36368</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>146346</v>
+      </c>
+      <c r="C85" t="s">
+        <v>785</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>703</v>
+        <v>786</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>704</v>
+        <v>787</v>
       </c>
       <c r="J85" t="s">
-        <v>705</v>
+        <v>788</v>
       </c>
       <c r="K85" t="s">
-        <v>706</v>
+        <v>789</v>
       </c>
       <c r="L85" t="s">
-        <v>707</v>
+        <v>790</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>696</v>
+        <v>777</v>
       </c>
       <c r="O85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P85" t="n">
         <v>4</v>
@@ -8302,7 +8887,7 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>708</v>
+        <v>791</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_254.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_254.xlsx
@@ -2923,7 +2923,7 @@
         <v>36368</v>
       </c>
       <c r="B2" t="n">
-        <v>146275</v>
+        <v>177603</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -2988,7 +2988,7 @@
         <v>36368</v>
       </c>
       <c r="B3" t="n">
-        <v>146276</v>
+        <v>177604</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -3059,7 +3059,7 @@
         <v>36368</v>
       </c>
       <c r="B4" t="n">
-        <v>146277</v>
+        <v>177605</v>
       </c>
       <c r="C4" t="s">
         <v>68</v>
@@ -3134,7 +3134,7 @@
         <v>36368</v>
       </c>
       <c r="B5" t="n">
-        <v>146278</v>
+        <v>177606</v>
       </c>
       <c r="C5" t="s">
         <v>78</v>
@@ -3284,7 +3284,7 @@
         <v>36368</v>
       </c>
       <c r="B7" t="n">
-        <v>146279</v>
+        <v>177607</v>
       </c>
       <c r="C7" t="s">
         <v>99</v>
@@ -3434,7 +3434,7 @@
         <v>36368</v>
       </c>
       <c r="B9" t="n">
-        <v>146280</v>
+        <v>177608</v>
       </c>
       <c r="C9" t="s">
         <v>117</v>
@@ -3509,7 +3509,7 @@
         <v>36368</v>
       </c>
       <c r="B10" t="n">
-        <v>146281</v>
+        <v>177609</v>
       </c>
       <c r="C10" t="s">
         <v>126</v>
@@ -3584,7 +3584,7 @@
         <v>36368</v>
       </c>
       <c r="B11" t="n">
-        <v>146282</v>
+        <v>177610</v>
       </c>
       <c r="C11" t="s">
         <v>135</v>
@@ -3649,7 +3649,7 @@
         <v>36368</v>
       </c>
       <c r="B12" t="n">
-        <v>146283</v>
+        <v>177611</v>
       </c>
       <c r="C12" t="s">
         <v>146</v>
@@ -3720,7 +3720,7 @@
         <v>36368</v>
       </c>
       <c r="B13" t="n">
-        <v>146284</v>
+        <v>177612</v>
       </c>
       <c r="C13" t="s">
         <v>156</v>
@@ -3850,7 +3850,7 @@
         <v>36368</v>
       </c>
       <c r="B15" t="n">
-        <v>146285</v>
+        <v>177613</v>
       </c>
       <c r="C15" t="s">
         <v>175</v>
@@ -3925,7 +3925,7 @@
         <v>36368</v>
       </c>
       <c r="B16" t="n">
-        <v>146286</v>
+        <v>177614</v>
       </c>
       <c r="C16" t="s">
         <v>184</v>
@@ -4000,7 +4000,7 @@
         <v>36368</v>
       </c>
       <c r="B17" t="n">
-        <v>146287</v>
+        <v>177615</v>
       </c>
       <c r="C17" t="s">
         <v>193</v>
@@ -4075,7 +4075,7 @@
         <v>36368</v>
       </c>
       <c r="B18" t="n">
-        <v>146288</v>
+        <v>177616</v>
       </c>
       <c r="C18" t="s">
         <v>203</v>
@@ -4150,7 +4150,7 @@
         <v>36368</v>
       </c>
       <c r="B19" t="n">
-        <v>146289</v>
+        <v>177617</v>
       </c>
       <c r="C19" t="s">
         <v>212</v>
@@ -4225,7 +4225,7 @@
         <v>36368</v>
       </c>
       <c r="B20" t="n">
-        <v>146290</v>
+        <v>177618</v>
       </c>
       <c r="C20" t="s">
         <v>221</v>
@@ -4294,7 +4294,7 @@
         <v>36368</v>
       </c>
       <c r="B21" t="n">
-        <v>146291</v>
+        <v>177619</v>
       </c>
       <c r="C21" t="s">
         <v>230</v>
@@ -4369,7 +4369,7 @@
         <v>36368</v>
       </c>
       <c r="B22" t="n">
-        <v>146292</v>
+        <v>177620</v>
       </c>
       <c r="C22" t="s">
         <v>236</v>
@@ -4440,7 +4440,7 @@
         <v>36368</v>
       </c>
       <c r="B23" t="n">
-        <v>146293</v>
+        <v>177621</v>
       </c>
       <c r="C23" t="s">
         <v>246</v>
@@ -4511,7 +4511,7 @@
         <v>36368</v>
       </c>
       <c r="B24" t="n">
-        <v>146294</v>
+        <v>177622</v>
       </c>
       <c r="C24" t="s">
         <v>256</v>
@@ -4576,7 +4576,7 @@
         <v>36368</v>
       </c>
       <c r="B25" t="n">
-        <v>146295</v>
+        <v>177623</v>
       </c>
       <c r="C25" t="s">
         <v>266</v>
@@ -4647,7 +4647,7 @@
         <v>36368</v>
       </c>
       <c r="B26" t="n">
-        <v>146296</v>
+        <v>146280</v>
       </c>
       <c r="C26" t="s">
         <v>275</v>
@@ -4716,7 +4716,7 @@
         <v>36368</v>
       </c>
       <c r="B27" t="n">
-        <v>146297</v>
+        <v>177624</v>
       </c>
       <c r="C27" t="s">
         <v>285</v>
@@ -4858,7 +4858,7 @@
         <v>36368</v>
       </c>
       <c r="B29" t="n">
-        <v>146298</v>
+        <v>177625</v>
       </c>
       <c r="C29" t="s">
         <v>302</v>
@@ -4923,7 +4923,7 @@
         <v>36368</v>
       </c>
       <c r="B30" t="n">
-        <v>146299</v>
+        <v>177626</v>
       </c>
       <c r="C30" t="s">
         <v>311</v>
@@ -4994,7 +4994,7 @@
         <v>36368</v>
       </c>
       <c r="B31" t="n">
-        <v>146300</v>
+        <v>177627</v>
       </c>
       <c r="C31" t="s">
         <v>321</v>
@@ -5059,7 +5059,7 @@
         <v>36368</v>
       </c>
       <c r="B32" t="n">
-        <v>146301</v>
+        <v>177628</v>
       </c>
       <c r="C32" t="s">
         <v>330</v>
@@ -5130,7 +5130,7 @@
         <v>36368</v>
       </c>
       <c r="B33" t="n">
-        <v>146302</v>
+        <v>177629</v>
       </c>
       <c r="C33" t="s">
         <v>339</v>
@@ -5201,7 +5201,7 @@
         <v>36368</v>
       </c>
       <c r="B34" t="n">
-        <v>146303</v>
+        <v>177630</v>
       </c>
       <c r="C34" t="s">
         <v>349</v>
@@ -5268,7 +5268,7 @@
         <v>36368</v>
       </c>
       <c r="B35" t="n">
-        <v>146304</v>
+        <v>177631</v>
       </c>
       <c r="C35" t="s">
         <v>355</v>
@@ -5337,7 +5337,7 @@
         <v>36368</v>
       </c>
       <c r="B36" t="n">
-        <v>146305</v>
+        <v>177632</v>
       </c>
       <c r="C36" t="s">
         <v>365</v>
@@ -5408,7 +5408,7 @@
         <v>36368</v>
       </c>
       <c r="B37" t="n">
-        <v>146306</v>
+        <v>177633</v>
       </c>
       <c r="C37" t="s">
         <v>371</v>
@@ -5550,7 +5550,7 @@
         <v>36368</v>
       </c>
       <c r="B39" t="n">
-        <v>146307</v>
+        <v>177634</v>
       </c>
       <c r="C39" t="s">
         <v>391</v>
@@ -5684,7 +5684,7 @@
         <v>36368</v>
       </c>
       <c r="B41" t="n">
-        <v>146308</v>
+        <v>177635</v>
       </c>
       <c r="C41" t="s">
         <v>407</v>
@@ -5749,7 +5749,7 @@
         <v>36368</v>
       </c>
       <c r="B42" t="n">
-        <v>146309</v>
+        <v>177636</v>
       </c>
       <c r="C42" t="s">
         <v>417</v>
@@ -5818,7 +5818,7 @@
         <v>36368</v>
       </c>
       <c r="B43" t="n">
-        <v>146310</v>
+        <v>177637</v>
       </c>
       <c r="C43" t="s">
         <v>424</v>
@@ -5889,7 +5889,7 @@
         <v>36368</v>
       </c>
       <c r="B44" t="n">
-        <v>146311</v>
+        <v>177638</v>
       </c>
       <c r="C44" t="s">
         <v>434</v>
@@ -5956,7 +5956,7 @@
         <v>36368</v>
       </c>
       <c r="B45" t="n">
-        <v>146312</v>
+        <v>177639</v>
       </c>
       <c r="C45" t="s">
         <v>442</v>
@@ -6021,7 +6021,7 @@
         <v>36368</v>
       </c>
       <c r="B46" t="n">
-        <v>146313</v>
+        <v>177640</v>
       </c>
       <c r="C46" t="s">
         <v>449</v>
@@ -6088,7 +6088,7 @@
         <v>36368</v>
       </c>
       <c r="B47" t="n">
-        <v>146314</v>
+        <v>177641</v>
       </c>
       <c r="C47" t="s">
         <v>456</v>
@@ -6157,7 +6157,7 @@
         <v>36368</v>
       </c>
       <c r="B48" t="n">
-        <v>146315</v>
+        <v>177642</v>
       </c>
       <c r="C48" t="s">
         <v>466</v>
@@ -6228,7 +6228,7 @@
         <v>36368</v>
       </c>
       <c r="B49" t="n">
-        <v>146295</v>
+        <v>146280</v>
       </c>
       <c r="C49" t="s">
         <v>275</v>
@@ -6299,7 +6299,7 @@
         <v>36368</v>
       </c>
       <c r="B50" t="n">
-        <v>146316</v>
+        <v>177643</v>
       </c>
       <c r="C50" t="s">
         <v>484</v>
@@ -6364,7 +6364,7 @@
         <v>36368</v>
       </c>
       <c r="B51" t="n">
-        <v>146317</v>
+        <v>177644</v>
       </c>
       <c r="C51" t="s">
         <v>494</v>
@@ -6435,7 +6435,7 @@
         <v>36368</v>
       </c>
       <c r="B52" t="n">
-        <v>146318</v>
+        <v>177645</v>
       </c>
       <c r="C52" t="s">
         <v>504</v>
@@ -6502,7 +6502,7 @@
         <v>36368</v>
       </c>
       <c r="B53" t="n">
-        <v>146319</v>
+        <v>177646</v>
       </c>
       <c r="C53" t="s">
         <v>511</v>
@@ -6695,7 +6695,7 @@
         <v>36368</v>
       </c>
       <c r="B56" t="n">
-        <v>146320</v>
+        <v>177647</v>
       </c>
       <c r="C56" t="s">
         <v>535</v>
@@ -6770,7 +6770,7 @@
         <v>36368</v>
       </c>
       <c r="B57" t="n">
-        <v>146321</v>
+        <v>177648</v>
       </c>
       <c r="C57" t="s">
         <v>545</v>
@@ -6841,7 +6841,7 @@
         <v>36368</v>
       </c>
       <c r="B58" t="n">
-        <v>146322</v>
+        <v>177649</v>
       </c>
       <c r="C58" t="s">
         <v>552</v>
@@ -6912,7 +6912,7 @@
         <v>36368</v>
       </c>
       <c r="B59" t="n">
-        <v>146323</v>
+        <v>177650</v>
       </c>
       <c r="C59" t="s">
         <v>558</v>
@@ -6977,7 +6977,7 @@
         <v>36368</v>
       </c>
       <c r="B60" t="n">
-        <v>146324</v>
+        <v>177651</v>
       </c>
       <c r="C60" t="s">
         <v>568</v>
@@ -7048,7 +7048,7 @@
         <v>36368</v>
       </c>
       <c r="B61" t="n">
-        <v>146325</v>
+        <v>177652</v>
       </c>
       <c r="C61" t="s">
         <v>577</v>
@@ -7198,7 +7198,7 @@
         <v>36368</v>
       </c>
       <c r="B63" t="n">
-        <v>146326</v>
+        <v>177653</v>
       </c>
       <c r="C63" t="s">
         <v>596</v>
@@ -7273,7 +7273,7 @@
         <v>36368</v>
       </c>
       <c r="B64" t="n">
-        <v>146327</v>
+        <v>177654</v>
       </c>
       <c r="C64" t="s">
         <v>603</v>
@@ -7344,7 +7344,7 @@
         <v>36368</v>
       </c>
       <c r="B65" t="n">
-        <v>146328</v>
+        <v>177655</v>
       </c>
       <c r="C65" t="s">
         <v>612</v>
@@ -7494,7 +7494,7 @@
         <v>36368</v>
       </c>
       <c r="B67" t="n">
-        <v>146329</v>
+        <v>177656</v>
       </c>
       <c r="C67" t="s">
         <v>632</v>
@@ -7640,7 +7640,7 @@
         <v>36368</v>
       </c>
       <c r="B69" t="n">
-        <v>146330</v>
+        <v>177657</v>
       </c>
       <c r="C69" t="s">
         <v>651</v>
@@ -7711,7 +7711,7 @@
         <v>36368</v>
       </c>
       <c r="B70" t="n">
-        <v>146331</v>
+        <v>177658</v>
       </c>
       <c r="C70" t="s">
         <v>659</v>
@@ -7786,7 +7786,7 @@
         <v>36368</v>
       </c>
       <c r="B71" t="n">
-        <v>146332</v>
+        <v>177659</v>
       </c>
       <c r="C71" t="s">
         <v>667</v>
@@ -7861,7 +7861,7 @@
         <v>36368</v>
       </c>
       <c r="B72" t="n">
-        <v>146333</v>
+        <v>177660</v>
       </c>
       <c r="C72" t="s">
         <v>674</v>
@@ -7936,7 +7936,7 @@
         <v>36368</v>
       </c>
       <c r="B73" t="n">
-        <v>146334</v>
+        <v>177661</v>
       </c>
       <c r="C73" t="s">
         <v>682</v>
@@ -8011,7 +8011,7 @@
         <v>36368</v>
       </c>
       <c r="B74" t="n">
-        <v>146335</v>
+        <v>177662</v>
       </c>
       <c r="C74" t="s">
         <v>689</v>
@@ -8086,7 +8086,7 @@
         <v>36368</v>
       </c>
       <c r="B75" t="n">
-        <v>146336</v>
+        <v>177663</v>
       </c>
       <c r="C75" t="s">
         <v>699</v>
@@ -8161,7 +8161,7 @@
         <v>36368</v>
       </c>
       <c r="B76" t="n">
-        <v>146337</v>
+        <v>177664</v>
       </c>
       <c r="C76" t="s">
         <v>709</v>
@@ -8236,7 +8236,7 @@
         <v>36368</v>
       </c>
       <c r="B77" t="n">
-        <v>146338</v>
+        <v>177665</v>
       </c>
       <c r="C77" t="s">
         <v>718</v>
@@ -8311,7 +8311,7 @@
         <v>36368</v>
       </c>
       <c r="B78" t="n">
-        <v>146339</v>
+        <v>177666</v>
       </c>
       <c r="C78" t="s">
         <v>728</v>
@@ -8386,7 +8386,7 @@
         <v>36368</v>
       </c>
       <c r="B79" t="n">
-        <v>146340</v>
+        <v>177667</v>
       </c>
       <c r="C79" t="s">
         <v>737</v>
@@ -8461,7 +8461,7 @@
         <v>36368</v>
       </c>
       <c r="B80" t="n">
-        <v>146341</v>
+        <v>177668</v>
       </c>
       <c r="C80" t="s">
         <v>747</v>
@@ -8536,7 +8536,7 @@
         <v>36368</v>
       </c>
       <c r="B81" t="n">
-        <v>146342</v>
+        <v>177669</v>
       </c>
       <c r="C81" t="s">
         <v>757</v>
@@ -8611,7 +8611,7 @@
         <v>36368</v>
       </c>
       <c r="B82" t="n">
-        <v>146343</v>
+        <v>177670</v>
       </c>
       <c r="C82" t="s">
         <v>764</v>
@@ -8682,7 +8682,7 @@
         <v>36368</v>
       </c>
       <c r="B83" t="n">
-        <v>146344</v>
+        <v>177671</v>
       </c>
       <c r="C83" t="s">
         <v>771</v>
@@ -8753,7 +8753,7 @@
         <v>36368</v>
       </c>
       <c r="B84" t="n">
-        <v>146345</v>
+        <v>177672</v>
       </c>
       <c r="C84" t="s">
         <v>778</v>
@@ -8824,7 +8824,7 @@
         <v>36368</v>
       </c>
       <c r="B85" t="n">
-        <v>146346</v>
+        <v>177673</v>
       </c>
       <c r="C85" t="s">
         <v>785</v>
